--- a/設計書/DB設計書/DB設計書.xlsx
+++ b/設計書/DB設計書/DB設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\資料\卒業研究\バックアップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\DB設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901F9EED-C46F-4BCC-9CC9-230149251562}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBBCCBC-B5EE-4536-8DEC-AD76C3B17EC3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11310" yWindow="420" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="34" r:id="rId1"/>
@@ -24,10 +24,11 @@
     <sheet name="掲示板" sheetId="28" r:id="rId9"/>
     <sheet name="掲示板コメント" sheetId="29" r:id="rId10"/>
     <sheet name="カテゴリー" sheetId="30" r:id="rId11"/>
-    <sheet name="CRUD図 " sheetId="18" r:id="rId12"/>
+    <sheet name="二段階認証" sheetId="35" r:id="rId12"/>
+    <sheet name="CRUD図 " sheetId="18" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">'CRUD図 '!$A$1:$P$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'CRUD図 '!$A$1:$P$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'E-Rモデル　　エンティティ一覧'!$A$1:$F$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">カテゴリー!$A$1:$H$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">トーク!$A$1:$H$26</definedName>
@@ -38,6 +39,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="8">掲示板!$A$1:$H$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">掲示板コメント!$A$1:$H$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">趣味!$A$1:$H$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">二段階認証!$A$1:$H$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="269">
   <si>
     <t>No</t>
   </si>
@@ -1650,6 +1652,44 @@
       <t>サクセイビ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>二段階認証</t>
+    <rPh sb="0" eb="3">
+      <t>ニダンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Authentication</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワンタイムパスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード期限</t>
+    <rPh sb="5" eb="7">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二段階認証を管理するテーブル</t>
+    <rPh sb="0" eb="3">
+      <t>ニダンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="6" eb="14">
+      <t>カンr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -3010,7 +3050,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="342">
+  <cellXfs count="349">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3518,9 +3558,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3533,240 +3570,9 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3794,20 +3600,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3831,9 +3625,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3847,135 +3638,27 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="20" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="21" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="22" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="20" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="82" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="83" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="84" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="84" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="84" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="20" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="20" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="21" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="22" applyFont="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="20" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3992,6 +3675,384 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="84" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="84" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="20" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="84" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="83" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="82" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="20" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="22" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="21" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -6639,6 +6700,163 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>183815</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>33419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1721185</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>167102</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="39" name="グループ化 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78DEEFD-8421-4EF2-80AC-33DAB01F876E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6550526" y="14671840"/>
+          <a:ext cx="2456448" cy="1604209"/>
+          <a:chOff x="3415452" y="10060497"/>
+          <a:chExt cx="2179577" cy="1489453"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="正方形/長方形 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C622DB-22DC-4FED-8C9C-B7A5C726C8F8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3415452" y="10060497"/>
+            <a:ext cx="2165696" cy="356207"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>二段階認証</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="正方形/長方形 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A420A584-B368-42CA-8211-1AE54246A08F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3418190" y="10445728"/>
+            <a:ext cx="2176839" cy="1104222"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>＃＊学籍番号</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>  </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>　＊ワンタイムパスワード</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>　＊パスワード期限</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6934,1534 +7152,1579 @@
   </sheetPr>
   <dimension ref="A1:FT34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="58" zoomScaleNormal="58" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="58" zoomScaleNormal="58" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F8" sqref="F8:Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="287" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="288" customWidth="1"/>
-    <col min="7" max="32" width="4.1640625" style="287" customWidth="1"/>
-    <col min="33" max="36" width="4" style="287" customWidth="1"/>
-    <col min="37" max="256" width="9" style="287"/>
-    <col min="257" max="288" width="4.1640625" style="287" customWidth="1"/>
-    <col min="289" max="292" width="4" style="287" customWidth="1"/>
-    <col min="293" max="512" width="9" style="287"/>
-    <col min="513" max="544" width="4.1640625" style="287" customWidth="1"/>
-    <col min="545" max="548" width="4" style="287" customWidth="1"/>
-    <col min="549" max="768" width="9" style="287"/>
-    <col min="769" max="800" width="4.1640625" style="287" customWidth="1"/>
-    <col min="801" max="804" width="4" style="287" customWidth="1"/>
-    <col min="805" max="1024" width="9" style="287"/>
-    <col min="1025" max="1056" width="4.1640625" style="287" customWidth="1"/>
-    <col min="1057" max="1060" width="4" style="287" customWidth="1"/>
-    <col min="1061" max="1280" width="9" style="287"/>
-    <col min="1281" max="1312" width="4.1640625" style="287" customWidth="1"/>
-    <col min="1313" max="1316" width="4" style="287" customWidth="1"/>
-    <col min="1317" max="1536" width="9" style="287"/>
-    <col min="1537" max="1568" width="4.1640625" style="287" customWidth="1"/>
-    <col min="1569" max="1572" width="4" style="287" customWidth="1"/>
-    <col min="1573" max="1792" width="9" style="287"/>
-    <col min="1793" max="1824" width="4.1640625" style="287" customWidth="1"/>
-    <col min="1825" max="1828" width="4" style="287" customWidth="1"/>
-    <col min="1829" max="2048" width="9" style="287"/>
-    <col min="2049" max="2080" width="4.1640625" style="287" customWidth="1"/>
-    <col min="2081" max="2084" width="4" style="287" customWidth="1"/>
-    <col min="2085" max="2304" width="9" style="287"/>
-    <col min="2305" max="2336" width="4.1640625" style="287" customWidth="1"/>
-    <col min="2337" max="2340" width="4" style="287" customWidth="1"/>
-    <col min="2341" max="2560" width="9" style="287"/>
-    <col min="2561" max="2592" width="4.1640625" style="287" customWidth="1"/>
-    <col min="2593" max="2596" width="4" style="287" customWidth="1"/>
-    <col min="2597" max="2816" width="9" style="287"/>
-    <col min="2817" max="2848" width="4.1640625" style="287" customWidth="1"/>
-    <col min="2849" max="2852" width="4" style="287" customWidth="1"/>
-    <col min="2853" max="3072" width="9" style="287"/>
-    <col min="3073" max="3104" width="4.1640625" style="287" customWidth="1"/>
-    <col min="3105" max="3108" width="4" style="287" customWidth="1"/>
-    <col min="3109" max="3328" width="9" style="287"/>
-    <col min="3329" max="3360" width="4.1640625" style="287" customWidth="1"/>
-    <col min="3361" max="3364" width="4" style="287" customWidth="1"/>
-    <col min="3365" max="3584" width="9" style="287"/>
-    <col min="3585" max="3616" width="4.1640625" style="287" customWidth="1"/>
-    <col min="3617" max="3620" width="4" style="287" customWidth="1"/>
-    <col min="3621" max="3840" width="9" style="287"/>
-    <col min="3841" max="3872" width="4.1640625" style="287" customWidth="1"/>
-    <col min="3873" max="3876" width="4" style="287" customWidth="1"/>
-    <col min="3877" max="4096" width="9" style="287"/>
-    <col min="4097" max="4128" width="4.1640625" style="287" customWidth="1"/>
-    <col min="4129" max="4132" width="4" style="287" customWidth="1"/>
-    <col min="4133" max="4352" width="9" style="287"/>
-    <col min="4353" max="4384" width="4.1640625" style="287" customWidth="1"/>
-    <col min="4385" max="4388" width="4" style="287" customWidth="1"/>
-    <col min="4389" max="4608" width="9" style="287"/>
-    <col min="4609" max="4640" width="4.1640625" style="287" customWidth="1"/>
-    <col min="4641" max="4644" width="4" style="287" customWidth="1"/>
-    <col min="4645" max="4864" width="9" style="287"/>
-    <col min="4865" max="4896" width="4.1640625" style="287" customWidth="1"/>
-    <col min="4897" max="4900" width="4" style="287" customWidth="1"/>
-    <col min="4901" max="5120" width="9" style="287"/>
-    <col min="5121" max="5152" width="4.1640625" style="287" customWidth="1"/>
-    <col min="5153" max="5156" width="4" style="287" customWidth="1"/>
-    <col min="5157" max="5376" width="9" style="287"/>
-    <col min="5377" max="5408" width="4.1640625" style="287" customWidth="1"/>
-    <col min="5409" max="5412" width="4" style="287" customWidth="1"/>
-    <col min="5413" max="5632" width="9" style="287"/>
-    <col min="5633" max="5664" width="4.1640625" style="287" customWidth="1"/>
-    <col min="5665" max="5668" width="4" style="287" customWidth="1"/>
-    <col min="5669" max="5888" width="9" style="287"/>
-    <col min="5889" max="5920" width="4.1640625" style="287" customWidth="1"/>
-    <col min="5921" max="5924" width="4" style="287" customWidth="1"/>
-    <col min="5925" max="6144" width="9" style="287"/>
-    <col min="6145" max="6176" width="4.1640625" style="287" customWidth="1"/>
-    <col min="6177" max="6180" width="4" style="287" customWidth="1"/>
-    <col min="6181" max="6400" width="9" style="287"/>
-    <col min="6401" max="6432" width="4.1640625" style="287" customWidth="1"/>
-    <col min="6433" max="6436" width="4" style="287" customWidth="1"/>
-    <col min="6437" max="6656" width="9" style="287"/>
-    <col min="6657" max="6688" width="4.1640625" style="287" customWidth="1"/>
-    <col min="6689" max="6692" width="4" style="287" customWidth="1"/>
-    <col min="6693" max="6912" width="9" style="287"/>
-    <col min="6913" max="6944" width="4.1640625" style="287" customWidth="1"/>
-    <col min="6945" max="6948" width="4" style="287" customWidth="1"/>
-    <col min="6949" max="7168" width="9" style="287"/>
-    <col min="7169" max="7200" width="4.1640625" style="287" customWidth="1"/>
-    <col min="7201" max="7204" width="4" style="287" customWidth="1"/>
-    <col min="7205" max="7424" width="9" style="287"/>
-    <col min="7425" max="7456" width="4.1640625" style="287" customWidth="1"/>
-    <col min="7457" max="7460" width="4" style="287" customWidth="1"/>
-    <col min="7461" max="7680" width="9" style="287"/>
-    <col min="7681" max="7712" width="4.1640625" style="287" customWidth="1"/>
-    <col min="7713" max="7716" width="4" style="287" customWidth="1"/>
-    <col min="7717" max="7936" width="9" style="287"/>
-    <col min="7937" max="7968" width="4.1640625" style="287" customWidth="1"/>
-    <col min="7969" max="7972" width="4" style="287" customWidth="1"/>
-    <col min="7973" max="8192" width="9" style="287"/>
-    <col min="8193" max="8224" width="4.1640625" style="287" customWidth="1"/>
-    <col min="8225" max="8228" width="4" style="287" customWidth="1"/>
-    <col min="8229" max="8448" width="9" style="287"/>
-    <col min="8449" max="8480" width="4.1640625" style="287" customWidth="1"/>
-    <col min="8481" max="8484" width="4" style="287" customWidth="1"/>
-    <col min="8485" max="8704" width="9" style="287"/>
-    <col min="8705" max="8736" width="4.1640625" style="287" customWidth="1"/>
-    <col min="8737" max="8740" width="4" style="287" customWidth="1"/>
-    <col min="8741" max="8960" width="9" style="287"/>
-    <col min="8961" max="8992" width="4.1640625" style="287" customWidth="1"/>
-    <col min="8993" max="8996" width="4" style="287" customWidth="1"/>
-    <col min="8997" max="9216" width="9" style="287"/>
-    <col min="9217" max="9248" width="4.1640625" style="287" customWidth="1"/>
-    <col min="9249" max="9252" width="4" style="287" customWidth="1"/>
-    <col min="9253" max="9472" width="9" style="287"/>
-    <col min="9473" max="9504" width="4.1640625" style="287" customWidth="1"/>
-    <col min="9505" max="9508" width="4" style="287" customWidth="1"/>
-    <col min="9509" max="9728" width="9" style="287"/>
-    <col min="9729" max="9760" width="4.1640625" style="287" customWidth="1"/>
-    <col min="9761" max="9764" width="4" style="287" customWidth="1"/>
-    <col min="9765" max="9984" width="9" style="287"/>
-    <col min="9985" max="10016" width="4.1640625" style="287" customWidth="1"/>
-    <col min="10017" max="10020" width="4" style="287" customWidth="1"/>
-    <col min="10021" max="10240" width="9" style="287"/>
-    <col min="10241" max="10272" width="4.1640625" style="287" customWidth="1"/>
-    <col min="10273" max="10276" width="4" style="287" customWidth="1"/>
-    <col min="10277" max="10496" width="9" style="287"/>
-    <col min="10497" max="10528" width="4.1640625" style="287" customWidth="1"/>
-    <col min="10529" max="10532" width="4" style="287" customWidth="1"/>
-    <col min="10533" max="10752" width="9" style="287"/>
-    <col min="10753" max="10784" width="4.1640625" style="287" customWidth="1"/>
-    <col min="10785" max="10788" width="4" style="287" customWidth="1"/>
-    <col min="10789" max="11008" width="9" style="287"/>
-    <col min="11009" max="11040" width="4.1640625" style="287" customWidth="1"/>
-    <col min="11041" max="11044" width="4" style="287" customWidth="1"/>
-    <col min="11045" max="11264" width="9" style="287"/>
-    <col min="11265" max="11296" width="4.1640625" style="287" customWidth="1"/>
-    <col min="11297" max="11300" width="4" style="287" customWidth="1"/>
-    <col min="11301" max="11520" width="9" style="287"/>
-    <col min="11521" max="11552" width="4.1640625" style="287" customWidth="1"/>
-    <col min="11553" max="11556" width="4" style="287" customWidth="1"/>
-    <col min="11557" max="11776" width="9" style="287"/>
-    <col min="11777" max="11808" width="4.1640625" style="287" customWidth="1"/>
-    <col min="11809" max="11812" width="4" style="287" customWidth="1"/>
-    <col min="11813" max="12032" width="9" style="287"/>
-    <col min="12033" max="12064" width="4.1640625" style="287" customWidth="1"/>
-    <col min="12065" max="12068" width="4" style="287" customWidth="1"/>
-    <col min="12069" max="12288" width="9" style="287"/>
-    <col min="12289" max="12320" width="4.1640625" style="287" customWidth="1"/>
-    <col min="12321" max="12324" width="4" style="287" customWidth="1"/>
-    <col min="12325" max="12544" width="9" style="287"/>
-    <col min="12545" max="12576" width="4.1640625" style="287" customWidth="1"/>
-    <col min="12577" max="12580" width="4" style="287" customWidth="1"/>
-    <col min="12581" max="12800" width="9" style="287"/>
-    <col min="12801" max="12832" width="4.1640625" style="287" customWidth="1"/>
-    <col min="12833" max="12836" width="4" style="287" customWidth="1"/>
-    <col min="12837" max="13056" width="9" style="287"/>
-    <col min="13057" max="13088" width="4.1640625" style="287" customWidth="1"/>
-    <col min="13089" max="13092" width="4" style="287" customWidth="1"/>
-    <col min="13093" max="13312" width="9" style="287"/>
-    <col min="13313" max="13344" width="4.1640625" style="287" customWidth="1"/>
-    <col min="13345" max="13348" width="4" style="287" customWidth="1"/>
-    <col min="13349" max="13568" width="9" style="287"/>
-    <col min="13569" max="13600" width="4.1640625" style="287" customWidth="1"/>
-    <col min="13601" max="13604" width="4" style="287" customWidth="1"/>
-    <col min="13605" max="13824" width="9" style="287"/>
-    <col min="13825" max="13856" width="4.1640625" style="287" customWidth="1"/>
-    <col min="13857" max="13860" width="4" style="287" customWidth="1"/>
-    <col min="13861" max="14080" width="9" style="287"/>
-    <col min="14081" max="14112" width="4.1640625" style="287" customWidth="1"/>
-    <col min="14113" max="14116" width="4" style="287" customWidth="1"/>
-    <col min="14117" max="14336" width="9" style="287"/>
-    <col min="14337" max="14368" width="4.1640625" style="287" customWidth="1"/>
-    <col min="14369" max="14372" width="4" style="287" customWidth="1"/>
-    <col min="14373" max="14592" width="9" style="287"/>
-    <col min="14593" max="14624" width="4.1640625" style="287" customWidth="1"/>
-    <col min="14625" max="14628" width="4" style="287" customWidth="1"/>
-    <col min="14629" max="14848" width="9" style="287"/>
-    <col min="14849" max="14880" width="4.1640625" style="287" customWidth="1"/>
-    <col min="14881" max="14884" width="4" style="287" customWidth="1"/>
-    <col min="14885" max="15104" width="9" style="287"/>
-    <col min="15105" max="15136" width="4.1640625" style="287" customWidth="1"/>
-    <col min="15137" max="15140" width="4" style="287" customWidth="1"/>
-    <col min="15141" max="15360" width="9" style="287"/>
-    <col min="15361" max="15392" width="4.1640625" style="287" customWidth="1"/>
-    <col min="15393" max="15396" width="4" style="287" customWidth="1"/>
-    <col min="15397" max="15616" width="9" style="287"/>
-    <col min="15617" max="15648" width="4.1640625" style="287" customWidth="1"/>
-    <col min="15649" max="15652" width="4" style="287" customWidth="1"/>
-    <col min="15653" max="15872" width="9" style="287"/>
-    <col min="15873" max="15904" width="4.1640625" style="287" customWidth="1"/>
-    <col min="15905" max="15908" width="4" style="287" customWidth="1"/>
-    <col min="15909" max="16128" width="9" style="287"/>
-    <col min="16129" max="16160" width="4.1640625" style="287" customWidth="1"/>
-    <col min="16161" max="16164" width="4" style="287" customWidth="1"/>
-    <col min="16165" max="16384" width="9" style="287"/>
+    <col min="1" max="4" width="4.1640625" style="204" customWidth="1"/>
+    <col min="5" max="6" width="4.1640625" style="205" customWidth="1"/>
+    <col min="7" max="32" width="4.1640625" style="204" customWidth="1"/>
+    <col min="33" max="36" width="4" style="204" customWidth="1"/>
+    <col min="37" max="256" width="9" style="204"/>
+    <col min="257" max="288" width="4.1640625" style="204" customWidth="1"/>
+    <col min="289" max="292" width="4" style="204" customWidth="1"/>
+    <col min="293" max="512" width="9" style="204"/>
+    <col min="513" max="544" width="4.1640625" style="204" customWidth="1"/>
+    <col min="545" max="548" width="4" style="204" customWidth="1"/>
+    <col min="549" max="768" width="9" style="204"/>
+    <col min="769" max="800" width="4.1640625" style="204" customWidth="1"/>
+    <col min="801" max="804" width="4" style="204" customWidth="1"/>
+    <col min="805" max="1024" width="9" style="204"/>
+    <col min="1025" max="1056" width="4.1640625" style="204" customWidth="1"/>
+    <col min="1057" max="1060" width="4" style="204" customWidth="1"/>
+    <col min="1061" max="1280" width="9" style="204"/>
+    <col min="1281" max="1312" width="4.1640625" style="204" customWidth="1"/>
+    <col min="1313" max="1316" width="4" style="204" customWidth="1"/>
+    <col min="1317" max="1536" width="9" style="204"/>
+    <col min="1537" max="1568" width="4.1640625" style="204" customWidth="1"/>
+    <col min="1569" max="1572" width="4" style="204" customWidth="1"/>
+    <col min="1573" max="1792" width="9" style="204"/>
+    <col min="1793" max="1824" width="4.1640625" style="204" customWidth="1"/>
+    <col min="1825" max="1828" width="4" style="204" customWidth="1"/>
+    <col min="1829" max="2048" width="9" style="204"/>
+    <col min="2049" max="2080" width="4.1640625" style="204" customWidth="1"/>
+    <col min="2081" max="2084" width="4" style="204" customWidth="1"/>
+    <col min="2085" max="2304" width="9" style="204"/>
+    <col min="2305" max="2336" width="4.1640625" style="204" customWidth="1"/>
+    <col min="2337" max="2340" width="4" style="204" customWidth="1"/>
+    <col min="2341" max="2560" width="9" style="204"/>
+    <col min="2561" max="2592" width="4.1640625" style="204" customWidth="1"/>
+    <col min="2593" max="2596" width="4" style="204" customWidth="1"/>
+    <col min="2597" max="2816" width="9" style="204"/>
+    <col min="2817" max="2848" width="4.1640625" style="204" customWidth="1"/>
+    <col min="2849" max="2852" width="4" style="204" customWidth="1"/>
+    <col min="2853" max="3072" width="9" style="204"/>
+    <col min="3073" max="3104" width="4.1640625" style="204" customWidth="1"/>
+    <col min="3105" max="3108" width="4" style="204" customWidth="1"/>
+    <col min="3109" max="3328" width="9" style="204"/>
+    <col min="3329" max="3360" width="4.1640625" style="204" customWidth="1"/>
+    <col min="3361" max="3364" width="4" style="204" customWidth="1"/>
+    <col min="3365" max="3584" width="9" style="204"/>
+    <col min="3585" max="3616" width="4.1640625" style="204" customWidth="1"/>
+    <col min="3617" max="3620" width="4" style="204" customWidth="1"/>
+    <col min="3621" max="3840" width="9" style="204"/>
+    <col min="3841" max="3872" width="4.1640625" style="204" customWidth="1"/>
+    <col min="3873" max="3876" width="4" style="204" customWidth="1"/>
+    <col min="3877" max="4096" width="9" style="204"/>
+    <col min="4097" max="4128" width="4.1640625" style="204" customWidth="1"/>
+    <col min="4129" max="4132" width="4" style="204" customWidth="1"/>
+    <col min="4133" max="4352" width="9" style="204"/>
+    <col min="4353" max="4384" width="4.1640625" style="204" customWidth="1"/>
+    <col min="4385" max="4388" width="4" style="204" customWidth="1"/>
+    <col min="4389" max="4608" width="9" style="204"/>
+    <col min="4609" max="4640" width="4.1640625" style="204" customWidth="1"/>
+    <col min="4641" max="4644" width="4" style="204" customWidth="1"/>
+    <col min="4645" max="4864" width="9" style="204"/>
+    <col min="4865" max="4896" width="4.1640625" style="204" customWidth="1"/>
+    <col min="4897" max="4900" width="4" style="204" customWidth="1"/>
+    <col min="4901" max="5120" width="9" style="204"/>
+    <col min="5121" max="5152" width="4.1640625" style="204" customWidth="1"/>
+    <col min="5153" max="5156" width="4" style="204" customWidth="1"/>
+    <col min="5157" max="5376" width="9" style="204"/>
+    <col min="5377" max="5408" width="4.1640625" style="204" customWidth="1"/>
+    <col min="5409" max="5412" width="4" style="204" customWidth="1"/>
+    <col min="5413" max="5632" width="9" style="204"/>
+    <col min="5633" max="5664" width="4.1640625" style="204" customWidth="1"/>
+    <col min="5665" max="5668" width="4" style="204" customWidth="1"/>
+    <col min="5669" max="5888" width="9" style="204"/>
+    <col min="5889" max="5920" width="4.1640625" style="204" customWidth="1"/>
+    <col min="5921" max="5924" width="4" style="204" customWidth="1"/>
+    <col min="5925" max="6144" width="9" style="204"/>
+    <col min="6145" max="6176" width="4.1640625" style="204" customWidth="1"/>
+    <col min="6177" max="6180" width="4" style="204" customWidth="1"/>
+    <col min="6181" max="6400" width="9" style="204"/>
+    <col min="6401" max="6432" width="4.1640625" style="204" customWidth="1"/>
+    <col min="6433" max="6436" width="4" style="204" customWidth="1"/>
+    <col min="6437" max="6656" width="9" style="204"/>
+    <col min="6657" max="6688" width="4.1640625" style="204" customWidth="1"/>
+    <col min="6689" max="6692" width="4" style="204" customWidth="1"/>
+    <col min="6693" max="6912" width="9" style="204"/>
+    <col min="6913" max="6944" width="4.1640625" style="204" customWidth="1"/>
+    <col min="6945" max="6948" width="4" style="204" customWidth="1"/>
+    <col min="6949" max="7168" width="9" style="204"/>
+    <col min="7169" max="7200" width="4.1640625" style="204" customWidth="1"/>
+    <col min="7201" max="7204" width="4" style="204" customWidth="1"/>
+    <col min="7205" max="7424" width="9" style="204"/>
+    <col min="7425" max="7456" width="4.1640625" style="204" customWidth="1"/>
+    <col min="7457" max="7460" width="4" style="204" customWidth="1"/>
+    <col min="7461" max="7680" width="9" style="204"/>
+    <col min="7681" max="7712" width="4.1640625" style="204" customWidth="1"/>
+    <col min="7713" max="7716" width="4" style="204" customWidth="1"/>
+    <col min="7717" max="7936" width="9" style="204"/>
+    <col min="7937" max="7968" width="4.1640625" style="204" customWidth="1"/>
+    <col min="7969" max="7972" width="4" style="204" customWidth="1"/>
+    <col min="7973" max="8192" width="9" style="204"/>
+    <col min="8193" max="8224" width="4.1640625" style="204" customWidth="1"/>
+    <col min="8225" max="8228" width="4" style="204" customWidth="1"/>
+    <col min="8229" max="8448" width="9" style="204"/>
+    <col min="8449" max="8480" width="4.1640625" style="204" customWidth="1"/>
+    <col min="8481" max="8484" width="4" style="204" customWidth="1"/>
+    <col min="8485" max="8704" width="9" style="204"/>
+    <col min="8705" max="8736" width="4.1640625" style="204" customWidth="1"/>
+    <col min="8737" max="8740" width="4" style="204" customWidth="1"/>
+    <col min="8741" max="8960" width="9" style="204"/>
+    <col min="8961" max="8992" width="4.1640625" style="204" customWidth="1"/>
+    <col min="8993" max="8996" width="4" style="204" customWidth="1"/>
+    <col min="8997" max="9216" width="9" style="204"/>
+    <col min="9217" max="9248" width="4.1640625" style="204" customWidth="1"/>
+    <col min="9249" max="9252" width="4" style="204" customWidth="1"/>
+    <col min="9253" max="9472" width="9" style="204"/>
+    <col min="9473" max="9504" width="4.1640625" style="204" customWidth="1"/>
+    <col min="9505" max="9508" width="4" style="204" customWidth="1"/>
+    <col min="9509" max="9728" width="9" style="204"/>
+    <col min="9729" max="9760" width="4.1640625" style="204" customWidth="1"/>
+    <col min="9761" max="9764" width="4" style="204" customWidth="1"/>
+    <col min="9765" max="9984" width="9" style="204"/>
+    <col min="9985" max="10016" width="4.1640625" style="204" customWidth="1"/>
+    <col min="10017" max="10020" width="4" style="204" customWidth="1"/>
+    <col min="10021" max="10240" width="9" style="204"/>
+    <col min="10241" max="10272" width="4.1640625" style="204" customWidth="1"/>
+    <col min="10273" max="10276" width="4" style="204" customWidth="1"/>
+    <col min="10277" max="10496" width="9" style="204"/>
+    <col min="10497" max="10528" width="4.1640625" style="204" customWidth="1"/>
+    <col min="10529" max="10532" width="4" style="204" customWidth="1"/>
+    <col min="10533" max="10752" width="9" style="204"/>
+    <col min="10753" max="10784" width="4.1640625" style="204" customWidth="1"/>
+    <col min="10785" max="10788" width="4" style="204" customWidth="1"/>
+    <col min="10789" max="11008" width="9" style="204"/>
+    <col min="11009" max="11040" width="4.1640625" style="204" customWidth="1"/>
+    <col min="11041" max="11044" width="4" style="204" customWidth="1"/>
+    <col min="11045" max="11264" width="9" style="204"/>
+    <col min="11265" max="11296" width="4.1640625" style="204" customWidth="1"/>
+    <col min="11297" max="11300" width="4" style="204" customWidth="1"/>
+    <col min="11301" max="11520" width="9" style="204"/>
+    <col min="11521" max="11552" width="4.1640625" style="204" customWidth="1"/>
+    <col min="11553" max="11556" width="4" style="204" customWidth="1"/>
+    <col min="11557" max="11776" width="9" style="204"/>
+    <col min="11777" max="11808" width="4.1640625" style="204" customWidth="1"/>
+    <col min="11809" max="11812" width="4" style="204" customWidth="1"/>
+    <col min="11813" max="12032" width="9" style="204"/>
+    <col min="12033" max="12064" width="4.1640625" style="204" customWidth="1"/>
+    <col min="12065" max="12068" width="4" style="204" customWidth="1"/>
+    <col min="12069" max="12288" width="9" style="204"/>
+    <col min="12289" max="12320" width="4.1640625" style="204" customWidth="1"/>
+    <col min="12321" max="12324" width="4" style="204" customWidth="1"/>
+    <col min="12325" max="12544" width="9" style="204"/>
+    <col min="12545" max="12576" width="4.1640625" style="204" customWidth="1"/>
+    <col min="12577" max="12580" width="4" style="204" customWidth="1"/>
+    <col min="12581" max="12800" width="9" style="204"/>
+    <col min="12801" max="12832" width="4.1640625" style="204" customWidth="1"/>
+    <col min="12833" max="12836" width="4" style="204" customWidth="1"/>
+    <col min="12837" max="13056" width="9" style="204"/>
+    <col min="13057" max="13088" width="4.1640625" style="204" customWidth="1"/>
+    <col min="13089" max="13092" width="4" style="204" customWidth="1"/>
+    <col min="13093" max="13312" width="9" style="204"/>
+    <col min="13313" max="13344" width="4.1640625" style="204" customWidth="1"/>
+    <col min="13345" max="13348" width="4" style="204" customWidth="1"/>
+    <col min="13349" max="13568" width="9" style="204"/>
+    <col min="13569" max="13600" width="4.1640625" style="204" customWidth="1"/>
+    <col min="13601" max="13604" width="4" style="204" customWidth="1"/>
+    <col min="13605" max="13824" width="9" style="204"/>
+    <col min="13825" max="13856" width="4.1640625" style="204" customWidth="1"/>
+    <col min="13857" max="13860" width="4" style="204" customWidth="1"/>
+    <col min="13861" max="14080" width="9" style="204"/>
+    <col min="14081" max="14112" width="4.1640625" style="204" customWidth="1"/>
+    <col min="14113" max="14116" width="4" style="204" customWidth="1"/>
+    <col min="14117" max="14336" width="9" style="204"/>
+    <col min="14337" max="14368" width="4.1640625" style="204" customWidth="1"/>
+    <col min="14369" max="14372" width="4" style="204" customWidth="1"/>
+    <col min="14373" max="14592" width="9" style="204"/>
+    <col min="14593" max="14624" width="4.1640625" style="204" customWidth="1"/>
+    <col min="14625" max="14628" width="4" style="204" customWidth="1"/>
+    <col min="14629" max="14848" width="9" style="204"/>
+    <col min="14849" max="14880" width="4.1640625" style="204" customWidth="1"/>
+    <col min="14881" max="14884" width="4" style="204" customWidth="1"/>
+    <col min="14885" max="15104" width="9" style="204"/>
+    <col min="15105" max="15136" width="4.1640625" style="204" customWidth="1"/>
+    <col min="15137" max="15140" width="4" style="204" customWidth="1"/>
+    <col min="15141" max="15360" width="9" style="204"/>
+    <col min="15361" max="15392" width="4.1640625" style="204" customWidth="1"/>
+    <col min="15393" max="15396" width="4" style="204" customWidth="1"/>
+    <col min="15397" max="15616" width="9" style="204"/>
+    <col min="15617" max="15648" width="4.1640625" style="204" customWidth="1"/>
+    <col min="15649" max="15652" width="4" style="204" customWidth="1"/>
+    <col min="15653" max="15872" width="9" style="204"/>
+    <col min="15873" max="15904" width="4.1640625" style="204" customWidth="1"/>
+    <col min="15905" max="15908" width="4" style="204" customWidth="1"/>
+    <col min="15909" max="16128" width="9" style="204"/>
+    <col min="16129" max="16160" width="4.1640625" style="204" customWidth="1"/>
+    <col min="16161" max="16164" width="4" style="204" customWidth="1"/>
+    <col min="16165" max="16384" width="9" style="204"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:176" ht="15.75" customHeight="1">
-      <c r="A1" s="341"/>
-      <c r="B1" s="341"/>
-      <c r="C1" s="341"/>
-      <c r="D1" s="341"/>
-      <c r="E1" s="341"/>
-      <c r="F1" s="341"/>
-      <c r="G1" s="341"/>
-      <c r="H1" s="341"/>
-      <c r="I1" s="341"/>
-      <c r="J1" s="341"/>
-      <c r="K1" s="341"/>
-      <c r="L1" s="341"/>
-      <c r="M1" s="341"/>
-      <c r="N1" s="341"/>
-      <c r="O1" s="341"/>
-      <c r="P1" s="341"/>
-      <c r="Q1" s="341"/>
-      <c r="R1" s="341"/>
-      <c r="S1" s="341"/>
-      <c r="T1" s="341"/>
-      <c r="U1" s="341"/>
-      <c r="V1" s="341"/>
-      <c r="W1" s="341"/>
-      <c r="X1" s="341"/>
-      <c r="Y1" s="341"/>
-      <c r="Z1" s="341"/>
-      <c r="AA1" s="341"/>
-      <c r="AB1" s="341"/>
-      <c r="AC1" s="341"/>
-      <c r="AD1" s="341"/>
-      <c r="AE1" s="341"/>
-      <c r="AF1" s="341"/>
-    </row>
-    <row r="2" spans="1:176" s="335" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="340"/>
-      <c r="B2" s="340"/>
-      <c r="C2" s="340"/>
-      <c r="D2" s="340"/>
-      <c r="E2" s="340"/>
-      <c r="F2" s="340"/>
-      <c r="G2" s="340"/>
-      <c r="H2" s="340"/>
-      <c r="I2" s="340"/>
-      <c r="J2" s="338"/>
-      <c r="K2" s="337"/>
-      <c r="L2" s="337"/>
-      <c r="M2" s="337"/>
-      <c r="N2" s="337"/>
-      <c r="O2" s="339"/>
-      <c r="P2" s="338"/>
-      <c r="Q2" s="338"/>
-      <c r="R2" s="338"/>
-      <c r="S2" s="337"/>
-      <c r="T2" s="337"/>
-      <c r="U2" s="337"/>
-      <c r="V2" s="338"/>
-      <c r="W2" s="338"/>
-      <c r="X2" s="338"/>
-      <c r="Y2" s="338"/>
-      <c r="Z2" s="338"/>
-      <c r="AA2" s="337"/>
-      <c r="AB2" s="337"/>
-      <c r="AC2" s="337"/>
-      <c r="AD2" s="337"/>
-      <c r="AE2" s="337"/>
-      <c r="AF2" s="337"/>
-      <c r="AG2" s="289"/>
-      <c r="AH2" s="336"/>
-      <c r="AI2" s="336"/>
-      <c r="AJ2" s="336"/>
-      <c r="AK2" s="336"/>
-      <c r="AL2" s="336"/>
-      <c r="AM2" s="336"/>
-      <c r="AN2" s="336"/>
-      <c r="AO2" s="336"/>
-      <c r="AP2" s="336"/>
-      <c r="AQ2" s="336"/>
-      <c r="AR2" s="336"/>
-      <c r="AS2" s="336"/>
-      <c r="AT2" s="336"/>
-      <c r="AU2" s="336"/>
-      <c r="AV2" s="336"/>
-      <c r="AW2" s="336"/>
-      <c r="AX2" s="336"/>
-      <c r="AY2" s="336"/>
-      <c r="AZ2" s="336"/>
-      <c r="BA2" s="336"/>
-      <c r="BB2" s="336"/>
-      <c r="BC2" s="336"/>
-      <c r="BD2" s="336"/>
-      <c r="BE2" s="336"/>
-      <c r="BF2" s="336"/>
-      <c r="BG2" s="336"/>
-      <c r="BH2" s="336"/>
-      <c r="BI2" s="336"/>
-      <c r="BJ2" s="336"/>
-      <c r="BK2" s="336"/>
-      <c r="BL2" s="336"/>
-      <c r="BM2" s="336"/>
-      <c r="BN2" s="336"/>
-      <c r="BO2" s="336"/>
-      <c r="BP2" s="336"/>
-      <c r="BQ2" s="336"/>
-      <c r="BR2" s="336"/>
-      <c r="BS2" s="336"/>
-      <c r="BT2" s="336"/>
-      <c r="BU2" s="336"/>
-      <c r="BV2" s="336"/>
-      <c r="BW2" s="336"/>
-      <c r="BX2" s="336"/>
-      <c r="BY2" s="336"/>
-      <c r="BZ2" s="336"/>
-      <c r="CA2" s="336"/>
-      <c r="CB2" s="336"/>
-      <c r="CC2" s="336"/>
-      <c r="CD2" s="336"/>
-      <c r="CE2" s="336"/>
-      <c r="CF2" s="336"/>
-      <c r="CG2" s="336"/>
-      <c r="CH2" s="336"/>
-      <c r="CI2" s="336"/>
-      <c r="CJ2" s="336"/>
-      <c r="CK2" s="336"/>
-      <c r="CL2" s="336"/>
-      <c r="CM2" s="336"/>
-      <c r="CN2" s="336"/>
-      <c r="CO2" s="336"/>
-      <c r="CP2" s="336"/>
-      <c r="CQ2" s="336"/>
-      <c r="CR2" s="336"/>
-      <c r="CS2" s="336"/>
-      <c r="CT2" s="336"/>
-      <c r="CU2" s="336"/>
-      <c r="CV2" s="336"/>
-      <c r="CW2" s="336"/>
-      <c r="CX2" s="336"/>
-      <c r="CY2" s="336"/>
-      <c r="CZ2" s="336"/>
-      <c r="DA2" s="336"/>
-      <c r="DB2" s="336"/>
-      <c r="DC2" s="336"/>
-      <c r="DD2" s="336"/>
-      <c r="DE2" s="336"/>
-      <c r="DF2" s="336"/>
-      <c r="DG2" s="336"/>
-      <c r="DH2" s="336"/>
-      <c r="DI2" s="336"/>
-      <c r="DJ2" s="336"/>
-      <c r="DK2" s="336"/>
-      <c r="DL2" s="336"/>
-      <c r="DM2" s="336"/>
-      <c r="DN2" s="336"/>
-      <c r="DO2" s="336"/>
-      <c r="DP2" s="336"/>
-      <c r="DQ2" s="336"/>
-      <c r="DR2" s="336"/>
-      <c r="DS2" s="336"/>
-      <c r="DT2" s="336"/>
-      <c r="DU2" s="336"/>
-      <c r="DV2" s="336"/>
-      <c r="DW2" s="336"/>
-      <c r="DX2" s="336"/>
-      <c r="DY2" s="336"/>
-      <c r="DZ2" s="336"/>
-      <c r="EA2" s="336"/>
-      <c r="EB2" s="336"/>
-      <c r="EC2" s="336"/>
-      <c r="ED2" s="336"/>
-      <c r="EE2" s="336"/>
-      <c r="EF2" s="336"/>
-      <c r="EG2" s="336"/>
-      <c r="EH2" s="336"/>
-      <c r="EI2" s="336"/>
-      <c r="EJ2" s="336"/>
-      <c r="EK2" s="336"/>
-      <c r="EL2" s="336"/>
-      <c r="EM2" s="336"/>
-      <c r="EN2" s="336"/>
-      <c r="EO2" s="336"/>
-      <c r="EP2" s="336"/>
-      <c r="EQ2" s="336"/>
-      <c r="ER2" s="336"/>
-      <c r="ES2" s="336"/>
-      <c r="ET2" s="336"/>
-      <c r="EU2" s="336"/>
-      <c r="EV2" s="336"/>
-      <c r="EW2" s="336"/>
-      <c r="EX2" s="336"/>
-      <c r="EY2" s="336"/>
-      <c r="EZ2" s="336"/>
-      <c r="FA2" s="336"/>
-      <c r="FB2" s="336"/>
-      <c r="FC2" s="336"/>
-      <c r="FD2" s="336"/>
-      <c r="FE2" s="336"/>
-      <c r="FF2" s="336"/>
-      <c r="FG2" s="336"/>
-      <c r="FH2" s="336"/>
-      <c r="FI2" s="336"/>
-      <c r="FJ2" s="336"/>
-      <c r="FK2" s="336"/>
-      <c r="FL2" s="336"/>
-      <c r="FM2" s="336"/>
-      <c r="FN2" s="336"/>
-      <c r="FO2" s="336"/>
-      <c r="FP2" s="336"/>
-      <c r="FQ2" s="336"/>
-      <c r="FR2" s="336"/>
-      <c r="FS2" s="336"/>
-      <c r="FT2" s="336"/>
+      <c r="A1" s="222"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="222"/>
+      <c r="L1" s="222"/>
+      <c r="M1" s="222"/>
+      <c r="N1" s="222"/>
+      <c r="O1" s="222"/>
+      <c r="P1" s="222"/>
+      <c r="Q1" s="222"/>
+      <c r="R1" s="222"/>
+      <c r="S1" s="222"/>
+      <c r="T1" s="222"/>
+      <c r="U1" s="222"/>
+      <c r="V1" s="222"/>
+      <c r="W1" s="222"/>
+      <c r="X1" s="222"/>
+      <c r="Y1" s="222"/>
+      <c r="Z1" s="222"/>
+      <c r="AA1" s="222"/>
+      <c r="AB1" s="222"/>
+      <c r="AC1" s="222"/>
+      <c r="AD1" s="222"/>
+      <c r="AE1" s="222"/>
+      <c r="AF1" s="222"/>
+    </row>
+    <row r="2" spans="1:176" s="216" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="221"/>
+      <c r="B2" s="221"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="218"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="219"/>
+      <c r="Q2" s="219"/>
+      <c r="R2" s="219"/>
+      <c r="S2" s="218"/>
+      <c r="T2" s="218"/>
+      <c r="U2" s="218"/>
+      <c r="V2" s="219"/>
+      <c r="W2" s="219"/>
+      <c r="X2" s="219"/>
+      <c r="Y2" s="219"/>
+      <c r="Z2" s="219"/>
+      <c r="AA2" s="218"/>
+      <c r="AB2" s="218"/>
+      <c r="AC2" s="218"/>
+      <c r="AD2" s="218"/>
+      <c r="AE2" s="218"/>
+      <c r="AF2" s="218"/>
+      <c r="AG2" s="206"/>
+      <c r="AH2" s="217"/>
+      <c r="AI2" s="217"/>
+      <c r="AJ2" s="217"/>
+      <c r="AK2" s="217"/>
+      <c r="AL2" s="217"/>
+      <c r="AM2" s="217"/>
+      <c r="AN2" s="217"/>
+      <c r="AO2" s="217"/>
+      <c r="AP2" s="217"/>
+      <c r="AQ2" s="217"/>
+      <c r="AR2" s="217"/>
+      <c r="AS2" s="217"/>
+      <c r="AT2" s="217"/>
+      <c r="AU2" s="217"/>
+      <c r="AV2" s="217"/>
+      <c r="AW2" s="217"/>
+      <c r="AX2" s="217"/>
+      <c r="AY2" s="217"/>
+      <c r="AZ2" s="217"/>
+      <c r="BA2" s="217"/>
+      <c r="BB2" s="217"/>
+      <c r="BC2" s="217"/>
+      <c r="BD2" s="217"/>
+      <c r="BE2" s="217"/>
+      <c r="BF2" s="217"/>
+      <c r="BG2" s="217"/>
+      <c r="BH2" s="217"/>
+      <c r="BI2" s="217"/>
+      <c r="BJ2" s="217"/>
+      <c r="BK2" s="217"/>
+      <c r="BL2" s="217"/>
+      <c r="BM2" s="217"/>
+      <c r="BN2" s="217"/>
+      <c r="BO2" s="217"/>
+      <c r="BP2" s="217"/>
+      <c r="BQ2" s="217"/>
+      <c r="BR2" s="217"/>
+      <c r="BS2" s="217"/>
+      <c r="BT2" s="217"/>
+      <c r="BU2" s="217"/>
+      <c r="BV2" s="217"/>
+      <c r="BW2" s="217"/>
+      <c r="BX2" s="217"/>
+      <c r="BY2" s="217"/>
+      <c r="BZ2" s="217"/>
+      <c r="CA2" s="217"/>
+      <c r="CB2" s="217"/>
+      <c r="CC2" s="217"/>
+      <c r="CD2" s="217"/>
+      <c r="CE2" s="217"/>
+      <c r="CF2" s="217"/>
+      <c r="CG2" s="217"/>
+      <c r="CH2" s="217"/>
+      <c r="CI2" s="217"/>
+      <c r="CJ2" s="217"/>
+      <c r="CK2" s="217"/>
+      <c r="CL2" s="217"/>
+      <c r="CM2" s="217"/>
+      <c r="CN2" s="217"/>
+      <c r="CO2" s="217"/>
+      <c r="CP2" s="217"/>
+      <c r="CQ2" s="217"/>
+      <c r="CR2" s="217"/>
+      <c r="CS2" s="217"/>
+      <c r="CT2" s="217"/>
+      <c r="CU2" s="217"/>
+      <c r="CV2" s="217"/>
+      <c r="CW2" s="217"/>
+      <c r="CX2" s="217"/>
+      <c r="CY2" s="217"/>
+      <c r="CZ2" s="217"/>
+      <c r="DA2" s="217"/>
+      <c r="DB2" s="217"/>
+      <c r="DC2" s="217"/>
+      <c r="DD2" s="217"/>
+      <c r="DE2" s="217"/>
+      <c r="DF2" s="217"/>
+      <c r="DG2" s="217"/>
+      <c r="DH2" s="217"/>
+      <c r="DI2" s="217"/>
+      <c r="DJ2" s="217"/>
+      <c r="DK2" s="217"/>
+      <c r="DL2" s="217"/>
+      <c r="DM2" s="217"/>
+      <c r="DN2" s="217"/>
+      <c r="DO2" s="217"/>
+      <c r="DP2" s="217"/>
+      <c r="DQ2" s="217"/>
+      <c r="DR2" s="217"/>
+      <c r="DS2" s="217"/>
+      <c r="DT2" s="217"/>
+      <c r="DU2" s="217"/>
+      <c r="DV2" s="217"/>
+      <c r="DW2" s="217"/>
+      <c r="DX2" s="217"/>
+      <c r="DY2" s="217"/>
+      <c r="DZ2" s="217"/>
+      <c r="EA2" s="217"/>
+      <c r="EB2" s="217"/>
+      <c r="EC2" s="217"/>
+      <c r="ED2" s="217"/>
+      <c r="EE2" s="217"/>
+      <c r="EF2" s="217"/>
+      <c r="EG2" s="217"/>
+      <c r="EH2" s="217"/>
+      <c r="EI2" s="217"/>
+      <c r="EJ2" s="217"/>
+      <c r="EK2" s="217"/>
+      <c r="EL2" s="217"/>
+      <c r="EM2" s="217"/>
+      <c r="EN2" s="217"/>
+      <c r="EO2" s="217"/>
+      <c r="EP2" s="217"/>
+      <c r="EQ2" s="217"/>
+      <c r="ER2" s="217"/>
+      <c r="ES2" s="217"/>
+      <c r="ET2" s="217"/>
+      <c r="EU2" s="217"/>
+      <c r="EV2" s="217"/>
+      <c r="EW2" s="217"/>
+      <c r="EX2" s="217"/>
+      <c r="EY2" s="217"/>
+      <c r="EZ2" s="217"/>
+      <c r="FA2" s="217"/>
+      <c r="FB2" s="217"/>
+      <c r="FC2" s="217"/>
+      <c r="FD2" s="217"/>
+      <c r="FE2" s="217"/>
+      <c r="FF2" s="217"/>
+      <c r="FG2" s="217"/>
+      <c r="FH2" s="217"/>
+      <c r="FI2" s="217"/>
+      <c r="FJ2" s="217"/>
+      <c r="FK2" s="217"/>
+      <c r="FL2" s="217"/>
+      <c r="FM2" s="217"/>
+      <c r="FN2" s="217"/>
+      <c r="FO2" s="217"/>
+      <c r="FP2" s="217"/>
+      <c r="FQ2" s="217"/>
+      <c r="FR2" s="217"/>
+      <c r="FS2" s="217"/>
+      <c r="FT2" s="217"/>
     </row>
     <row r="3" spans="1:176" ht="28.5" customHeight="1">
-      <c r="A3" s="289"/>
-      <c r="B3" s="289"/>
-      <c r="C3" s="289"/>
-      <c r="D3" s="289"/>
-      <c r="E3" s="289"/>
-      <c r="F3" s="289"/>
-      <c r="G3" s="289"/>
-      <c r="H3" s="289"/>
-      <c r="I3" s="289"/>
-      <c r="J3" s="289"/>
-      <c r="K3" s="289"/>
-      <c r="L3" s="289"/>
-      <c r="M3" s="289"/>
-      <c r="N3" s="289"/>
-      <c r="O3" s="289"/>
-      <c r="Q3" s="289"/>
-      <c r="R3" s="289"/>
-      <c r="S3" s="289"/>
-      <c r="T3" s="289"/>
-      <c r="U3" s="292" t="s">
+      <c r="A3" s="206"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="206"/>
+      <c r="S3" s="206"/>
+      <c r="T3" s="206"/>
+      <c r="U3" s="238" t="s">
         <v>263</v>
       </c>
-      <c r="V3" s="290"/>
-      <c r="W3" s="334">
+      <c r="V3" s="239"/>
+      <c r="W3" s="240">
         <v>43714</v>
       </c>
-      <c r="X3" s="291"/>
-      <c r="Y3" s="291"/>
-      <c r="Z3" s="291"/>
-      <c r="AA3" s="291"/>
-      <c r="AB3" s="291"/>
-      <c r="AC3" s="291"/>
-      <c r="AD3" s="291"/>
-      <c r="AE3" s="290"/>
-      <c r="AF3" s="289"/>
+      <c r="X3" s="241"/>
+      <c r="Y3" s="241"/>
+      <c r="Z3" s="241"/>
+      <c r="AA3" s="241"/>
+      <c r="AB3" s="241"/>
+      <c r="AC3" s="241"/>
+      <c r="AD3" s="241"/>
+      <c r="AE3" s="239"/>
+      <c r="AF3" s="206"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
-      <c r="A4" s="289"/>
-      <c r="B4" s="333"/>
-      <c r="C4" s="333"/>
-      <c r="D4" s="333"/>
-      <c r="E4" s="333"/>
-      <c r="F4" s="333"/>
-      <c r="G4" s="333"/>
-      <c r="H4" s="333"/>
-      <c r="I4" s="333"/>
-      <c r="J4" s="333"/>
-      <c r="K4" s="333"/>
-      <c r="L4" s="333"/>
-      <c r="M4" s="333"/>
-      <c r="N4" s="333"/>
-      <c r="O4" s="333"/>
-      <c r="P4" s="333"/>
-      <c r="Q4" s="333"/>
-      <c r="R4" s="333"/>
-      <c r="S4" s="333"/>
-      <c r="T4" s="333"/>
-      <c r="U4" s="333"/>
-      <c r="V4" s="333"/>
-      <c r="W4" s="333"/>
-      <c r="X4" s="289"/>
-      <c r="Y4" s="289"/>
-      <c r="Z4" s="289"/>
-      <c r="AA4" s="289"/>
-      <c r="AB4" s="289"/>
-      <c r="AC4" s="289"/>
-      <c r="AD4" s="289"/>
-      <c r="AE4" s="333"/>
-      <c r="AF4" s="289"/>
+      <c r="A4" s="206"/>
+      <c r="B4" s="215"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="215"/>
+      <c r="S4" s="215"/>
+      <c r="T4" s="215"/>
+      <c r="U4" s="215"/>
+      <c r="V4" s="215"/>
+      <c r="W4" s="215"/>
+      <c r="X4" s="206"/>
+      <c r="Y4" s="206"/>
+      <c r="Z4" s="206"/>
+      <c r="AA4" s="206"/>
+      <c r="AB4" s="206"/>
+      <c r="AC4" s="206"/>
+      <c r="AD4" s="206"/>
+      <c r="AE4" s="215"/>
+      <c r="AF4" s="206"/>
     </row>
     <row r="5" spans="1:176" ht="15.75" customHeight="1">
-      <c r="A5" s="289"/>
-      <c r="B5" s="333"/>
-      <c r="C5" s="333"/>
-      <c r="D5" s="333"/>
-      <c r="E5" s="333"/>
-      <c r="F5" s="333"/>
-      <c r="G5" s="333"/>
-      <c r="H5" s="333"/>
-      <c r="I5" s="333"/>
-      <c r="J5" s="333"/>
-      <c r="K5" s="333"/>
-      <c r="L5" s="333"/>
-      <c r="M5" s="333"/>
-      <c r="N5" s="333"/>
-      <c r="O5" s="333"/>
-      <c r="P5" s="333"/>
-      <c r="Q5" s="333"/>
-      <c r="R5" s="333"/>
-      <c r="S5" s="333"/>
-      <c r="T5" s="333"/>
-      <c r="U5" s="333"/>
-      <c r="V5" s="333"/>
-      <c r="W5" s="333"/>
-      <c r="Y5" s="332" t="s">
+      <c r="A5" s="206"/>
+      <c r="B5" s="215"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="215"/>
+      <c r="F5" s="215"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="215"/>
+      <c r="I5" s="215"/>
+      <c r="J5" s="215"/>
+      <c r="K5" s="215"/>
+      <c r="L5" s="215"/>
+      <c r="M5" s="215"/>
+      <c r="N5" s="215"/>
+      <c r="O5" s="215"/>
+      <c r="P5" s="215"/>
+      <c r="Q5" s="215"/>
+      <c r="R5" s="215"/>
+      <c r="S5" s="215"/>
+      <c r="T5" s="215"/>
+      <c r="U5" s="215"/>
+      <c r="V5" s="215"/>
+      <c r="W5" s="215"/>
+      <c r="Y5" s="214" t="s">
         <v>262</v>
       </c>
-      <c r="AA5" s="289"/>
-      <c r="AB5" s="289"/>
-      <c r="AC5" s="289"/>
-      <c r="AD5" s="289"/>
-      <c r="AE5" s="333"/>
-      <c r="AF5" s="289"/>
+      <c r="AA5" s="206"/>
+      <c r="AB5" s="206"/>
+      <c r="AC5" s="206"/>
+      <c r="AD5" s="206"/>
+      <c r="AE5" s="215"/>
+      <c r="AF5" s="206"/>
     </row>
     <row r="6" spans="1:176" ht="15.75" customHeight="1">
-      <c r="A6" s="289"/>
-      <c r="B6" s="289"/>
-      <c r="C6" s="289"/>
-      <c r="D6" s="289"/>
-      <c r="E6" s="289"/>
-      <c r="F6" s="289"/>
-      <c r="G6" s="289"/>
-      <c r="H6" s="289"/>
-      <c r="I6" s="289"/>
-      <c r="J6" s="289"/>
-      <c r="K6" s="289"/>
-      <c r="L6" s="289"/>
-      <c r="M6" s="289"/>
-      <c r="N6" s="289"/>
-      <c r="O6" s="289"/>
-      <c r="Q6" s="289"/>
-      <c r="R6" s="289"/>
-      <c r="S6" s="289"/>
-      <c r="T6" s="289"/>
-      <c r="U6" s="289"/>
-      <c r="V6" s="289"/>
-      <c r="W6" s="289"/>
-      <c r="Y6" s="332" t="s">
+      <c r="A6" s="206"/>
+      <c r="B6" s="206"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="206"/>
+      <c r="I6" s="206"/>
+      <c r="J6" s="206"/>
+      <c r="K6" s="206"/>
+      <c r="L6" s="206"/>
+      <c r="M6" s="206"/>
+      <c r="N6" s="206"/>
+      <c r="O6" s="206"/>
+      <c r="Q6" s="206"/>
+      <c r="R6" s="206"/>
+      <c r="S6" s="206"/>
+      <c r="T6" s="206"/>
+      <c r="U6" s="206"/>
+      <c r="V6" s="206"/>
+      <c r="W6" s="206"/>
+      <c r="Y6" s="214" t="s">
         <v>261</v>
       </c>
-      <c r="AA6" s="289"/>
-      <c r="AB6" s="289"/>
-      <c r="AC6" s="289"/>
-      <c r="AD6" s="289"/>
-      <c r="AE6" s="289"/>
-      <c r="AF6" s="289"/>
+      <c r="AA6" s="206"/>
+      <c r="AB6" s="206"/>
+      <c r="AC6" s="206"/>
+      <c r="AD6" s="206"/>
+      <c r="AE6" s="206"/>
+      <c r="AF6" s="206"/>
     </row>
     <row r="7" spans="1:176" ht="20.25" customHeight="1">
-      <c r="A7" s="289"/>
-      <c r="B7" s="331" t="s">
+      <c r="A7" s="206"/>
+      <c r="B7" s="213" t="s">
         <v>260</v>
       </c>
-      <c r="C7" s="330"/>
-      <c r="D7" s="330"/>
-      <c r="E7" s="329"/>
-      <c r="F7" s="328" t="s">
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="223" t="s">
         <v>259</v>
       </c>
-      <c r="G7" s="327"/>
-      <c r="H7" s="327"/>
-      <c r="I7" s="327"/>
-      <c r="J7" s="327"/>
-      <c r="K7" s="327"/>
-      <c r="L7" s="327"/>
-      <c r="M7" s="327"/>
-      <c r="N7" s="327"/>
-      <c r="O7" s="327"/>
-      <c r="P7" s="327"/>
-      <c r="Q7" s="326"/>
-      <c r="R7" s="289"/>
-      <c r="S7" s="289"/>
-      <c r="T7" s="289"/>
-      <c r="U7" s="289"/>
-      <c r="V7" s="289"/>
-      <c r="W7" s="289"/>
-      <c r="X7" s="289"/>
-      <c r="Y7" s="289"/>
-      <c r="Z7" s="289"/>
-      <c r="AA7" s="289"/>
-      <c r="AB7" s="289"/>
-      <c r="AC7" s="289"/>
-      <c r="AD7" s="289"/>
-      <c r="AF7" s="289"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="224"/>
+      <c r="I7" s="224"/>
+      <c r="J7" s="224"/>
+      <c r="K7" s="224"/>
+      <c r="L7" s="224"/>
+      <c r="M7" s="224"/>
+      <c r="N7" s="224"/>
+      <c r="O7" s="224"/>
+      <c r="P7" s="224"/>
+      <c r="Q7" s="225"/>
+      <c r="R7" s="206"/>
+      <c r="S7" s="206"/>
+      <c r="T7" s="206"/>
+      <c r="U7" s="206"/>
+      <c r="V7" s="206"/>
+      <c r="W7" s="206"/>
+      <c r="X7" s="206"/>
+      <c r="Y7" s="206"/>
+      <c r="Z7" s="206"/>
+      <c r="AA7" s="206"/>
+      <c r="AB7" s="206"/>
+      <c r="AC7" s="206"/>
+      <c r="AD7" s="206"/>
+      <c r="AF7" s="206"/>
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
-      <c r="A8" s="289"/>
-      <c r="B8" s="325" t="s">
+      <c r="A8" s="206"/>
+      <c r="B8" s="226" t="s">
         <v>258</v>
       </c>
-      <c r="C8" s="324"/>
-      <c r="D8" s="324"/>
-      <c r="E8" s="323"/>
-      <c r="F8" s="322" t="s">
+      <c r="C8" s="227"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="228"/>
+      <c r="F8" s="232" t="s">
         <v>152</v>
       </c>
-      <c r="G8" s="321"/>
-      <c r="H8" s="321"/>
-      <c r="I8" s="321"/>
-      <c r="J8" s="321"/>
-      <c r="K8" s="321"/>
-      <c r="L8" s="321"/>
-      <c r="M8" s="321"/>
-      <c r="N8" s="321"/>
-      <c r="O8" s="321"/>
-      <c r="P8" s="321"/>
-      <c r="Q8" s="320"/>
-      <c r="R8" s="289"/>
-      <c r="S8" s="289"/>
-      <c r="T8" s="289"/>
-      <c r="U8" s="289"/>
-      <c r="V8" s="289"/>
-      <c r="W8" s="319" t="s">
+      <c r="G8" s="233"/>
+      <c r="H8" s="233"/>
+      <c r="I8" s="233"/>
+      <c r="J8" s="233"/>
+      <c r="K8" s="233"/>
+      <c r="L8" s="233"/>
+      <c r="M8" s="233"/>
+      <c r="N8" s="233"/>
+      <c r="O8" s="233"/>
+      <c r="P8" s="233"/>
+      <c r="Q8" s="234"/>
+      <c r="R8" s="206"/>
+      <c r="S8" s="206"/>
+      <c r="T8" s="206"/>
+      <c r="U8" s="206"/>
+      <c r="V8" s="206"/>
+      <c r="W8" s="242" t="s">
         <v>257</v>
       </c>
-      <c r="X8" s="319"/>
-      <c r="Y8" s="319"/>
-      <c r="Z8" s="319" t="s">
+      <c r="X8" s="242"/>
+      <c r="Y8" s="242"/>
+      <c r="Z8" s="242" t="s">
         <v>256</v>
       </c>
-      <c r="AA8" s="319"/>
-      <c r="AB8" s="319"/>
-      <c r="AC8" s="319" t="s">
+      <c r="AA8" s="242"/>
+      <c r="AB8" s="242"/>
+      <c r="AC8" s="242" t="s">
         <v>250</v>
       </c>
-      <c r="AD8" s="319"/>
-      <c r="AE8" s="319"/>
-      <c r="AF8" s="289"/>
+      <c r="AD8" s="242"/>
+      <c r="AE8" s="242"/>
+      <c r="AF8" s="206"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
-      <c r="A9" s="289"/>
-      <c r="B9" s="318"/>
-      <c r="C9" s="317"/>
-      <c r="D9" s="317"/>
-      <c r="E9" s="316"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="314"/>
-      <c r="H9" s="314"/>
-      <c r="I9" s="314"/>
-      <c r="J9" s="314"/>
-      <c r="K9" s="314"/>
-      <c r="L9" s="314"/>
-      <c r="M9" s="314"/>
-      <c r="N9" s="314"/>
-      <c r="O9" s="314"/>
-      <c r="P9" s="314"/>
-      <c r="Q9" s="313"/>
-      <c r="R9" s="289"/>
-      <c r="S9" s="289"/>
-      <c r="T9" s="289"/>
-      <c r="U9" s="289"/>
-      <c r="V9" s="289"/>
-      <c r="W9" s="312" t="s">
+      <c r="A9" s="206"/>
+      <c r="B9" s="229"/>
+      <c r="C9" s="230"/>
+      <c r="D9" s="230"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="235"/>
+      <c r="G9" s="236"/>
+      <c r="H9" s="236"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="236"/>
+      <c r="K9" s="236"/>
+      <c r="L9" s="236"/>
+      <c r="M9" s="236"/>
+      <c r="N9" s="236"/>
+      <c r="O9" s="236"/>
+      <c r="P9" s="236"/>
+      <c r="Q9" s="237"/>
+      <c r="R9" s="206"/>
+      <c r="S9" s="206"/>
+      <c r="T9" s="206"/>
+      <c r="U9" s="206"/>
+      <c r="V9" s="206"/>
+      <c r="W9" s="243" t="s">
         <v>255</v>
       </c>
-      <c r="X9" s="311"/>
-      <c r="Y9" s="310"/>
-      <c r="Z9" s="312" t="s">
+      <c r="X9" s="244"/>
+      <c r="Y9" s="245"/>
+      <c r="Z9" s="243" t="s">
         <v>173</v>
       </c>
-      <c r="AA9" s="311"/>
-      <c r="AB9" s="310"/>
-      <c r="AC9" s="312" t="s">
+      <c r="AA9" s="244"/>
+      <c r="AB9" s="245"/>
+      <c r="AC9" s="243" t="s">
         <v>173</v>
       </c>
-      <c r="AD9" s="311"/>
-      <c r="AE9" s="310"/>
-      <c r="AF9" s="289"/>
+      <c r="AD9" s="244"/>
+      <c r="AE9" s="245"/>
+      <c r="AF9" s="206"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
-      <c r="A10" s="289"/>
-      <c r="B10" s="289"/>
-      <c r="C10" s="289"/>
-      <c r="D10" s="289"/>
-      <c r="E10" s="289"/>
-      <c r="F10" s="289"/>
-      <c r="G10" s="289"/>
-      <c r="H10" s="289"/>
-      <c r="I10" s="289"/>
-      <c r="J10" s="289"/>
-      <c r="K10" s="289"/>
-      <c r="L10" s="289"/>
-      <c r="M10" s="289"/>
-      <c r="N10" s="289"/>
-      <c r="O10" s="289"/>
-      <c r="P10" s="289"/>
-      <c r="Q10" s="289"/>
-      <c r="R10" s="289"/>
-      <c r="S10" s="289"/>
-      <c r="T10" s="289"/>
-      <c r="U10" s="289"/>
-      <c r="V10" s="289"/>
-      <c r="W10" s="309"/>
-      <c r="X10" s="308"/>
-      <c r="Y10" s="307"/>
-      <c r="Z10" s="309"/>
-      <c r="AA10" s="308"/>
-      <c r="AB10" s="307"/>
-      <c r="AC10" s="309"/>
-      <c r="AD10" s="308"/>
-      <c r="AE10" s="307"/>
-      <c r="AF10" s="289"/>
+      <c r="A10" s="206"/>
+      <c r="B10" s="206"/>
+      <c r="C10" s="206"/>
+      <c r="D10" s="206"/>
+      <c r="E10" s="206"/>
+      <c r="F10" s="206"/>
+      <c r="G10" s="206"/>
+      <c r="H10" s="206"/>
+      <c r="I10" s="206"/>
+      <c r="J10" s="206"/>
+      <c r="K10" s="206"/>
+      <c r="L10" s="206"/>
+      <c r="M10" s="206"/>
+      <c r="N10" s="206"/>
+      <c r="O10" s="206"/>
+      <c r="P10" s="206"/>
+      <c r="Q10" s="206"/>
+      <c r="R10" s="206"/>
+      <c r="S10" s="206"/>
+      <c r="T10" s="206"/>
+      <c r="U10" s="206"/>
+      <c r="V10" s="206"/>
+      <c r="W10" s="246"/>
+      <c r="X10" s="247"/>
+      <c r="Y10" s="248"/>
+      <c r="Z10" s="246"/>
+      <c r="AA10" s="247"/>
+      <c r="AB10" s="248"/>
+      <c r="AC10" s="246"/>
+      <c r="AD10" s="247"/>
+      <c r="AE10" s="248"/>
+      <c r="AF10" s="206"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
-      <c r="A11" s="289"/>
-      <c r="B11" s="289"/>
-      <c r="C11" s="289"/>
-      <c r="D11" s="289"/>
-      <c r="E11" s="289"/>
-      <c r="F11" s="289"/>
-      <c r="G11" s="289"/>
-      <c r="H11" s="289"/>
-      <c r="I11" s="289"/>
-      <c r="J11" s="289"/>
-      <c r="K11" s="289"/>
-      <c r="L11" s="289"/>
-      <c r="M11" s="289"/>
-      <c r="N11" s="289"/>
-      <c r="O11" s="289"/>
-      <c r="P11" s="289"/>
-      <c r="Q11" s="289"/>
-      <c r="R11" s="289"/>
-      <c r="S11" s="289"/>
-      <c r="T11" s="289"/>
-      <c r="U11" s="289"/>
-      <c r="V11" s="289"/>
-      <c r="W11" s="309"/>
-      <c r="X11" s="308"/>
-      <c r="Y11" s="307"/>
-      <c r="Z11" s="309"/>
-      <c r="AA11" s="308"/>
-      <c r="AB11" s="307"/>
-      <c r="AC11" s="309"/>
-      <c r="AD11" s="308"/>
-      <c r="AE11" s="307"/>
-      <c r="AF11" s="289"/>
+      <c r="A11" s="206"/>
+      <c r="B11" s="206"/>
+      <c r="C11" s="206"/>
+      <c r="D11" s="206"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="206"/>
+      <c r="G11" s="206"/>
+      <c r="H11" s="206"/>
+      <c r="I11" s="206"/>
+      <c r="J11" s="206"/>
+      <c r="K11" s="206"/>
+      <c r="L11" s="206"/>
+      <c r="M11" s="206"/>
+      <c r="N11" s="206"/>
+      <c r="O11" s="206"/>
+      <c r="P11" s="206"/>
+      <c r="Q11" s="206"/>
+      <c r="R11" s="206"/>
+      <c r="S11" s="206"/>
+      <c r="T11" s="206"/>
+      <c r="U11" s="206"/>
+      <c r="V11" s="206"/>
+      <c r="W11" s="246"/>
+      <c r="X11" s="247"/>
+      <c r="Y11" s="248"/>
+      <c r="Z11" s="246"/>
+      <c r="AA11" s="247"/>
+      <c r="AB11" s="248"/>
+      <c r="AC11" s="246"/>
+      <c r="AD11" s="247"/>
+      <c r="AE11" s="248"/>
+      <c r="AF11" s="206"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
-      <c r="A12" s="289"/>
-      <c r="B12" s="303"/>
-      <c r="C12" s="303"/>
-      <c r="D12" s="303"/>
-      <c r="E12" s="303"/>
-      <c r="F12" s="303"/>
-      <c r="G12" s="303"/>
-      <c r="H12" s="303"/>
-      <c r="I12" s="303"/>
-      <c r="J12" s="303"/>
-      <c r="K12" s="303"/>
-      <c r="L12" s="303"/>
-      <c r="M12" s="303"/>
-      <c r="N12" s="303"/>
-      <c r="O12" s="303"/>
-      <c r="P12" s="303"/>
-      <c r="Q12" s="303"/>
-      <c r="R12" s="303"/>
-      <c r="S12" s="303"/>
-      <c r="T12" s="303"/>
-      <c r="U12" s="303"/>
-      <c r="V12" s="303"/>
-      <c r="W12" s="306"/>
-      <c r="X12" s="305"/>
-      <c r="Y12" s="304"/>
-      <c r="Z12" s="306"/>
-      <c r="AA12" s="305"/>
-      <c r="AB12" s="304"/>
-      <c r="AC12" s="306"/>
-      <c r="AD12" s="305"/>
-      <c r="AE12" s="304"/>
-      <c r="AF12" s="289"/>
+      <c r="A12" s="206"/>
+      <c r="B12" s="210"/>
+      <c r="C12" s="210"/>
+      <c r="D12" s="210"/>
+      <c r="E12" s="210"/>
+      <c r="F12" s="210"/>
+      <c r="G12" s="210"/>
+      <c r="H12" s="210"/>
+      <c r="I12" s="210"/>
+      <c r="J12" s="210"/>
+      <c r="K12" s="210"/>
+      <c r="L12" s="210"/>
+      <c r="M12" s="210"/>
+      <c r="N12" s="210"/>
+      <c r="O12" s="210"/>
+      <c r="P12" s="210"/>
+      <c r="Q12" s="210"/>
+      <c r="R12" s="210"/>
+      <c r="S12" s="210"/>
+      <c r="T12" s="210"/>
+      <c r="U12" s="210"/>
+      <c r="V12" s="210"/>
+      <c r="W12" s="249"/>
+      <c r="X12" s="250"/>
+      <c r="Y12" s="251"/>
+      <c r="Z12" s="249"/>
+      <c r="AA12" s="250"/>
+      <c r="AB12" s="251"/>
+      <c r="AC12" s="249"/>
+      <c r="AD12" s="250"/>
+      <c r="AE12" s="251"/>
+      <c r="AF12" s="206"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
-      <c r="A13" s="289"/>
-      <c r="B13" s="303"/>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="303"/>
-      <c r="M13" s="303"/>
-      <c r="N13" s="303"/>
-      <c r="O13" s="303"/>
-      <c r="P13" s="303"/>
-      <c r="Q13" s="303"/>
-      <c r="R13" s="303"/>
-      <c r="S13" s="303"/>
-      <c r="T13" s="303"/>
-      <c r="U13" s="303"/>
-      <c r="V13" s="303"/>
-      <c r="W13" s="303"/>
-      <c r="Z13" s="303"/>
-      <c r="AC13" s="303"/>
-      <c r="AF13" s="289"/>
+      <c r="A13" s="206"/>
+      <c r="B13" s="210"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="210"/>
+      <c r="F13" s="210"/>
+      <c r="G13" s="210"/>
+      <c r="H13" s="210"/>
+      <c r="I13" s="210"/>
+      <c r="J13" s="210"/>
+      <c r="K13" s="210"/>
+      <c r="L13" s="210"/>
+      <c r="M13" s="210"/>
+      <c r="N13" s="210"/>
+      <c r="O13" s="210"/>
+      <c r="P13" s="210"/>
+      <c r="Q13" s="210"/>
+      <c r="R13" s="210"/>
+      <c r="S13" s="210"/>
+      <c r="T13" s="210"/>
+      <c r="U13" s="210"/>
+      <c r="V13" s="210"/>
+      <c r="W13" s="210"/>
+      <c r="Z13" s="210"/>
+      <c r="AC13" s="210"/>
+      <c r="AF13" s="206"/>
     </row>
     <row r="14" spans="1:176" ht="15.75" customHeight="1">
-      <c r="A14" s="289"/>
-      <c r="B14" s="303"/>
-      <c r="C14" s="303"/>
-      <c r="D14" s="303"/>
-      <c r="E14" s="303"/>
-      <c r="F14" s="303"/>
-      <c r="G14" s="303"/>
-      <c r="H14" s="303"/>
-      <c r="I14" s="303"/>
-      <c r="J14" s="303"/>
-      <c r="K14" s="303"/>
-      <c r="L14" s="303"/>
-      <c r="M14" s="303"/>
-      <c r="N14" s="303"/>
-      <c r="O14" s="303"/>
-      <c r="P14" s="303"/>
-      <c r="Q14" s="303"/>
-      <c r="R14" s="303"/>
-      <c r="S14" s="303"/>
-      <c r="T14" s="303"/>
-      <c r="U14" s="303"/>
-      <c r="V14" s="303"/>
-      <c r="W14" s="303"/>
-      <c r="Z14" s="303"/>
-      <c r="AC14" s="303"/>
-      <c r="AF14" s="289"/>
+      <c r="A14" s="206"/>
+      <c r="B14" s="210"/>
+      <c r="C14" s="210"/>
+      <c r="D14" s="210"/>
+      <c r="E14" s="210"/>
+      <c r="F14" s="210"/>
+      <c r="G14" s="210"/>
+      <c r="H14" s="210"/>
+      <c r="I14" s="210"/>
+      <c r="J14" s="210"/>
+      <c r="K14" s="210"/>
+      <c r="L14" s="210"/>
+      <c r="M14" s="210"/>
+      <c r="N14" s="210"/>
+      <c r="O14" s="210"/>
+      <c r="P14" s="210"/>
+      <c r="Q14" s="210"/>
+      <c r="R14" s="210"/>
+      <c r="S14" s="210"/>
+      <c r="T14" s="210"/>
+      <c r="U14" s="210"/>
+      <c r="V14" s="210"/>
+      <c r="W14" s="210"/>
+      <c r="Z14" s="210"/>
+      <c r="AC14" s="210"/>
+      <c r="AF14" s="206"/>
     </row>
     <row r="15" spans="1:176" ht="15" customHeight="1">
-      <c r="A15" s="289"/>
-      <c r="B15" s="303"/>
-      <c r="C15" s="303"/>
-      <c r="D15" s="303"/>
-      <c r="E15" s="303"/>
-      <c r="F15" s="303"/>
-      <c r="G15" s="303"/>
-      <c r="H15" s="303"/>
-      <c r="I15" s="303"/>
-      <c r="J15" s="303"/>
-      <c r="K15" s="303"/>
-      <c r="L15" s="303"/>
-      <c r="M15" s="303"/>
-      <c r="N15" s="303"/>
-      <c r="O15" s="303"/>
-      <c r="P15" s="303"/>
-      <c r="Q15" s="303"/>
-      <c r="R15" s="303"/>
-      <c r="S15" s="303"/>
-      <c r="T15" s="303"/>
-      <c r="U15" s="303"/>
-      <c r="V15" s="303"/>
-      <c r="W15" s="303"/>
-      <c r="X15" s="303"/>
-      <c r="Y15" s="303"/>
-      <c r="Z15" s="303"/>
-      <c r="AA15" s="303"/>
-      <c r="AB15" s="303"/>
-      <c r="AC15" s="303"/>
-      <c r="AD15" s="303"/>
-      <c r="AE15" s="303"/>
-      <c r="AF15" s="289"/>
+      <c r="A15" s="206"/>
+      <c r="B15" s="210"/>
+      <c r="C15" s="210"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="210"/>
+      <c r="F15" s="210"/>
+      <c r="G15" s="210"/>
+      <c r="H15" s="210"/>
+      <c r="I15" s="210"/>
+      <c r="J15" s="210"/>
+      <c r="K15" s="210"/>
+      <c r="L15" s="210"/>
+      <c r="M15" s="210"/>
+      <c r="N15" s="210"/>
+      <c r="O15" s="210"/>
+      <c r="P15" s="210"/>
+      <c r="Q15" s="210"/>
+      <c r="R15" s="210"/>
+      <c r="S15" s="210"/>
+      <c r="T15" s="210"/>
+      <c r="U15" s="210"/>
+      <c r="V15" s="210"/>
+      <c r="W15" s="210"/>
+      <c r="X15" s="210"/>
+      <c r="Y15" s="210"/>
+      <c r="Z15" s="210"/>
+      <c r="AA15" s="210"/>
+      <c r="AB15" s="210"/>
+      <c r="AC15" s="210"/>
+      <c r="AD15" s="210"/>
+      <c r="AE15" s="210"/>
+      <c r="AF15" s="206"/>
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
-      <c r="A16" s="289"/>
-      <c r="B16" s="302" t="s">
+      <c r="A16" s="206"/>
+      <c r="B16" s="252" t="s">
         <v>254</v>
       </c>
-      <c r="C16" s="302"/>
-      <c r="D16" s="302"/>
-      <c r="E16" s="302"/>
-      <c r="F16" s="302"/>
-      <c r="G16" s="302"/>
-      <c r="H16" s="302"/>
-      <c r="I16" s="302"/>
-      <c r="J16" s="302"/>
-      <c r="K16" s="302"/>
-      <c r="L16" s="302"/>
-      <c r="M16" s="302"/>
-      <c r="N16" s="302"/>
-      <c r="O16" s="302"/>
-      <c r="P16" s="302"/>
-      <c r="Q16" s="302"/>
-      <c r="R16" s="302"/>
-      <c r="S16" s="302"/>
-      <c r="T16" s="302"/>
-      <c r="U16" s="302"/>
-      <c r="V16" s="302"/>
-      <c r="W16" s="302"/>
-      <c r="X16" s="302"/>
-      <c r="Y16" s="302"/>
-      <c r="Z16" s="302"/>
-      <c r="AA16" s="302"/>
-      <c r="AB16" s="302"/>
-      <c r="AC16" s="302"/>
-      <c r="AD16" s="302"/>
-      <c r="AE16" s="302"/>
-      <c r="AF16" s="289"/>
+      <c r="C16" s="252"/>
+      <c r="D16" s="252"/>
+      <c r="E16" s="252"/>
+      <c r="F16" s="252"/>
+      <c r="G16" s="252"/>
+      <c r="H16" s="252"/>
+      <c r="I16" s="252"/>
+      <c r="J16" s="252"/>
+      <c r="K16" s="252"/>
+      <c r="L16" s="252"/>
+      <c r="M16" s="252"/>
+      <c r="N16" s="252"/>
+      <c r="O16" s="252"/>
+      <c r="P16" s="252"/>
+      <c r="Q16" s="252"/>
+      <c r="R16" s="252"/>
+      <c r="S16" s="252"/>
+      <c r="T16" s="252"/>
+      <c r="U16" s="252"/>
+      <c r="V16" s="252"/>
+      <c r="W16" s="252"/>
+      <c r="X16" s="252"/>
+      <c r="Y16" s="252"/>
+      <c r="Z16" s="252"/>
+      <c r="AA16" s="252"/>
+      <c r="AB16" s="252"/>
+      <c r="AC16" s="252"/>
+      <c r="AD16" s="252"/>
+      <c r="AE16" s="252"/>
+      <c r="AF16" s="206"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
-      <c r="A17" s="289"/>
-      <c r="B17" s="302"/>
-      <c r="C17" s="302"/>
-      <c r="D17" s="302"/>
-      <c r="E17" s="302"/>
-      <c r="F17" s="302"/>
-      <c r="G17" s="302"/>
-      <c r="H17" s="302"/>
-      <c r="I17" s="302"/>
-      <c r="J17" s="302"/>
-      <c r="K17" s="302"/>
-      <c r="L17" s="302"/>
-      <c r="M17" s="302"/>
-      <c r="N17" s="302"/>
-      <c r="O17" s="302"/>
-      <c r="P17" s="302"/>
-      <c r="Q17" s="302"/>
-      <c r="R17" s="302"/>
-      <c r="S17" s="302"/>
-      <c r="T17" s="302"/>
-      <c r="U17" s="302"/>
-      <c r="V17" s="302"/>
-      <c r="W17" s="302"/>
-      <c r="X17" s="302"/>
-      <c r="Y17" s="302"/>
-      <c r="Z17" s="302"/>
-      <c r="AA17" s="302"/>
-      <c r="AB17" s="302"/>
-      <c r="AC17" s="302"/>
-      <c r="AD17" s="302"/>
-      <c r="AE17" s="302"/>
-      <c r="AF17" s="289"/>
+      <c r="A17" s="206"/>
+      <c r="B17" s="252"/>
+      <c r="C17" s="252"/>
+      <c r="D17" s="252"/>
+      <c r="E17" s="252"/>
+      <c r="F17" s="252"/>
+      <c r="G17" s="252"/>
+      <c r="H17" s="252"/>
+      <c r="I17" s="252"/>
+      <c r="J17" s="252"/>
+      <c r="K17" s="252"/>
+      <c r="L17" s="252"/>
+      <c r="M17" s="252"/>
+      <c r="N17" s="252"/>
+      <c r="O17" s="252"/>
+      <c r="P17" s="252"/>
+      <c r="Q17" s="252"/>
+      <c r="R17" s="252"/>
+      <c r="S17" s="252"/>
+      <c r="T17" s="252"/>
+      <c r="U17" s="252"/>
+      <c r="V17" s="252"/>
+      <c r="W17" s="252"/>
+      <c r="X17" s="252"/>
+      <c r="Y17" s="252"/>
+      <c r="Z17" s="252"/>
+      <c r="AA17" s="252"/>
+      <c r="AB17" s="252"/>
+      <c r="AC17" s="252"/>
+      <c r="AD17" s="252"/>
+      <c r="AE17" s="252"/>
+      <c r="AF17" s="206"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
-      <c r="A18" s="289"/>
-      <c r="B18" s="302"/>
-      <c r="C18" s="302"/>
-      <c r="D18" s="302"/>
-      <c r="E18" s="302"/>
-      <c r="F18" s="302"/>
-      <c r="G18" s="302"/>
-      <c r="H18" s="302"/>
-      <c r="I18" s="302"/>
-      <c r="J18" s="302"/>
-      <c r="K18" s="302"/>
-      <c r="L18" s="302"/>
-      <c r="M18" s="302"/>
-      <c r="N18" s="302"/>
-      <c r="O18" s="302"/>
-      <c r="P18" s="302"/>
-      <c r="Q18" s="302"/>
-      <c r="R18" s="302"/>
-      <c r="S18" s="302"/>
-      <c r="T18" s="302"/>
-      <c r="U18" s="302"/>
-      <c r="V18" s="302"/>
-      <c r="W18" s="302"/>
-      <c r="X18" s="302"/>
-      <c r="Y18" s="302"/>
-      <c r="Z18" s="302"/>
-      <c r="AA18" s="302"/>
-      <c r="AB18" s="302"/>
-      <c r="AC18" s="302"/>
-      <c r="AD18" s="302"/>
-      <c r="AE18" s="302"/>
-      <c r="AF18" s="289"/>
+      <c r="A18" s="206"/>
+      <c r="B18" s="252"/>
+      <c r="C18" s="252"/>
+      <c r="D18" s="252"/>
+      <c r="E18" s="252"/>
+      <c r="F18" s="252"/>
+      <c r="G18" s="252"/>
+      <c r="H18" s="252"/>
+      <c r="I18" s="252"/>
+      <c r="J18" s="252"/>
+      <c r="K18" s="252"/>
+      <c r="L18" s="252"/>
+      <c r="M18" s="252"/>
+      <c r="N18" s="252"/>
+      <c r="O18" s="252"/>
+      <c r="P18" s="252"/>
+      <c r="Q18" s="252"/>
+      <c r="R18" s="252"/>
+      <c r="S18" s="252"/>
+      <c r="T18" s="252"/>
+      <c r="U18" s="252"/>
+      <c r="V18" s="252"/>
+      <c r="W18" s="252"/>
+      <c r="X18" s="252"/>
+      <c r="Y18" s="252"/>
+      <c r="Z18" s="252"/>
+      <c r="AA18" s="252"/>
+      <c r="AB18" s="252"/>
+      <c r="AC18" s="252"/>
+      <c r="AD18" s="252"/>
+      <c r="AE18" s="252"/>
+      <c r="AF18" s="206"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
-      <c r="A19" s="289"/>
-      <c r="B19" s="289"/>
-      <c r="C19" s="289"/>
-      <c r="D19" s="289"/>
-      <c r="E19" s="289"/>
-      <c r="F19" s="289"/>
-      <c r="G19" s="289"/>
-      <c r="H19" s="289"/>
-      <c r="I19" s="289"/>
-      <c r="J19" s="289"/>
-      <c r="K19" s="289"/>
-      <c r="L19" s="289"/>
-      <c r="M19" s="289"/>
-      <c r="N19" s="289"/>
-      <c r="O19" s="289"/>
-      <c r="Q19" s="289"/>
-      <c r="R19" s="289"/>
-      <c r="S19" s="289"/>
-      <c r="T19" s="289"/>
-      <c r="U19" s="289"/>
-      <c r="V19" s="289"/>
-      <c r="W19" s="289"/>
-      <c r="X19" s="289"/>
-      <c r="Y19" s="289"/>
-      <c r="Z19" s="289"/>
-      <c r="AA19" s="289"/>
-      <c r="AB19" s="289"/>
-      <c r="AC19" s="289"/>
-      <c r="AD19" s="289"/>
-      <c r="AE19" s="289"/>
-      <c r="AF19" s="289"/>
+      <c r="A19" s="206"/>
+      <c r="B19" s="206"/>
+      <c r="C19" s="206"/>
+      <c r="D19" s="206"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="206"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="206"/>
+      <c r="J19" s="206"/>
+      <c r="K19" s="206"/>
+      <c r="L19" s="206"/>
+      <c r="M19" s="206"/>
+      <c r="N19" s="206"/>
+      <c r="O19" s="206"/>
+      <c r="Q19" s="206"/>
+      <c r="R19" s="206"/>
+      <c r="S19" s="206"/>
+      <c r="T19" s="206"/>
+      <c r="U19" s="206"/>
+      <c r="V19" s="206"/>
+      <c r="W19" s="206"/>
+      <c r="X19" s="206"/>
+      <c r="Y19" s="206"/>
+      <c r="Z19" s="206"/>
+      <c r="AA19" s="206"/>
+      <c r="AB19" s="206"/>
+      <c r="AC19" s="206"/>
+      <c r="AD19" s="206"/>
+      <c r="AE19" s="206"/>
+      <c r="AF19" s="206"/>
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
-      <c r="A20" s="289"/>
-      <c r="B20" s="289"/>
-      <c r="C20" s="289"/>
-      <c r="D20" s="289"/>
-      <c r="E20" s="289"/>
-      <c r="F20" s="289"/>
-      <c r="G20" s="289"/>
-      <c r="H20" s="289"/>
-      <c r="I20" s="289"/>
-      <c r="J20" s="289"/>
-      <c r="K20" s="289"/>
-      <c r="L20" s="289"/>
-      <c r="M20" s="289"/>
-      <c r="N20" s="289"/>
-      <c r="O20" s="289"/>
-      <c r="Q20" s="289"/>
-      <c r="R20" s="289"/>
-      <c r="S20" s="289"/>
-      <c r="T20" s="289"/>
-      <c r="U20" s="289"/>
-      <c r="V20" s="289"/>
-      <c r="W20" s="289"/>
-      <c r="X20" s="289"/>
-      <c r="Y20" s="289"/>
-      <c r="Z20" s="289"/>
-      <c r="AA20" s="289"/>
-      <c r="AB20" s="289"/>
-      <c r="AC20" s="289"/>
-      <c r="AD20" s="289"/>
-      <c r="AE20" s="289"/>
-      <c r="AF20" s="289"/>
-    </row>
-    <row r="21" spans="1:32" s="299" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A21" s="300"/>
-      <c r="B21" s="301" t="s">
+      <c r="A20" s="206"/>
+      <c r="B20" s="206"/>
+      <c r="C20" s="206"/>
+      <c r="D20" s="206"/>
+      <c r="E20" s="206"/>
+      <c r="F20" s="206"/>
+      <c r="G20" s="206"/>
+      <c r="H20" s="206"/>
+      <c r="I20" s="206"/>
+      <c r="J20" s="206"/>
+      <c r="K20" s="206"/>
+      <c r="L20" s="206"/>
+      <c r="M20" s="206"/>
+      <c r="N20" s="206"/>
+      <c r="O20" s="206"/>
+      <c r="Q20" s="206"/>
+      <c r="R20" s="206"/>
+      <c r="S20" s="206"/>
+      <c r="T20" s="206"/>
+      <c r="U20" s="206"/>
+      <c r="V20" s="206"/>
+      <c r="W20" s="206"/>
+      <c r="X20" s="206"/>
+      <c r="Y20" s="206"/>
+      <c r="Z20" s="206"/>
+      <c r="AA20" s="206"/>
+      <c r="AB20" s="206"/>
+      <c r="AC20" s="206"/>
+      <c r="AD20" s="206"/>
+      <c r="AE20" s="206"/>
+      <c r="AF20" s="206"/>
+    </row>
+    <row r="21" spans="1:32" s="207" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A21" s="208"/>
+      <c r="B21" s="209" t="s">
         <v>253</v>
       </c>
-      <c r="C21" s="300"/>
-      <c r="D21" s="300"/>
-      <c r="E21" s="300"/>
-      <c r="F21" s="300"/>
-      <c r="G21" s="300"/>
-      <c r="H21" s="300"/>
-      <c r="I21" s="300"/>
-      <c r="J21" s="300"/>
-      <c r="K21" s="300"/>
-      <c r="L21" s="300"/>
-      <c r="M21" s="300"/>
-      <c r="N21" s="300"/>
-      <c r="O21" s="300"/>
-      <c r="Q21" s="300"/>
-      <c r="R21" s="300"/>
-      <c r="S21" s="300"/>
-      <c r="T21" s="300"/>
-      <c r="U21" s="300"/>
-      <c r="V21" s="300"/>
-      <c r="W21" s="300"/>
-      <c r="X21" s="300"/>
-      <c r="Y21" s="300"/>
-      <c r="Z21" s="300"/>
-      <c r="AA21" s="300"/>
-      <c r="AB21" s="300"/>
-      <c r="AC21" s="300"/>
-      <c r="AD21" s="300"/>
-      <c r="AE21" s="300"/>
-      <c r="AF21" s="300"/>
-    </row>
-    <row r="22" spans="1:32" s="299" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A22" s="300"/>
-      <c r="B22" s="300"/>
-      <c r="C22" s="300"/>
-      <c r="D22" s="300"/>
-      <c r="E22" s="300"/>
-      <c r="F22" s="300"/>
-      <c r="G22" s="300"/>
-      <c r="H22" s="300"/>
-      <c r="I22" s="300"/>
-      <c r="J22" s="300"/>
-      <c r="K22" s="300"/>
-      <c r="L22" s="300"/>
-      <c r="M22" s="300"/>
-      <c r="N22" s="300"/>
-      <c r="O22" s="300"/>
-      <c r="Q22" s="300"/>
-      <c r="R22" s="300"/>
-      <c r="S22" s="300"/>
-      <c r="T22" s="300"/>
-      <c r="U22" s="300"/>
-      <c r="V22" s="300"/>
-      <c r="W22" s="300"/>
-      <c r="X22" s="300"/>
-      <c r="Y22" s="300"/>
-      <c r="Z22" s="300"/>
-      <c r="AA22" s="300"/>
-      <c r="AB22" s="300"/>
-      <c r="AC22" s="300"/>
-      <c r="AD22" s="300"/>
-      <c r="AE22" s="300"/>
-      <c r="AF22" s="300"/>
-    </row>
-    <row r="23" spans="1:32" s="299" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A23" s="300"/>
-      <c r="B23" s="292" t="s">
+      <c r="C21" s="208"/>
+      <c r="D21" s="208"/>
+      <c r="E21" s="208"/>
+      <c r="F21" s="208"/>
+      <c r="G21" s="208"/>
+      <c r="H21" s="208"/>
+      <c r="I21" s="208"/>
+      <c r="J21" s="208"/>
+      <c r="K21" s="208"/>
+      <c r="L21" s="208"/>
+      <c r="M21" s="208"/>
+      <c r="N21" s="208"/>
+      <c r="O21" s="208"/>
+      <c r="Q21" s="208"/>
+      <c r="R21" s="208"/>
+      <c r="S21" s="208"/>
+      <c r="T21" s="208"/>
+      <c r="U21" s="208"/>
+      <c r="V21" s="208"/>
+      <c r="W21" s="208"/>
+      <c r="X21" s="208"/>
+      <c r="Y21" s="208"/>
+      <c r="Z21" s="208"/>
+      <c r="AA21" s="208"/>
+      <c r="AB21" s="208"/>
+      <c r="AC21" s="208"/>
+      <c r="AD21" s="208"/>
+      <c r="AE21" s="208"/>
+      <c r="AF21" s="208"/>
+    </row>
+    <row r="22" spans="1:32" s="207" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A22" s="208"/>
+      <c r="B22" s="208"/>
+      <c r="C22" s="208"/>
+      <c r="D22" s="208"/>
+      <c r="E22" s="208"/>
+      <c r="F22" s="208"/>
+      <c r="G22" s="208"/>
+      <c r="H22" s="208"/>
+      <c r="I22" s="208"/>
+      <c r="J22" s="208"/>
+      <c r="K22" s="208"/>
+      <c r="L22" s="208"/>
+      <c r="M22" s="208"/>
+      <c r="N22" s="208"/>
+      <c r="O22" s="208"/>
+      <c r="Q22" s="208"/>
+      <c r="R22" s="208"/>
+      <c r="S22" s="208"/>
+      <c r="T22" s="208"/>
+      <c r="U22" s="208"/>
+      <c r="V22" s="208"/>
+      <c r="W22" s="208"/>
+      <c r="X22" s="208"/>
+      <c r="Y22" s="208"/>
+      <c r="Z22" s="208"/>
+      <c r="AA22" s="208"/>
+      <c r="AB22" s="208"/>
+      <c r="AC22" s="208"/>
+      <c r="AD22" s="208"/>
+      <c r="AE22" s="208"/>
+      <c r="AF22" s="208"/>
+    </row>
+    <row r="23" spans="1:32" s="207" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A23" s="208"/>
+      <c r="B23" s="238" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="291"/>
-      <c r="D23" s="291"/>
-      <c r="E23" s="290"/>
-      <c r="F23" s="292" t="s">
+      <c r="C23" s="241"/>
+      <c r="D23" s="241"/>
+      <c r="E23" s="239"/>
+      <c r="F23" s="238" t="s">
         <v>252</v>
       </c>
-      <c r="G23" s="291"/>
-      <c r="H23" s="291"/>
-      <c r="I23" s="290"/>
-      <c r="J23" s="292" t="s">
+      <c r="G23" s="241"/>
+      <c r="H23" s="241"/>
+      <c r="I23" s="239"/>
+      <c r="J23" s="238" t="s">
         <v>251</v>
       </c>
-      <c r="K23" s="291"/>
-      <c r="L23" s="291"/>
-      <c r="M23" s="291"/>
-      <c r="N23" s="291"/>
-      <c r="O23" s="291"/>
-      <c r="P23" s="291"/>
-      <c r="Q23" s="291"/>
-      <c r="R23" s="291"/>
-      <c r="S23" s="291"/>
-      <c r="T23" s="291"/>
-      <c r="U23" s="291"/>
-      <c r="V23" s="291"/>
-      <c r="W23" s="291"/>
-      <c r="X23" s="291"/>
-      <c r="Y23" s="291"/>
-      <c r="Z23" s="291"/>
-      <c r="AA23" s="291"/>
-      <c r="AB23" s="290"/>
-      <c r="AC23" s="292" t="s">
+      <c r="K23" s="241"/>
+      <c r="L23" s="241"/>
+      <c r="M23" s="241"/>
+      <c r="N23" s="241"/>
+      <c r="O23" s="241"/>
+      <c r="P23" s="241"/>
+      <c r="Q23" s="241"/>
+      <c r="R23" s="241"/>
+      <c r="S23" s="241"/>
+      <c r="T23" s="241"/>
+      <c r="U23" s="241"/>
+      <c r="V23" s="241"/>
+      <c r="W23" s="241"/>
+      <c r="X23" s="241"/>
+      <c r="Y23" s="241"/>
+      <c r="Z23" s="241"/>
+      <c r="AA23" s="241"/>
+      <c r="AB23" s="239"/>
+      <c r="AC23" s="238" t="s">
         <v>250</v>
       </c>
-      <c r="AD23" s="291"/>
-      <c r="AE23" s="290"/>
-      <c r="AF23" s="300"/>
+      <c r="AD23" s="241"/>
+      <c r="AE23" s="239"/>
+      <c r="AF23" s="208"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
-      <c r="A24" s="289"/>
-      <c r="B24" s="292" t="s">
+      <c r="A24" s="206"/>
+      <c r="B24" s="238" t="s">
         <v>199</v>
       </c>
-      <c r="C24" s="291"/>
-      <c r="D24" s="291"/>
-      <c r="E24" s="290"/>
-      <c r="F24" s="298">
+      <c r="C24" s="241"/>
+      <c r="D24" s="241"/>
+      <c r="E24" s="239"/>
+      <c r="F24" s="253">
         <v>43714</v>
       </c>
-      <c r="G24" s="297"/>
-      <c r="H24" s="297"/>
-      <c r="I24" s="296"/>
-      <c r="J24" s="292" t="s">
+      <c r="G24" s="254"/>
+      <c r="H24" s="254"/>
+      <c r="I24" s="255"/>
+      <c r="J24" s="238" t="s">
         <v>249</v>
       </c>
-      <c r="K24" s="291"/>
-      <c r="L24" s="291"/>
-      <c r="M24" s="291"/>
-      <c r="N24" s="291"/>
-      <c r="O24" s="291"/>
-      <c r="P24" s="291"/>
-      <c r="Q24" s="291"/>
-      <c r="R24" s="291"/>
-      <c r="S24" s="291"/>
-      <c r="T24" s="291"/>
-      <c r="U24" s="291"/>
-      <c r="V24" s="291"/>
-      <c r="W24" s="291"/>
-      <c r="X24" s="291"/>
-      <c r="Y24" s="291"/>
-      <c r="Z24" s="291"/>
-      <c r="AA24" s="291"/>
-      <c r="AB24" s="290"/>
-      <c r="AC24" s="292" t="s">
+      <c r="K24" s="241"/>
+      <c r="L24" s="241"/>
+      <c r="M24" s="241"/>
+      <c r="N24" s="241"/>
+      <c r="O24" s="241"/>
+      <c r="P24" s="241"/>
+      <c r="Q24" s="241"/>
+      <c r="R24" s="241"/>
+      <c r="S24" s="241"/>
+      <c r="T24" s="241"/>
+      <c r="U24" s="241"/>
+      <c r="V24" s="241"/>
+      <c r="W24" s="241"/>
+      <c r="X24" s="241"/>
+      <c r="Y24" s="241"/>
+      <c r="Z24" s="241"/>
+      <c r="AA24" s="241"/>
+      <c r="AB24" s="239"/>
+      <c r="AC24" s="238" t="s">
         <v>173</v>
       </c>
-      <c r="AD24" s="291"/>
-      <c r="AE24" s="290"/>
-      <c r="AF24" s="289"/>
+      <c r="AD24" s="241"/>
+      <c r="AE24" s="239"/>
+      <c r="AF24" s="206"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
-      <c r="A25" s="289"/>
-      <c r="B25" s="292"/>
-      <c r="C25" s="291"/>
-      <c r="D25" s="291"/>
-      <c r="E25" s="290"/>
-      <c r="F25" s="298"/>
-      <c r="G25" s="297"/>
-      <c r="H25" s="297"/>
-      <c r="I25" s="296"/>
-      <c r="J25" s="292"/>
-      <c r="K25" s="291"/>
-      <c r="L25" s="291"/>
-      <c r="M25" s="291"/>
-      <c r="N25" s="291"/>
-      <c r="O25" s="291"/>
-      <c r="P25" s="291"/>
-      <c r="Q25" s="291"/>
-      <c r="R25" s="291"/>
-      <c r="S25" s="291"/>
-      <c r="T25" s="291"/>
-      <c r="U25" s="291"/>
-      <c r="V25" s="291"/>
-      <c r="W25" s="291"/>
-      <c r="X25" s="291"/>
-      <c r="Y25" s="291"/>
-      <c r="Z25" s="291"/>
-      <c r="AA25" s="291"/>
-      <c r="AB25" s="290"/>
-      <c r="AC25" s="292"/>
-      <c r="AD25" s="291"/>
-      <c r="AE25" s="290"/>
-      <c r="AF25" s="289"/>
+      <c r="A25" s="206"/>
+      <c r="B25" s="238"/>
+      <c r="C25" s="241"/>
+      <c r="D25" s="241"/>
+      <c r="E25" s="239"/>
+      <c r="F25" s="253"/>
+      <c r="G25" s="254"/>
+      <c r="H25" s="254"/>
+      <c r="I25" s="255"/>
+      <c r="J25" s="238"/>
+      <c r="K25" s="241"/>
+      <c r="L25" s="241"/>
+      <c r="M25" s="241"/>
+      <c r="N25" s="241"/>
+      <c r="O25" s="241"/>
+      <c r="P25" s="241"/>
+      <c r="Q25" s="241"/>
+      <c r="R25" s="241"/>
+      <c r="S25" s="241"/>
+      <c r="T25" s="241"/>
+      <c r="U25" s="241"/>
+      <c r="V25" s="241"/>
+      <c r="W25" s="241"/>
+      <c r="X25" s="241"/>
+      <c r="Y25" s="241"/>
+      <c r="Z25" s="241"/>
+      <c r="AA25" s="241"/>
+      <c r="AB25" s="239"/>
+      <c r="AC25" s="238"/>
+      <c r="AD25" s="241"/>
+      <c r="AE25" s="239"/>
+      <c r="AF25" s="206"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
-      <c r="A26" s="289"/>
-      <c r="B26" s="292"/>
-      <c r="C26" s="291"/>
-      <c r="D26" s="291"/>
-      <c r="E26" s="290"/>
-      <c r="F26" s="298"/>
-      <c r="G26" s="297"/>
-      <c r="H26" s="297"/>
-      <c r="I26" s="296"/>
-      <c r="J26" s="292"/>
-      <c r="K26" s="291"/>
-      <c r="L26" s="291"/>
-      <c r="M26" s="291"/>
-      <c r="N26" s="291"/>
-      <c r="O26" s="291"/>
-      <c r="P26" s="291"/>
-      <c r="Q26" s="291"/>
-      <c r="R26" s="291"/>
-      <c r="S26" s="291"/>
-      <c r="T26" s="291"/>
-      <c r="U26" s="291"/>
-      <c r="V26" s="291"/>
-      <c r="W26" s="291"/>
-      <c r="X26" s="291"/>
-      <c r="Y26" s="291"/>
-      <c r="Z26" s="291"/>
-      <c r="AA26" s="291"/>
-      <c r="AB26" s="290"/>
-      <c r="AC26" s="292"/>
-      <c r="AD26" s="291"/>
-      <c r="AE26" s="290"/>
-      <c r="AF26" s="289"/>
+      <c r="A26" s="206"/>
+      <c r="B26" s="238"/>
+      <c r="C26" s="241"/>
+      <c r="D26" s="241"/>
+      <c r="E26" s="239"/>
+      <c r="F26" s="253"/>
+      <c r="G26" s="254"/>
+      <c r="H26" s="254"/>
+      <c r="I26" s="255"/>
+      <c r="J26" s="238"/>
+      <c r="K26" s="241"/>
+      <c r="L26" s="241"/>
+      <c r="M26" s="241"/>
+      <c r="N26" s="241"/>
+      <c r="O26" s="241"/>
+      <c r="P26" s="241"/>
+      <c r="Q26" s="241"/>
+      <c r="R26" s="241"/>
+      <c r="S26" s="241"/>
+      <c r="T26" s="241"/>
+      <c r="U26" s="241"/>
+      <c r="V26" s="241"/>
+      <c r="W26" s="241"/>
+      <c r="X26" s="241"/>
+      <c r="Y26" s="241"/>
+      <c r="Z26" s="241"/>
+      <c r="AA26" s="241"/>
+      <c r="AB26" s="239"/>
+      <c r="AC26" s="238"/>
+      <c r="AD26" s="241"/>
+      <c r="AE26" s="239"/>
+      <c r="AF26" s="206"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
-      <c r="A27" s="289"/>
-      <c r="B27" s="292"/>
-      <c r="C27" s="291"/>
-      <c r="D27" s="291"/>
-      <c r="E27" s="290"/>
-      <c r="F27" s="298"/>
-      <c r="G27" s="297"/>
-      <c r="H27" s="297"/>
-      <c r="I27" s="296"/>
-      <c r="J27" s="295"/>
-      <c r="K27" s="294"/>
-      <c r="L27" s="294"/>
-      <c r="M27" s="294"/>
-      <c r="N27" s="294"/>
-      <c r="O27" s="294"/>
-      <c r="P27" s="294"/>
-      <c r="Q27" s="294"/>
-      <c r="R27" s="294"/>
-      <c r="S27" s="294"/>
-      <c r="T27" s="294"/>
-      <c r="U27" s="294"/>
-      <c r="V27" s="294"/>
-      <c r="W27" s="294"/>
-      <c r="X27" s="294"/>
-      <c r="Y27" s="294"/>
-      <c r="Z27" s="294"/>
-      <c r="AA27" s="294"/>
-      <c r="AB27" s="293"/>
-      <c r="AC27" s="292"/>
-      <c r="AD27" s="291"/>
-      <c r="AE27" s="290"/>
-      <c r="AF27" s="289"/>
+      <c r="A27" s="206"/>
+      <c r="B27" s="238"/>
+      <c r="C27" s="241"/>
+      <c r="D27" s="241"/>
+      <c r="E27" s="239"/>
+      <c r="F27" s="253"/>
+      <c r="G27" s="254"/>
+      <c r="H27" s="254"/>
+      <c r="I27" s="255"/>
+      <c r="J27" s="256"/>
+      <c r="K27" s="257"/>
+      <c r="L27" s="257"/>
+      <c r="M27" s="257"/>
+      <c r="N27" s="257"/>
+      <c r="O27" s="257"/>
+      <c r="P27" s="257"/>
+      <c r="Q27" s="257"/>
+      <c r="R27" s="257"/>
+      <c r="S27" s="257"/>
+      <c r="T27" s="257"/>
+      <c r="U27" s="257"/>
+      <c r="V27" s="257"/>
+      <c r="W27" s="257"/>
+      <c r="X27" s="257"/>
+      <c r="Y27" s="257"/>
+      <c r="Z27" s="257"/>
+      <c r="AA27" s="257"/>
+      <c r="AB27" s="258"/>
+      <c r="AC27" s="238"/>
+      <c r="AD27" s="241"/>
+      <c r="AE27" s="239"/>
+      <c r="AF27" s="206"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
-      <c r="A28" s="289"/>
-      <c r="B28" s="292"/>
-      <c r="C28" s="291"/>
-      <c r="D28" s="291"/>
-      <c r="E28" s="290"/>
-      <c r="F28" s="298"/>
-      <c r="G28" s="297"/>
-      <c r="H28" s="297"/>
-      <c r="I28" s="296"/>
-      <c r="J28" s="295"/>
-      <c r="K28" s="294"/>
-      <c r="L28" s="294"/>
-      <c r="M28" s="294"/>
-      <c r="N28" s="294"/>
-      <c r="O28" s="294"/>
-      <c r="P28" s="294"/>
-      <c r="Q28" s="294"/>
-      <c r="R28" s="294"/>
-      <c r="S28" s="294"/>
-      <c r="T28" s="294"/>
-      <c r="U28" s="294"/>
-      <c r="V28" s="294"/>
-      <c r="W28" s="294"/>
-      <c r="X28" s="294"/>
-      <c r="Y28" s="294"/>
-      <c r="Z28" s="294"/>
-      <c r="AA28" s="294"/>
-      <c r="AB28" s="293"/>
-      <c r="AC28" s="292"/>
-      <c r="AD28" s="291"/>
-      <c r="AE28" s="290"/>
-      <c r="AF28" s="289"/>
+      <c r="A28" s="206"/>
+      <c r="B28" s="238"/>
+      <c r="C28" s="241"/>
+      <c r="D28" s="241"/>
+      <c r="E28" s="239"/>
+      <c r="F28" s="253"/>
+      <c r="G28" s="254"/>
+      <c r="H28" s="254"/>
+      <c r="I28" s="255"/>
+      <c r="J28" s="256"/>
+      <c r="K28" s="257"/>
+      <c r="L28" s="257"/>
+      <c r="M28" s="257"/>
+      <c r="N28" s="257"/>
+      <c r="O28" s="257"/>
+      <c r="P28" s="257"/>
+      <c r="Q28" s="257"/>
+      <c r="R28" s="257"/>
+      <c r="S28" s="257"/>
+      <c r="T28" s="257"/>
+      <c r="U28" s="257"/>
+      <c r="V28" s="257"/>
+      <c r="W28" s="257"/>
+      <c r="X28" s="257"/>
+      <c r="Y28" s="257"/>
+      <c r="Z28" s="257"/>
+      <c r="AA28" s="257"/>
+      <c r="AB28" s="258"/>
+      <c r="AC28" s="238"/>
+      <c r="AD28" s="241"/>
+      <c r="AE28" s="239"/>
+      <c r="AF28" s="206"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
-      <c r="A29" s="289"/>
-      <c r="B29" s="292"/>
-      <c r="C29" s="291"/>
-      <c r="D29" s="291"/>
-      <c r="E29" s="290"/>
-      <c r="F29" s="298"/>
-      <c r="G29" s="297"/>
-      <c r="H29" s="297"/>
-      <c r="I29" s="296"/>
-      <c r="J29" s="295"/>
-      <c r="K29" s="294"/>
-      <c r="L29" s="294"/>
-      <c r="M29" s="294"/>
-      <c r="N29" s="294"/>
-      <c r="O29" s="294"/>
-      <c r="P29" s="294"/>
-      <c r="Q29" s="294"/>
-      <c r="R29" s="294"/>
-      <c r="S29" s="294"/>
-      <c r="T29" s="294"/>
-      <c r="U29" s="294"/>
-      <c r="V29" s="294"/>
-      <c r="W29" s="294"/>
-      <c r="X29" s="294"/>
-      <c r="Y29" s="294"/>
-      <c r="Z29" s="294"/>
-      <c r="AA29" s="294"/>
-      <c r="AB29" s="293"/>
-      <c r="AC29" s="292"/>
-      <c r="AD29" s="291"/>
-      <c r="AE29" s="290"/>
-      <c r="AF29" s="289"/>
+      <c r="A29" s="206"/>
+      <c r="B29" s="238"/>
+      <c r="C29" s="241"/>
+      <c r="D29" s="241"/>
+      <c r="E29" s="239"/>
+      <c r="F29" s="253"/>
+      <c r="G29" s="254"/>
+      <c r="H29" s="254"/>
+      <c r="I29" s="255"/>
+      <c r="J29" s="256"/>
+      <c r="K29" s="257"/>
+      <c r="L29" s="257"/>
+      <c r="M29" s="257"/>
+      <c r="N29" s="257"/>
+      <c r="O29" s="257"/>
+      <c r="P29" s="257"/>
+      <c r="Q29" s="257"/>
+      <c r="R29" s="257"/>
+      <c r="S29" s="257"/>
+      <c r="T29" s="257"/>
+      <c r="U29" s="257"/>
+      <c r="V29" s="257"/>
+      <c r="W29" s="257"/>
+      <c r="X29" s="257"/>
+      <c r="Y29" s="257"/>
+      <c r="Z29" s="257"/>
+      <c r="AA29" s="257"/>
+      <c r="AB29" s="258"/>
+      <c r="AC29" s="238"/>
+      <c r="AD29" s="241"/>
+      <c r="AE29" s="239"/>
+      <c r="AF29" s="206"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
-      <c r="A30" s="289"/>
-      <c r="B30" s="292"/>
-      <c r="C30" s="291"/>
-      <c r="D30" s="291"/>
-      <c r="E30" s="290"/>
-      <c r="F30" s="298"/>
-      <c r="G30" s="297"/>
-      <c r="H30" s="297"/>
-      <c r="I30" s="296"/>
-      <c r="J30" s="295"/>
-      <c r="K30" s="294"/>
-      <c r="L30" s="294"/>
-      <c r="M30" s="294"/>
-      <c r="N30" s="294"/>
-      <c r="O30" s="294"/>
-      <c r="P30" s="294"/>
-      <c r="Q30" s="294"/>
-      <c r="R30" s="294"/>
-      <c r="S30" s="294"/>
-      <c r="T30" s="294"/>
-      <c r="U30" s="294"/>
-      <c r="V30" s="294"/>
-      <c r="W30" s="294"/>
-      <c r="X30" s="294"/>
-      <c r="Y30" s="294"/>
-      <c r="Z30" s="294"/>
-      <c r="AA30" s="294"/>
-      <c r="AB30" s="293"/>
-      <c r="AC30" s="292"/>
-      <c r="AD30" s="291"/>
-      <c r="AE30" s="290"/>
-      <c r="AF30" s="289"/>
+      <c r="A30" s="206"/>
+      <c r="B30" s="238"/>
+      <c r="C30" s="241"/>
+      <c r="D30" s="241"/>
+      <c r="E30" s="239"/>
+      <c r="F30" s="253"/>
+      <c r="G30" s="254"/>
+      <c r="H30" s="254"/>
+      <c r="I30" s="255"/>
+      <c r="J30" s="256"/>
+      <c r="K30" s="257"/>
+      <c r="L30" s="257"/>
+      <c r="M30" s="257"/>
+      <c r="N30" s="257"/>
+      <c r="O30" s="257"/>
+      <c r="P30" s="257"/>
+      <c r="Q30" s="257"/>
+      <c r="R30" s="257"/>
+      <c r="S30" s="257"/>
+      <c r="T30" s="257"/>
+      <c r="U30" s="257"/>
+      <c r="V30" s="257"/>
+      <c r="W30" s="257"/>
+      <c r="X30" s="257"/>
+      <c r="Y30" s="257"/>
+      <c r="Z30" s="257"/>
+      <c r="AA30" s="257"/>
+      <c r="AB30" s="258"/>
+      <c r="AC30" s="238"/>
+      <c r="AD30" s="241"/>
+      <c r="AE30" s="239"/>
+      <c r="AF30" s="206"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
-      <c r="A31" s="289"/>
-      <c r="B31" s="292"/>
-      <c r="C31" s="291"/>
-      <c r="D31" s="291"/>
-      <c r="E31" s="290"/>
-      <c r="F31" s="298"/>
-      <c r="G31" s="297"/>
-      <c r="H31" s="297"/>
-      <c r="I31" s="296"/>
-      <c r="J31" s="295"/>
-      <c r="K31" s="294"/>
-      <c r="L31" s="294"/>
-      <c r="M31" s="294"/>
-      <c r="N31" s="294"/>
-      <c r="O31" s="294"/>
-      <c r="P31" s="294"/>
-      <c r="Q31" s="294"/>
-      <c r="R31" s="294"/>
-      <c r="S31" s="294"/>
-      <c r="T31" s="294"/>
-      <c r="U31" s="294"/>
-      <c r="V31" s="294"/>
-      <c r="W31" s="294"/>
-      <c r="X31" s="294"/>
-      <c r="Y31" s="294"/>
-      <c r="Z31" s="294"/>
-      <c r="AA31" s="294"/>
-      <c r="AB31" s="293"/>
-      <c r="AC31" s="292"/>
-      <c r="AD31" s="291"/>
-      <c r="AE31" s="290"/>
-      <c r="AF31" s="289"/>
+      <c r="A31" s="206"/>
+      <c r="B31" s="238"/>
+      <c r="C31" s="241"/>
+      <c r="D31" s="241"/>
+      <c r="E31" s="239"/>
+      <c r="F31" s="253"/>
+      <c r="G31" s="254"/>
+      <c r="H31" s="254"/>
+      <c r="I31" s="255"/>
+      <c r="J31" s="256"/>
+      <c r="K31" s="257"/>
+      <c r="L31" s="257"/>
+      <c r="M31" s="257"/>
+      <c r="N31" s="257"/>
+      <c r="O31" s="257"/>
+      <c r="P31" s="257"/>
+      <c r="Q31" s="257"/>
+      <c r="R31" s="257"/>
+      <c r="S31" s="257"/>
+      <c r="T31" s="257"/>
+      <c r="U31" s="257"/>
+      <c r="V31" s="257"/>
+      <c r="W31" s="257"/>
+      <c r="X31" s="257"/>
+      <c r="Y31" s="257"/>
+      <c r="Z31" s="257"/>
+      <c r="AA31" s="257"/>
+      <c r="AB31" s="258"/>
+      <c r="AC31" s="238"/>
+      <c r="AD31" s="241"/>
+      <c r="AE31" s="239"/>
+      <c r="AF31" s="206"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
-      <c r="A32" s="289"/>
-      <c r="B32" s="292"/>
-      <c r="C32" s="291"/>
-      <c r="D32" s="291"/>
-      <c r="E32" s="290"/>
-      <c r="F32" s="298"/>
-      <c r="G32" s="297"/>
-      <c r="H32" s="297"/>
-      <c r="I32" s="296"/>
-      <c r="J32" s="295"/>
-      <c r="K32" s="294"/>
-      <c r="L32" s="294"/>
-      <c r="M32" s="294"/>
-      <c r="N32" s="294"/>
-      <c r="O32" s="294"/>
-      <c r="P32" s="294"/>
-      <c r="Q32" s="294"/>
-      <c r="R32" s="294"/>
-      <c r="S32" s="294"/>
-      <c r="T32" s="294"/>
-      <c r="U32" s="294"/>
-      <c r="V32" s="294"/>
-      <c r="W32" s="294"/>
-      <c r="X32" s="294"/>
-      <c r="Y32" s="294"/>
-      <c r="Z32" s="294"/>
-      <c r="AA32" s="294"/>
-      <c r="AB32" s="293"/>
-      <c r="AC32" s="292"/>
-      <c r="AD32" s="291"/>
-      <c r="AE32" s="290"/>
-      <c r="AF32" s="289"/>
+      <c r="A32" s="206"/>
+      <c r="B32" s="238"/>
+      <c r="C32" s="241"/>
+      <c r="D32" s="241"/>
+      <c r="E32" s="239"/>
+      <c r="F32" s="253"/>
+      <c r="G32" s="254"/>
+      <c r="H32" s="254"/>
+      <c r="I32" s="255"/>
+      <c r="J32" s="256"/>
+      <c r="K32" s="257"/>
+      <c r="L32" s="257"/>
+      <c r="M32" s="257"/>
+      <c r="N32" s="257"/>
+      <c r="O32" s="257"/>
+      <c r="P32" s="257"/>
+      <c r="Q32" s="257"/>
+      <c r="R32" s="257"/>
+      <c r="S32" s="257"/>
+      <c r="T32" s="257"/>
+      <c r="U32" s="257"/>
+      <c r="V32" s="257"/>
+      <c r="W32" s="257"/>
+      <c r="X32" s="257"/>
+      <c r="Y32" s="257"/>
+      <c r="Z32" s="257"/>
+      <c r="AA32" s="257"/>
+      <c r="AB32" s="258"/>
+      <c r="AC32" s="238"/>
+      <c r="AD32" s="241"/>
+      <c r="AE32" s="239"/>
+      <c r="AF32" s="206"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
-      <c r="A33" s="289"/>
-      <c r="B33" s="292"/>
-      <c r="C33" s="291"/>
-      <c r="D33" s="291"/>
-      <c r="E33" s="290"/>
-      <c r="F33" s="298"/>
-      <c r="G33" s="297"/>
-      <c r="H33" s="297"/>
-      <c r="I33" s="296"/>
-      <c r="J33" s="295"/>
-      <c r="K33" s="294"/>
-      <c r="L33" s="294"/>
-      <c r="M33" s="294"/>
-      <c r="N33" s="294"/>
-      <c r="O33" s="294"/>
-      <c r="P33" s="294"/>
-      <c r="Q33" s="294"/>
-      <c r="R33" s="294"/>
-      <c r="S33" s="294"/>
-      <c r="T33" s="294"/>
-      <c r="U33" s="294"/>
-      <c r="V33" s="294"/>
-      <c r="W33" s="294"/>
-      <c r="X33" s="294"/>
-      <c r="Y33" s="294"/>
-      <c r="Z33" s="294"/>
-      <c r="AA33" s="294"/>
-      <c r="AB33" s="293"/>
-      <c r="AC33" s="292"/>
-      <c r="AD33" s="291"/>
-      <c r="AE33" s="290"/>
-      <c r="AF33" s="289"/>
+      <c r="A33" s="206"/>
+      <c r="B33" s="238"/>
+      <c r="C33" s="241"/>
+      <c r="D33" s="241"/>
+      <c r="E33" s="239"/>
+      <c r="F33" s="253"/>
+      <c r="G33" s="254"/>
+      <c r="H33" s="254"/>
+      <c r="I33" s="255"/>
+      <c r="J33" s="256"/>
+      <c r="K33" s="257"/>
+      <c r="L33" s="257"/>
+      <c r="M33" s="257"/>
+      <c r="N33" s="257"/>
+      <c r="O33" s="257"/>
+      <c r="P33" s="257"/>
+      <c r="Q33" s="257"/>
+      <c r="R33" s="257"/>
+      <c r="S33" s="257"/>
+      <c r="T33" s="257"/>
+      <c r="U33" s="257"/>
+      <c r="V33" s="257"/>
+      <c r="W33" s="257"/>
+      <c r="X33" s="257"/>
+      <c r="Y33" s="257"/>
+      <c r="Z33" s="257"/>
+      <c r="AA33" s="257"/>
+      <c r="AB33" s="258"/>
+      <c r="AC33" s="238"/>
+      <c r="AD33" s="241"/>
+      <c r="AE33" s="239"/>
+      <c r="AF33" s="206"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
-      <c r="A34" s="289"/>
-      <c r="B34" s="289"/>
-      <c r="C34" s="289"/>
-      <c r="D34" s="289"/>
-      <c r="E34" s="289"/>
-      <c r="F34" s="289"/>
-      <c r="G34" s="289"/>
-      <c r="H34" s="289"/>
-      <c r="I34" s="289"/>
-      <c r="J34" s="289"/>
-      <c r="K34" s="289"/>
-      <c r="L34" s="289"/>
-      <c r="M34" s="289"/>
-      <c r="N34" s="289"/>
-      <c r="O34" s="289"/>
-      <c r="Q34" s="289"/>
-      <c r="R34" s="289"/>
-      <c r="S34" s="289"/>
-      <c r="T34" s="289"/>
-      <c r="U34" s="289"/>
-      <c r="V34" s="289"/>
-      <c r="W34" s="289"/>
-      <c r="X34" s="289"/>
-      <c r="Y34" s="289"/>
-      <c r="Z34" s="289"/>
-      <c r="AA34" s="289"/>
-      <c r="AB34" s="289"/>
-      <c r="AC34" s="289"/>
-      <c r="AD34" s="289"/>
-      <c r="AE34" s="289"/>
-      <c r="AF34" s="289"/>
+      <c r="A34" s="206"/>
+      <c r="B34" s="206"/>
+      <c r="C34" s="206"/>
+      <c r="D34" s="206"/>
+      <c r="E34" s="206"/>
+      <c r="F34" s="206"/>
+      <c r="G34" s="206"/>
+      <c r="H34" s="206"/>
+      <c r="I34" s="206"/>
+      <c r="J34" s="206"/>
+      <c r="K34" s="206"/>
+      <c r="L34" s="206"/>
+      <c r="M34" s="206"/>
+      <c r="N34" s="206"/>
+      <c r="O34" s="206"/>
+      <c r="Q34" s="206"/>
+      <c r="R34" s="206"/>
+      <c r="S34" s="206"/>
+      <c r="T34" s="206"/>
+      <c r="U34" s="206"/>
+      <c r="V34" s="206"/>
+      <c r="W34" s="206"/>
+      <c r="X34" s="206"/>
+      <c r="Y34" s="206"/>
+      <c r="Z34" s="206"/>
+      <c r="AA34" s="206"/>
+      <c r="AB34" s="206"/>
+      <c r="AC34" s="206"/>
+      <c r="AD34" s="206"/>
+      <c r="AE34" s="206"/>
+      <c r="AF34" s="206"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
     <mergeCell ref="F8:Q9"/>
@@ -8472,52 +8735,7 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -8537,7 +8755,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -8570,10 +8788,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="60"/>
-      <c r="C2" s="175" t="s">
+      <c r="C2" s="259" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="177"/>
+      <c r="D2" s="260"/>
       <c r="E2" s="24" t="s">
         <v>22</v>
       </c>
@@ -8592,10 +8810,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="60"/>
-      <c r="C3" s="175" t="s">
+      <c r="C3" s="259" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="177"/>
+      <c r="D3" s="260"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
@@ -8610,12 +8828,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="60"/>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="259" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="177"/>
+      <c r="D4" s="298"/>
+      <c r="E4" s="298"/>
+      <c r="F4" s="260"/>
       <c r="G4" s="24" t="s">
         <v>24</v>
       </c>
@@ -8638,42 +8856,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="30"/>
-      <c r="C6" s="175" t="s">
+      <c r="C6" s="259" t="s">
         <v>182</v>
       </c>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="177"/>
+      <c r="D6" s="298"/>
+      <c r="E6" s="298"/>
+      <c r="F6" s="298"/>
+      <c r="G6" s="298"/>
+      <c r="H6" s="260"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="60" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="175" t="s">
+      <c r="C7" s="259" t="s">
         <v>175</v>
       </c>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="177"/>
+      <c r="D7" s="298"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="298"/>
+      <c r="H7" s="260"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="60" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="30"/>
-      <c r="C8" s="175" t="s">
+      <c r="C8" s="259" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="177"/>
+      <c r="D8" s="298"/>
+      <c r="E8" s="298"/>
+      <c r="F8" s="298"/>
+      <c r="G8" s="298"/>
+      <c r="H8" s="260"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
@@ -8694,10 +8912,10 @@
       <c r="B10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="197" t="s">
+      <c r="C10" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="213"/>
+      <c r="D10" s="310"/>
       <c r="E10" s="37" t="s">
         <v>1</v>
       </c>
@@ -8718,10 +8936,10 @@
       <c r="B11" s="147" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="190" t="s">
+      <c r="C11" s="284" t="s">
         <v>168</v>
       </c>
-      <c r="D11" s="191"/>
+      <c r="D11" s="285"/>
       <c r="E11" s="111" t="s">
         <v>49</v>
       </c>
@@ -8742,10 +8960,10 @@
       <c r="B12" s="146" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="190" t="s">
+      <c r="C12" s="284" t="s">
         <v>178</v>
       </c>
-      <c r="D12" s="191"/>
+      <c r="D12" s="285"/>
       <c r="E12" s="111" t="s">
         <v>49</v>
       </c>
@@ -8766,10 +8984,10 @@
       <c r="B13" s="146" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="190" t="s">
+      <c r="C13" s="284" t="s">
         <v>175</v>
       </c>
-      <c r="D13" s="191"/>
+      <c r="D13" s="285"/>
       <c r="E13" s="111" t="s">
         <v>35</v>
       </c>
@@ -8790,10 +9008,10 @@
       <c r="B14" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="242" t="s">
+      <c r="C14" s="332" t="s">
         <v>174</v>
       </c>
-      <c r="D14" s="243"/>
+      <c r="D14" s="333"/>
       <c r="E14" s="153" t="s">
         <v>35</v>
       </c>
@@ -8833,10 +9051,10 @@
       <c r="A17" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="178" t="s">
+      <c r="B17" s="267" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="179"/>
+      <c r="C17" s="269"/>
       <c r="D17" s="134" t="s">
         <v>9</v>
       </c>
@@ -8853,11 +9071,11 @@
       <c r="A18" s="71">
         <v>1</v>
       </c>
-      <c r="B18" s="202"/>
-      <c r="C18" s="203"/>
-      <c r="D18" s="227"/>
-      <c r="E18" s="228"/>
-      <c r="F18" s="229"/>
+      <c r="B18" s="275"/>
+      <c r="C18" s="276"/>
+      <c r="D18" s="315"/>
+      <c r="E18" s="316"/>
+      <c r="F18" s="317"/>
       <c r="G18" s="72"/>
       <c r="H18" s="73"/>
     </row>
@@ -8890,15 +9108,15 @@
       <c r="B21" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="178" t="s">
+      <c r="C21" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="196"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="178" t="s">
+      <c r="D21" s="268"/>
+      <c r="E21" s="269"/>
+      <c r="F21" s="267" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="216"/>
+      <c r="G21" s="305"/>
       <c r="H21" s="47" t="s">
         <v>14</v>
       </c>
@@ -8910,15 +9128,15 @@
       <c r="B22" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="235" t="s">
+      <c r="C22" s="327" t="s">
         <v>159</v>
       </c>
-      <c r="D22" s="236"/>
-      <c r="E22" s="237"/>
-      <c r="F22" s="238" t="s">
+      <c r="D22" s="328"/>
+      <c r="E22" s="329"/>
+      <c r="F22" s="330" t="s">
         <v>156</v>
       </c>
-      <c r="G22" s="239"/>
+      <c r="G22" s="331"/>
       <c r="H22" s="140" t="s">
         <v>158</v>
       </c>
@@ -8952,15 +9170,15 @@
       <c r="B25" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="178" t="s">
+      <c r="C25" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="196"/>
-      <c r="E25" s="179"/>
-      <c r="F25" s="197" t="s">
+      <c r="D25" s="268"/>
+      <c r="E25" s="269"/>
+      <c r="F25" s="270" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="198"/>
+      <c r="G25" s="271"/>
       <c r="H25" s="38" t="s">
         <v>17</v>
       </c>
@@ -8972,32 +9190,21 @@
       <c r="B26" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="227" t="s">
+      <c r="C26" s="315" t="s">
         <v>157</v>
       </c>
-      <c r="D26" s="228"/>
-      <c r="E26" s="229"/>
-      <c r="F26" s="227" t="s">
+      <c r="D26" s="316"/>
+      <c r="E26" s="317"/>
+      <c r="F26" s="315" t="s">
         <v>156</v>
       </c>
-      <c r="G26" s="229"/>
+      <c r="G26" s="317"/>
       <c r="H26" s="137" t="s">
         <v>155</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="F26:G26"/>
@@ -9009,6 +9216,17 @@
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9057,10 +9275,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="60"/>
-      <c r="C2" s="175" t="s">
+      <c r="C2" s="259" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="177"/>
+      <c r="D2" s="260"/>
       <c r="E2" s="24" t="s">
         <v>22</v>
       </c>
@@ -9079,10 +9297,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="60"/>
-      <c r="C3" s="175" t="s">
+      <c r="C3" s="259" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="177"/>
+      <c r="D3" s="260"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
@@ -9101,12 +9319,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="60"/>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="259" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="177"/>
+      <c r="D4" s="298"/>
+      <c r="E4" s="298"/>
+      <c r="F4" s="260"/>
       <c r="G4" s="24" t="s">
         <v>24</v>
       </c>
@@ -9129,42 +9347,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="30"/>
-      <c r="C6" s="175" t="s">
+      <c r="C6" s="259" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="177"/>
+      <c r="D6" s="298"/>
+      <c r="E6" s="298"/>
+      <c r="F6" s="298"/>
+      <c r="G6" s="298"/>
+      <c r="H6" s="260"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="60" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="175" t="s">
+      <c r="C7" s="259" t="s">
         <v>198</v>
       </c>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="177"/>
+      <c r="D7" s="298"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="298"/>
+      <c r="H7" s="260"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="60" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="30"/>
-      <c r="C8" s="175" t="s">
+      <c r="C8" s="259" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="177"/>
+      <c r="D8" s="298"/>
+      <c r="E8" s="298"/>
+      <c r="F8" s="298"/>
+      <c r="G8" s="298"/>
+      <c r="H8" s="260"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
@@ -9185,10 +9403,10 @@
       <c r="B10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="197" t="s">
+      <c r="C10" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="213"/>
+      <c r="D10" s="310"/>
       <c r="E10" s="37" t="s">
         <v>1</v>
       </c>
@@ -9209,10 +9427,10 @@
       <c r="B11" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="214" t="s">
+      <c r="C11" s="311" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="215"/>
+      <c r="D11" s="312"/>
       <c r="E11" s="55" t="s">
         <v>49</v>
       </c>
@@ -9233,10 +9451,10 @@
       <c r="B12" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="C12" s="233" t="s">
+      <c r="C12" s="313" t="s">
         <v>194</v>
       </c>
-      <c r="D12" s="234"/>
+      <c r="D12" s="314"/>
       <c r="E12" s="50" t="s">
         <v>49</v>
       </c>
@@ -9276,10 +9494,10 @@
       <c r="A15" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="178" t="s">
+      <c r="B15" s="267" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="179"/>
+      <c r="C15" s="269"/>
       <c r="D15" s="158" t="s">
         <v>9</v>
       </c>
@@ -9296,15 +9514,15 @@
       <c r="A16" s="71">
         <v>1</v>
       </c>
-      <c r="B16" s="202" t="s">
+      <c r="B16" s="275" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="203"/>
-      <c r="D16" s="227" t="s">
+      <c r="C16" s="276"/>
+      <c r="D16" s="315" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="228"/>
-      <c r="F16" s="229"/>
+      <c r="E16" s="316"/>
+      <c r="F16" s="317"/>
       <c r="G16" s="72" t="s">
         <v>54</v>
       </c>
@@ -9341,15 +9559,15 @@
       <c r="B19" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="178" t="s">
+      <c r="C19" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="196"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="178" t="s">
+      <c r="D19" s="268"/>
+      <c r="E19" s="269"/>
+      <c r="F19" s="267" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="216"/>
+      <c r="G19" s="305"/>
       <c r="H19" s="47" t="s">
         <v>14</v>
       </c>
@@ -9361,15 +9579,15 @@
       <c r="B20" s="162" t="s">
         <v>193</v>
       </c>
-      <c r="C20" s="230" t="s">
+      <c r="C20" s="318" t="s">
         <v>192</v>
       </c>
-      <c r="D20" s="231"/>
-      <c r="E20" s="232"/>
-      <c r="F20" s="230" t="s">
+      <c r="D20" s="319"/>
+      <c r="E20" s="320"/>
+      <c r="F20" s="318" t="s">
         <v>191</v>
       </c>
-      <c r="G20" s="232"/>
+      <c r="G20" s="320"/>
       <c r="H20" s="161" t="s">
         <v>190</v>
       </c>
@@ -9403,15 +9621,15 @@
       <c r="B23" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="178" t="s">
+      <c r="C23" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="196"/>
-      <c r="E23" s="179"/>
-      <c r="F23" s="197" t="s">
+      <c r="D23" s="268"/>
+      <c r="E23" s="269"/>
+      <c r="F23" s="270" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="198"/>
+      <c r="G23" s="271"/>
       <c r="H23" s="38" t="s">
         <v>17</v>
       </c>
@@ -9423,33 +9641,21 @@
       <c r="B24" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="227" t="s">
+      <c r="C24" s="315" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="228"/>
-      <c r="E24" s="229"/>
-      <c r="F24" s="227" t="s">
+      <c r="D24" s="316"/>
+      <c r="E24" s="317"/>
+      <c r="F24" s="315" t="s">
         <v>188</v>
       </c>
-      <c r="G24" s="229"/>
+      <c r="G24" s="317"/>
       <c r="H24" s="137" t="s">
         <v>187</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="C24:E24"/>
@@ -9458,6 +9664,18 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9466,6 +9684,453 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA320ED4-5AE7-4CF4-A5F8-2DE2CBE94694}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="34" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="34" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="34" customWidth="1"/>
+    <col min="8" max="8" width="34.1640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20">
+      <c r="A1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="199" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="199"/>
+      <c r="C2" s="259" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="260"/>
+      <c r="E2" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="175" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="26">
+        <v>43725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="199" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="199"/>
+      <c r="C3" s="259" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="260"/>
+      <c r="E3" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="175" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="199" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="199"/>
+      <c r="C4" s="259" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="298"/>
+      <c r="E4" s="298"/>
+      <c r="F4" s="260"/>
+      <c r="G4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="176" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="148"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="148"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="199" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="259" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" s="298"/>
+      <c r="E6" s="298"/>
+      <c r="F6" s="298"/>
+      <c r="G6" s="298"/>
+      <c r="H6" s="260"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="259" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="298"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="298"/>
+      <c r="H7" s="260"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A8" s="199" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="259" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="298"/>
+      <c r="E8" s="298"/>
+      <c r="F8" s="298"/>
+      <c r="G8" s="298"/>
+      <c r="H8" s="260"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A9" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A10" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="270" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="310"/>
+      <c r="E10" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A11" s="53">
+        <v>1</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="311" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="312"/>
+      <c r="E11" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A12" s="174"/>
+      <c r="B12" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" s="313" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="314"/>
+      <c r="E12" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="51"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A13" s="174"/>
+      <c r="B13" s="348" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="308" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="309"/>
+      <c r="E13" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="68"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A14" s="164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A16" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A17" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="267" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="269"/>
+      <c r="D17" s="177" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="179"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A18" s="71">
+        <v>1</v>
+      </c>
+      <c r="B18" s="275"/>
+      <c r="C18" s="276"/>
+      <c r="D18" s="315"/>
+      <c r="E18" s="316"/>
+      <c r="F18" s="317"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A20" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A21" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="267" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="268"/>
+      <c r="E21" s="269"/>
+      <c r="F21" s="267" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="305"/>
+      <c r="H21" s="47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A22" s="163">
+        <v>1</v>
+      </c>
+      <c r="B22" s="162"/>
+      <c r="C22" s="318"/>
+      <c r="D22" s="319"/>
+      <c r="E22" s="320"/>
+      <c r="F22" s="318"/>
+      <c r="G22" s="320"/>
+      <c r="H22" s="161"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A24" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A25" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="267" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="268"/>
+      <c r="E25" s="269"/>
+      <c r="F25" s="270" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="271"/>
+      <c r="H25" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A26" s="139">
+        <v>1</v>
+      </c>
+      <c r="B26" s="138"/>
+      <c r="C26" s="315"/>
+      <c r="D26" s="316"/>
+      <c r="E26" s="317"/>
+      <c r="F26" s="315"/>
+      <c r="G26" s="317"/>
+      <c r="H26" s="137"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -9509,109 +10174,109 @@
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="247" t="s">
+      <c r="B2" s="342" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="248"/>
-      <c r="D2" s="248"/>
-      <c r="E2" s="248"/>
-      <c r="F2" s="249"/>
+      <c r="C2" s="343"/>
+      <c r="D2" s="343"/>
+      <c r="E2" s="343"/>
+      <c r="F2" s="344"/>
       <c r="G2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="247" t="s">
+      <c r="H2" s="342" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="248"/>
-      <c r="J2" s="249"/>
+      <c r="I2" s="343"/>
+      <c r="J2" s="344"/>
       <c r="K2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="255">
+      <c r="L2" s="336">
         <v>43725</v>
       </c>
-      <c r="M2" s="255"/>
-      <c r="N2" s="255"/>
-      <c r="O2" s="255"/>
-      <c r="P2" s="255"/>
+      <c r="M2" s="336"/>
+      <c r="N2" s="336"/>
+      <c r="O2" s="336"/>
+      <c r="P2" s="336"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="247" t="s">
+      <c r="B3" s="342" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="248"/>
-      <c r="D3" s="248"/>
-      <c r="E3" s="248"/>
-      <c r="F3" s="249"/>
+      <c r="C3" s="343"/>
+      <c r="D3" s="343"/>
+      <c r="E3" s="343"/>
+      <c r="F3" s="344"/>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="247" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="248"/>
-      <c r="J3" s="249"/>
+      <c r="H3" s="342" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="343"/>
+      <c r="J3" s="344"/>
       <c r="K3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="256" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="256"/>
-      <c r="N3" s="256"/>
-      <c r="O3" s="256"/>
-      <c r="P3" s="256"/>
+      <c r="L3" s="337" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="337"/>
+      <c r="N3" s="337"/>
+      <c r="O3" s="337"/>
+      <c r="P3" s="337"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="247" t="s">
+      <c r="B4" s="342" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="248"/>
-      <c r="D4" s="248"/>
-      <c r="E4" s="248"/>
-      <c r="F4" s="248"/>
-      <c r="G4" s="248"/>
-      <c r="H4" s="248"/>
-      <c r="I4" s="248"/>
-      <c r="J4" s="249"/>
+      <c r="C4" s="343"/>
+      <c r="D4" s="343"/>
+      <c r="E4" s="343"/>
+      <c r="F4" s="343"/>
+      <c r="G4" s="343"/>
+      <c r="H4" s="343"/>
+      <c r="I4" s="343"/>
+      <c r="J4" s="344"/>
       <c r="K4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="256" t="s">
+      <c r="L4" s="337" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="256"/>
-      <c r="N4" s="256"/>
-      <c r="O4" s="256"/>
-      <c r="P4" s="256"/>
+      <c r="M4" s="337"/>
+      <c r="N4" s="337"/>
+      <c r="O4" s="337"/>
+      <c r="P4" s="337"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="250" t="s">
+      <c r="B5" s="345" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="251"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="251"/>
-      <c r="H5" s="251"/>
-      <c r="I5" s="251"/>
-      <c r="J5" s="251"/>
-      <c r="K5" s="251"/>
-      <c r="L5" s="251"/>
-      <c r="M5" s="251"/>
-      <c r="N5" s="251"/>
-      <c r="O5" s="251"/>
-      <c r="P5" s="252"/>
+      <c r="C5" s="346"/>
+      <c r="D5" s="346"/>
+      <c r="E5" s="346"/>
+      <c r="F5" s="346"/>
+      <c r="G5" s="346"/>
+      <c r="H5" s="346"/>
+      <c r="I5" s="346"/>
+      <c r="J5" s="346"/>
+      <c r="K5" s="346"/>
+      <c r="L5" s="346"/>
+      <c r="M5" s="346"/>
+      <c r="N5" s="346"/>
+      <c r="O5" s="346"/>
+      <c r="P5" s="347"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="6" t="s">
@@ -9659,17 +10324,17 @@
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="257" t="s">
+      <c r="F8" s="338" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="257"/>
-      <c r="H8" s="257"/>
-      <c r="I8" s="257"/>
-      <c r="J8" s="257"/>
-      <c r="K8" s="257"/>
-      <c r="L8" s="257"/>
-      <c r="M8" s="257"/>
-      <c r="N8" s="257"/>
+      <c r="G8" s="338"/>
+      <c r="H8" s="338"/>
+      <c r="I8" s="338"/>
+      <c r="J8" s="338"/>
+      <c r="K8" s="338"/>
+      <c r="L8" s="338"/>
+      <c r="M8" s="338"/>
+      <c r="N8" s="338"/>
       <c r="O8" s="130"/>
       <c r="P8" s="9"/>
     </row>
@@ -9711,14 +10376,14 @@
     </row>
     <row r="10" spans="1:16" ht="22.5" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="244" t="s">
+      <c r="B10" s="339" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="253" t="s">
+      <c r="C10" s="334" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="254"/>
-      <c r="E10" s="254"/>
+      <c r="D10" s="335"/>
+      <c r="E10" s="335"/>
       <c r="F10" s="12" t="s">
         <v>41</v>
       </c>
@@ -9751,12 +10416,12 @@
     </row>
     <row r="11" spans="1:16" ht="22.5" customHeight="1">
       <c r="A11" s="7"/>
-      <c r="B11" s="245"/>
-      <c r="C11" s="253" t="s">
+      <c r="B11" s="340"/>
+      <c r="C11" s="334" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="254"/>
-      <c r="E11" s="254"/>
+      <c r="D11" s="335"/>
+      <c r="E11" s="335"/>
       <c r="F11" s="12" t="s">
         <v>41</v>
       </c>
@@ -9789,12 +10454,12 @@
     </row>
     <row r="12" spans="1:16" ht="22.5" customHeight="1">
       <c r="A12" s="7"/>
-      <c r="B12" s="245"/>
-      <c r="C12" s="253" t="s">
+      <c r="B12" s="340"/>
+      <c r="C12" s="334" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="254"/>
-      <c r="E12" s="254"/>
+      <c r="D12" s="335"/>
+      <c r="E12" s="335"/>
       <c r="F12" s="12" t="s">
         <v>149</v>
       </c>
@@ -9827,12 +10492,12 @@
     </row>
     <row r="13" spans="1:16" ht="22.5" customHeight="1">
       <c r="A13" s="7"/>
-      <c r="B13" s="245"/>
-      <c r="C13" s="253" t="s">
+      <c r="B13" s="340"/>
+      <c r="C13" s="334" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="254"/>
-      <c r="E13" s="254"/>
+      <c r="D13" s="335"/>
+      <c r="E13" s="335"/>
       <c r="F13" s="12" t="s">
         <v>41</v>
       </c>
@@ -9865,12 +10530,12 @@
     </row>
     <row r="14" spans="1:16" ht="22.5" customHeight="1">
       <c r="A14" s="7"/>
-      <c r="B14" s="245"/>
-      <c r="C14" s="253" t="s">
+      <c r="B14" s="340"/>
+      <c r="C14" s="334" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="254"/>
-      <c r="E14" s="254"/>
+      <c r="D14" s="335"/>
+      <c r="E14" s="335"/>
       <c r="F14" s="12" t="s">
         <v>150</v>
       </c>
@@ -9903,12 +10568,12 @@
     </row>
     <row r="15" spans="1:16" ht="22.5" customHeight="1">
       <c r="A15" s="7"/>
-      <c r="B15" s="245"/>
-      <c r="C15" s="253" t="s">
+      <c r="B15" s="340"/>
+      <c r="C15" s="334" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="254"/>
-      <c r="E15" s="254"/>
+      <c r="D15" s="335"/>
+      <c r="E15" s="335"/>
       <c r="F15" s="12" t="s">
         <v>41</v>
       </c>
@@ -9941,12 +10606,12 @@
     </row>
     <row r="16" spans="1:16" ht="22.5" customHeight="1">
       <c r="A16" s="7"/>
-      <c r="B16" s="245"/>
-      <c r="C16" s="253" t="s">
+      <c r="B16" s="340"/>
+      <c r="C16" s="334" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="254"/>
-      <c r="E16" s="254"/>
+      <c r="D16" s="335"/>
+      <c r="E16" s="335"/>
       <c r="F16" s="12" t="s">
         <v>41</v>
       </c>
@@ -9979,12 +10644,12 @@
     </row>
     <row r="17" spans="1:16" ht="22.5" customHeight="1">
       <c r="A17" s="7"/>
-      <c r="B17" s="245"/>
-      <c r="C17" s="253" t="s">
+      <c r="B17" s="340"/>
+      <c r="C17" s="334" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="254"/>
-      <c r="E17" s="254"/>
+      <c r="D17" s="335"/>
+      <c r="E17" s="335"/>
       <c r="F17" s="12" t="s">
         <v>41</v>
       </c>
@@ -10017,12 +10682,12 @@
     </row>
     <row r="18" spans="1:16" ht="22.5" customHeight="1">
       <c r="A18" s="7"/>
-      <c r="B18" s="245"/>
-      <c r="C18" s="253" t="s">
+      <c r="B18" s="340"/>
+      <c r="C18" s="334" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="254"/>
-      <c r="E18" s="254"/>
+      <c r="D18" s="335"/>
+      <c r="E18" s="335"/>
       <c r="F18" s="12" t="s">
         <v>41</v>
       </c>
@@ -10055,12 +10720,12 @@
     </row>
     <row r="19" spans="1:16" ht="22.5" customHeight="1">
       <c r="A19" s="7"/>
-      <c r="B19" s="245"/>
-      <c r="C19" s="253" t="s">
+      <c r="B19" s="340"/>
+      <c r="C19" s="334" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="254"/>
-      <c r="E19" s="254"/>
+      <c r="D19" s="335"/>
+      <c r="E19" s="335"/>
       <c r="F19" s="12" t="s">
         <v>44</v>
       </c>
@@ -10093,12 +10758,12 @@
     </row>
     <row r="20" spans="1:16" ht="22.5" customHeight="1">
       <c r="A20" s="7"/>
-      <c r="B20" s="245"/>
-      <c r="C20" s="253" t="s">
+      <c r="B20" s="340"/>
+      <c r="C20" s="334" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="254"/>
-      <c r="E20" s="254"/>
+      <c r="D20" s="335"/>
+      <c r="E20" s="335"/>
       <c r="F20" s="12" t="s">
         <v>41</v>
       </c>
@@ -10131,7 +10796,7 @@
     </row>
     <row r="21" spans="1:16" ht="22.5" customHeight="1">
       <c r="A21" s="7"/>
-      <c r="B21" s="245"/>
+      <c r="B21" s="340"/>
       <c r="C21" s="13" t="s">
         <v>148</v>
       </c>
@@ -10169,7 +10834,7 @@
     </row>
     <row r="22" spans="1:16" ht="22.5" customHeight="1">
       <c r="A22" s="7"/>
-      <c r="B22" s="245"/>
+      <c r="B22" s="340"/>
       <c r="C22" s="13"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
@@ -10187,7 +10852,7 @@
     </row>
     <row r="23" spans="1:16" ht="22.5" customHeight="1">
       <c r="A23" s="7"/>
-      <c r="B23" s="245"/>
+      <c r="B23" s="340"/>
       <c r="C23" s="13"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
@@ -10205,7 +10870,7 @@
     </row>
     <row r="24" spans="1:16" ht="22.5" customHeight="1">
       <c r="A24" s="7"/>
-      <c r="B24" s="245"/>
+      <c r="B24" s="340"/>
       <c r="C24" s="13"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
@@ -10223,7 +10888,7 @@
     </row>
     <row r="25" spans="1:16" ht="22.5" customHeight="1">
       <c r="A25" s="7"/>
-      <c r="B25" s="245"/>
+      <c r="B25" s="340"/>
       <c r="C25" s="13"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -10241,7 +10906,7 @@
     </row>
     <row r="26" spans="1:16" ht="22.5" customHeight="1">
       <c r="A26" s="7"/>
-      <c r="B26" s="245"/>
+      <c r="B26" s="340"/>
       <c r="C26" s="13"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
@@ -10259,7 +10924,7 @@
     </row>
     <row r="27" spans="1:16" ht="22.5" customHeight="1">
       <c r="A27" s="7"/>
-      <c r="B27" s="245"/>
+      <c r="B27" s="340"/>
       <c r="C27" s="13"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
@@ -10277,7 +10942,7 @@
     </row>
     <row r="28" spans="1:16" ht="22.5" customHeight="1">
       <c r="A28" s="7"/>
-      <c r="B28" s="245"/>
+      <c r="B28" s="340"/>
       <c r="C28" s="13"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10295,7 +10960,7 @@
     </row>
     <row r="29" spans="1:16" ht="22.5" customHeight="1">
       <c r="A29" s="7"/>
-      <c r="B29" s="245"/>
+      <c r="B29" s="340"/>
       <c r="C29" s="13"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
@@ -10313,7 +10978,7 @@
     </row>
     <row r="30" spans="1:16" ht="22.5" customHeight="1">
       <c r="A30" s="7"/>
-      <c r="B30" s="245"/>
+      <c r="B30" s="340"/>
       <c r="C30" s="13"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
@@ -10331,10 +10996,10 @@
     </row>
     <row r="31" spans="1:16" ht="22.5" customHeight="1">
       <c r="A31" s="7"/>
-      <c r="B31" s="245"/>
-      <c r="C31" s="253"/>
-      <c r="D31" s="254"/>
-      <c r="E31" s="254"/>
+      <c r="B31" s="340"/>
+      <c r="C31" s="334"/>
+      <c r="D31" s="335"/>
+      <c r="E31" s="335"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
@@ -10349,10 +11014,10 @@
     </row>
     <row r="32" spans="1:16" ht="22.5" customHeight="1">
       <c r="A32" s="7"/>
-      <c r="B32" s="245"/>
-      <c r="C32" s="253"/>
-      <c r="D32" s="254"/>
-      <c r="E32" s="254"/>
+      <c r="B32" s="340"/>
+      <c r="C32" s="334"/>
+      <c r="D32" s="335"/>
+      <c r="E32" s="335"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -10367,10 +11032,10 @@
     </row>
     <row r="33" spans="1:16" ht="23.25" customHeight="1">
       <c r="A33" s="7"/>
-      <c r="B33" s="245"/>
-      <c r="C33" s="253"/>
-      <c r="D33" s="254"/>
-      <c r="E33" s="254"/>
+      <c r="B33" s="340"/>
+      <c r="C33" s="334"/>
+      <c r="D33" s="335"/>
+      <c r="E33" s="335"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
@@ -10385,10 +11050,10 @@
     </row>
     <row r="34" spans="1:16" ht="23.25" customHeight="1">
       <c r="A34" s="7"/>
-      <c r="B34" s="245"/>
-      <c r="C34" s="253"/>
-      <c r="D34" s="254"/>
-      <c r="E34" s="254"/>
+      <c r="B34" s="340"/>
+      <c r="C34" s="334"/>
+      <c r="D34" s="335"/>
+      <c r="E34" s="335"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
@@ -10403,10 +11068,10 @@
     </row>
     <row r="35" spans="1:16" ht="23.25" customHeight="1">
       <c r="A35" s="7"/>
-      <c r="B35" s="246"/>
-      <c r="C35" s="253"/>
-      <c r="D35" s="254"/>
-      <c r="E35" s="254"/>
+      <c r="B35" s="341"/>
+      <c r="C35" s="334"/>
+      <c r="D35" s="335"/>
+      <c r="E35" s="335"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
@@ -10457,19 +11122,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F8:N8"/>
     <mergeCell ref="B10:B35"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="H3:J3"/>
@@ -10486,6 +11138,19 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F8:N8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10500,142 +11165,142 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="38" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="A27" zoomScale="38" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" style="258" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="258" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="258" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="258" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="258" customWidth="1"/>
-    <col min="6" max="6" width="54.5" style="258" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="258"/>
+    <col min="1" max="1" width="5" style="180" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="180" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="180" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="180" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="180" customWidth="1"/>
+    <col min="6" max="6" width="54.5" style="180" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="180"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="203" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="285"/>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="284"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="201"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="282" t="s">
+      <c r="A2" s="261" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="281"/>
-      <c r="C2" s="175" t="s">
+      <c r="B2" s="262"/>
+      <c r="C2" s="259" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="177"/>
-      <c r="E2" s="280" t="s">
+      <c r="D2" s="260"/>
+      <c r="E2" s="198" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="283" t="s">
+      <c r="F2" s="200" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="282" t="s">
+      <c r="A3" s="261" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="281"/>
-      <c r="C3" s="175" t="s">
+      <c r="B3" s="262"/>
+      <c r="C3" s="259" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="177"/>
-      <c r="E3" s="280" t="s">
+      <c r="D3" s="260"/>
+      <c r="E3" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="279">
+      <c r="F3" s="197">
         <v>43714</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="282" t="s">
+      <c r="A4" s="261" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="281"/>
-      <c r="C4" s="175" t="s">
+      <c r="B4" s="262"/>
+      <c r="C4" s="259" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="177"/>
-      <c r="E4" s="280" t="s">
+      <c r="D4" s="260"/>
+      <c r="E4" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="283" t="s">
+      <c r="F4" s="200" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="282" t="s">
+      <c r="A5" s="261" t="s">
         <v>247</v>
       </c>
-      <c r="B5" s="281"/>
-      <c r="C5" s="175" t="s">
+      <c r="B5" s="262"/>
+      <c r="C5" s="259" t="s">
         <v>246</v>
       </c>
-      <c r="D5" s="177"/>
-      <c r="E5" s="280" t="s">
+      <c r="D5" s="260"/>
+      <c r="E5" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="283"/>
+      <c r="F5" s="200"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="282" t="s">
+      <c r="A6" s="261" t="s">
         <v>245</v>
       </c>
-      <c r="B6" s="281"/>
-      <c r="C6" s="175" t="s">
+      <c r="B6" s="262"/>
+      <c r="C6" s="259" t="s">
         <v>244</v>
       </c>
-      <c r="D6" s="177"/>
-      <c r="E6" s="280" t="s">
+      <c r="D6" s="260"/>
+      <c r="E6" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="279"/>
+      <c r="F6" s="197"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="278"/>
-      <c r="B7" s="278"/>
-      <c r="C7" s="276"/>
-      <c r="D7" s="276"/>
-      <c r="E7" s="277"/>
-      <c r="F7" s="276"/>
+      <c r="A7" s="196"/>
+      <c r="B7" s="196"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="194"/>
     </row>
     <row r="8" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A8" s="275" t="s">
+      <c r="A8" s="193" t="s">
         <v>243</v>
       </c>
-      <c r="B8" s="274"/>
-      <c r="C8" s="274"/>
-      <c r="D8" s="274"/>
-      <c r="E8" s="274"/>
-      <c r="F8" s="273"/>
+      <c r="B8" s="192"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="192"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="191"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A9" s="272" t="s">
+      <c r="A9" s="190" t="s">
         <v>242</v>
       </c>
-      <c r="B9" s="272" t="s">
+      <c r="B9" s="190" t="s">
         <v>241</v>
       </c>
-      <c r="C9" s="272" t="s">
+      <c r="C9" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="272" t="s">
+      <c r="D9" s="190" t="s">
         <v>240</v>
       </c>
-      <c r="E9" s="271" t="s">
+      <c r="E9" s="265" t="s">
         <v>239</v>
       </c>
-      <c r="F9" s="270"/>
+      <c r="F9" s="266"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="166">
@@ -10650,10 +11315,10 @@
       <c r="D10" s="166" t="s">
         <v>227</v>
       </c>
-      <c r="E10" s="268" t="s">
+      <c r="E10" s="263" t="s">
         <v>238</v>
       </c>
-      <c r="F10" s="267"/>
+      <c r="F10" s="264"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="166">
@@ -10668,10 +11333,10 @@
       <c r="D11" s="166" t="s">
         <v>227</v>
       </c>
-      <c r="E11" s="268" t="s">
+      <c r="E11" s="263" t="s">
         <v>236</v>
       </c>
-      <c r="F11" s="267"/>
+      <c r="F11" s="264"/>
     </row>
     <row r="12" spans="1:6" ht="33.5" customHeight="1">
       <c r="A12" s="166">
@@ -10686,10 +11351,10 @@
       <c r="D12" s="166" t="s">
         <v>230</v>
       </c>
-      <c r="E12" s="268" t="s">
+      <c r="E12" s="263" t="s">
         <v>235</v>
       </c>
-      <c r="F12" s="267"/>
+      <c r="F12" s="264"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="166">
@@ -10704,16 +11369,16 @@
       <c r="D13" s="166" t="s">
         <v>227</v>
       </c>
-      <c r="E13" s="268" t="s">
+      <c r="E13" s="263" t="s">
         <v>233</v>
       </c>
-      <c r="F13" s="267"/>
+      <c r="F13" s="264"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="166">
         <v>5</v>
       </c>
-      <c r="B14" s="269" t="s">
+      <c r="B14" s="189" t="s">
         <v>156</v>
       </c>
       <c r="C14" s="166" t="s">
@@ -10722,16 +11387,16 @@
       <c r="D14" s="166" t="s">
         <v>227</v>
       </c>
-      <c r="E14" s="268" t="s">
+      <c r="E14" s="263" t="s">
         <v>232</v>
       </c>
-      <c r="F14" s="267"/>
+      <c r="F14" s="264"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="166">
         <v>6</v>
       </c>
-      <c r="B15" s="269" t="s">
+      <c r="B15" s="189" t="s">
         <v>182</v>
       </c>
       <c r="C15" s="166" t="s">
@@ -10740,10 +11405,10 @@
       <c r="D15" s="166" t="s">
         <v>227</v>
       </c>
-      <c r="E15" s="268" t="s">
+      <c r="E15" s="263" t="s">
         <v>231</v>
       </c>
-      <c r="F15" s="267"/>
+      <c r="F15" s="264"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="166">
@@ -10758,10 +11423,10 @@
       <c r="D16" s="166" t="s">
         <v>230</v>
       </c>
-      <c r="E16" s="268" t="s">
+      <c r="E16" s="263" t="s">
         <v>229</v>
       </c>
-      <c r="F16" s="267"/>
+      <c r="F16" s="264"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="166">
@@ -10776,10 +11441,10 @@
       <c r="D17" s="166" t="s">
         <v>227</v>
       </c>
-      <c r="E17" s="268" t="s">
+      <c r="E17" s="263" t="s">
         <v>228</v>
       </c>
-      <c r="F17" s="267"/>
+      <c r="F17" s="264"/>
     </row>
     <row r="18" spans="1:6" ht="33.75" customHeight="1">
       <c r="A18" s="166">
@@ -10794,229 +11459,219 @@
       <c r="D18" s="166" t="s">
         <v>227</v>
       </c>
-      <c r="E18" s="268" t="s">
+      <c r="E18" s="263" t="s">
         <v>226</v>
       </c>
-      <c r="F18" s="267"/>
+      <c r="F18" s="264"/>
     </row>
     <row r="19" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A19" s="266" t="s">
+      <c r="A19" s="188" t="s">
         <v>225</v>
       </c>
-      <c r="B19" s="265"/>
-      <c r="C19" s="265"/>
-      <c r="D19" s="265"/>
-      <c r="E19" s="265"/>
-      <c r="F19" s="264"/>
+      <c r="B19" s="187"/>
+      <c r="C19" s="187"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="186"/>
     </row>
     <row r="20" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A20" s="263"/>
-      <c r="F20" s="262"/>
+      <c r="A20" s="185"/>
+      <c r="F20" s="184"/>
     </row>
     <row r="21" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A21" s="263"/>
-      <c r="F21" s="262"/>
+      <c r="A21" s="185"/>
+      <c r="F21" s="184"/>
     </row>
     <row r="22" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A22" s="263"/>
-      <c r="F22" s="262"/>
+      <c r="A22" s="185"/>
+      <c r="F22" s="184"/>
     </row>
     <row r="23" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A23" s="263"/>
-      <c r="F23" s="262"/>
+      <c r="A23" s="185"/>
+      <c r="F23" s="184"/>
     </row>
     <row r="24" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A24" s="263"/>
-      <c r="F24" s="262"/>
+      <c r="A24" s="185"/>
+      <c r="F24" s="184"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="263"/>
-      <c r="F25" s="262"/>
+      <c r="A25" s="185"/>
+      <c r="F25" s="184"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="263"/>
-      <c r="F26" s="262"/>
+      <c r="A26" s="185"/>
+      <c r="F26" s="184"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="263"/>
-      <c r="F27" s="262"/>
+      <c r="A27" s="185"/>
+      <c r="F27" s="184"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="263"/>
-      <c r="F28" s="262"/>
+      <c r="A28" s="185"/>
+      <c r="F28" s="184"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="263"/>
-      <c r="F29" s="262"/>
+      <c r="A29" s="185"/>
+      <c r="F29" s="184"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="263"/>
-      <c r="F30" s="262"/>
+      <c r="A30" s="185"/>
+      <c r="F30" s="184"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="263"/>
-      <c r="F31" s="262"/>
+      <c r="A31" s="185"/>
+      <c r="F31" s="184"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="263"/>
-      <c r="F32" s="262"/>
+      <c r="A32" s="185"/>
+      <c r="F32" s="184"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="263"/>
-      <c r="F33" s="262"/>
+      <c r="A33" s="185"/>
+      <c r="F33" s="184"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="263"/>
-      <c r="F34" s="262"/>
+      <c r="A34" s="185"/>
+      <c r="F34" s="184"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="263"/>
-      <c r="F35" s="262"/>
+      <c r="A35" s="185"/>
+      <c r="F35" s="184"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="263"/>
-      <c r="F36" s="262"/>
+      <c r="A36" s="185"/>
+      <c r="F36" s="184"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="263"/>
-      <c r="F37" s="262"/>
+      <c r="A37" s="185"/>
+      <c r="F37" s="184"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="263"/>
-      <c r="F38" s="262"/>
+      <c r="A38" s="185"/>
+      <c r="F38" s="184"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="263"/>
-      <c r="F39" s="262"/>
+      <c r="A39" s="185"/>
+      <c r="F39" s="184"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="263"/>
-      <c r="F40" s="262"/>
+      <c r="A40" s="185"/>
+      <c r="F40" s="184"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="263"/>
-      <c r="F41" s="262"/>
+      <c r="A41" s="185"/>
+      <c r="F41" s="184"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="263"/>
-      <c r="F42" s="262"/>
+      <c r="A42" s="185"/>
+      <c r="F42" s="184"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="263"/>
-      <c r="F43" s="262"/>
+      <c r="A43" s="185"/>
+      <c r="F43" s="184"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="263"/>
-      <c r="F44" s="262"/>
+      <c r="A44" s="185"/>
+      <c r="F44" s="184"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="263"/>
-      <c r="F45" s="262"/>
+      <c r="A45" s="185"/>
+      <c r="F45" s="184"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="263"/>
-      <c r="F46" s="262"/>
+      <c r="A46" s="185"/>
+      <c r="F46" s="184"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="263"/>
-      <c r="F47" s="262"/>
+      <c r="A47" s="185"/>
+      <c r="F47" s="184"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="263"/>
-      <c r="F48" s="262"/>
+      <c r="A48" s="185"/>
+      <c r="F48" s="184"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="263"/>
-      <c r="F49" s="262"/>
+      <c r="A49" s="185"/>
+      <c r="F49" s="184"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="263"/>
-      <c r="F50" s="262"/>
+      <c r="A50" s="185"/>
+      <c r="F50" s="184"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="263"/>
-      <c r="F51" s="262"/>
+      <c r="A51" s="185"/>
+      <c r="F51" s="184"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="263"/>
-      <c r="F52" s="262"/>
+      <c r="A52" s="185"/>
+      <c r="F52" s="184"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="263"/>
-      <c r="F53" s="262"/>
+      <c r="A53" s="185"/>
+      <c r="F53" s="184"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="263"/>
-      <c r="F54" s="262"/>
+      <c r="A54" s="185"/>
+      <c r="F54" s="184"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="263"/>
-      <c r="F55" s="262"/>
+      <c r="A55" s="185"/>
+      <c r="F55" s="184"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="263"/>
-      <c r="F56" s="262"/>
+      <c r="A56" s="185"/>
+      <c r="F56" s="184"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="263"/>
-      <c r="F57" s="262"/>
+      <c r="A57" s="185"/>
+      <c r="F57" s="184"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="263"/>
-      <c r="F58" s="262"/>
+      <c r="A58" s="185"/>
+      <c r="F58" s="184"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="263"/>
-      <c r="F59" s="262"/>
+      <c r="A59" s="185"/>
+      <c r="F59" s="184"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="263"/>
-      <c r="F60" s="262"/>
+      <c r="A60" s="185"/>
+      <c r="F60" s="184"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="263"/>
-      <c r="F61" s="262"/>
+      <c r="A61" s="185"/>
+      <c r="F61" s="184"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="263"/>
-      <c r="F62" s="262"/>
+      <c r="A62" s="185"/>
+      <c r="F62" s="184"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="263"/>
-      <c r="F63" s="262"/>
+      <c r="A63" s="185"/>
+      <c r="F63" s="184"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="263"/>
-      <c r="F64" s="262"/>
+      <c r="A64" s="185"/>
+      <c r="F64" s="184"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="263"/>
-      <c r="F65" s="262"/>
+      <c r="A65" s="185"/>
+      <c r="F65" s="184"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="263"/>
-      <c r="F66" s="262"/>
+      <c r="A66" s="185"/>
+      <c r="F66" s="184"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="261"/>
-      <c r="B67" s="260"/>
-      <c r="C67" s="260"/>
-      <c r="D67" s="260"/>
-      <c r="E67" s="260"/>
-      <c r="F67" s="259"/>
+      <c r="A67" s="183"/>
+      <c r="B67" s="182"/>
+      <c r="C67" s="182"/>
+      <c r="D67" s="182"/>
+      <c r="E67" s="182"/>
+      <c r="F67" s="181"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E13:F13"/>
@@ -11027,6 +11682,16 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11076,10 +11741,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="60"/>
-      <c r="C2" s="175" t="s">
+      <c r="C2" s="259" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="177"/>
+      <c r="D2" s="260"/>
       <c r="E2" s="24" t="s">
         <v>22</v>
       </c>
@@ -11098,10 +11763,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="60"/>
-      <c r="C3" s="175" t="s">
+      <c r="C3" s="259" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="177"/>
+      <c r="D3" s="260"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
@@ -11120,12 +11785,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="60"/>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="259" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="177"/>
+      <c r="D4" s="298"/>
+      <c r="E4" s="298"/>
+      <c r="F4" s="260"/>
       <c r="G4" s="24" t="s">
         <v>24</v>
       </c>
@@ -11148,42 +11813,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="30"/>
-      <c r="C6" s="175" t="s">
+      <c r="C6" s="259" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="177"/>
+      <c r="D6" s="298"/>
+      <c r="E6" s="298"/>
+      <c r="F6" s="298"/>
+      <c r="G6" s="298"/>
+      <c r="H6" s="260"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="60" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="175" t="s">
+      <c r="C7" s="259" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="177"/>
+      <c r="D7" s="298"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="298"/>
+      <c r="H7" s="260"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="60" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="30"/>
-      <c r="C8" s="175" t="s">
+      <c r="C8" s="259" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="177"/>
+      <c r="D8" s="298"/>
+      <c r="E8" s="298"/>
+      <c r="F8" s="298"/>
+      <c r="G8" s="298"/>
+      <c r="H8" s="260"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
@@ -11204,10 +11869,10 @@
       <c r="B10" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="188" t="s">
+      <c r="C10" s="282" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="189"/>
+      <c r="D10" s="283"/>
       <c r="E10" s="99" t="s">
         <v>1</v>
       </c>
@@ -11228,10 +11893,10 @@
       <c r="B11" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="190" t="s">
+      <c r="C11" s="284" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="191"/>
+      <c r="D11" s="285"/>
       <c r="E11" s="111" t="s">
         <v>49</v>
       </c>
@@ -11252,10 +11917,10 @@
       <c r="B12" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="192" t="s">
+      <c r="C12" s="286" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="193"/>
+      <c r="D12" s="287"/>
       <c r="E12" s="112" t="s">
         <v>35</v>
       </c>
@@ -11276,10 +11941,10 @@
       <c r="B13" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="192" t="s">
+      <c r="C13" s="286" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="193"/>
+      <c r="D13" s="287"/>
       <c r="E13" s="112" t="s">
         <v>35</v>
       </c>
@@ -11300,10 +11965,10 @@
       <c r="B14" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="194" t="s">
+      <c r="C14" s="288" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="195"/>
+      <c r="D14" s="289"/>
       <c r="E14" s="113" t="s">
         <v>49</v>
       </c>
@@ -11324,10 +11989,10 @@
       <c r="B15" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="180" t="s">
+      <c r="C15" s="290" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="181"/>
+      <c r="D15" s="291"/>
       <c r="E15" s="112" t="s">
         <v>35</v>
       </c>
@@ -11348,10 +12013,10 @@
       <c r="B16" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="180" t="s">
+      <c r="C16" s="290" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="181"/>
+      <c r="D16" s="291"/>
       <c r="E16" s="112" t="s">
         <v>35</v>
       </c>
@@ -11372,10 +12037,10 @@
       <c r="B17" s="120" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="180" t="s">
+      <c r="C17" s="290" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="181"/>
+      <c r="D17" s="291"/>
       <c r="E17" s="115" t="s">
         <v>49</v>
       </c>
@@ -11396,10 +12061,10 @@
       <c r="B18" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="180" t="s">
+      <c r="C18" s="290" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="181"/>
+      <c r="D18" s="291"/>
       <c r="E18" s="114" t="s">
         <v>49</v>
       </c>
@@ -11420,10 +12085,10 @@
       <c r="B19" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="180" t="s">
+      <c r="C19" s="290" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="181"/>
+      <c r="D19" s="291"/>
       <c r="E19" s="112" t="s">
         <v>35</v>
       </c>
@@ -11444,10 +12109,10 @@
       <c r="B20" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="180" t="s">
+      <c r="C20" s="290" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="181"/>
+      <c r="D20" s="291"/>
       <c r="E20" s="112" t="s">
         <v>35</v>
       </c>
@@ -11468,10 +12133,10 @@
       <c r="B21" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="180" t="s">
+      <c r="C21" s="290" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="181"/>
+      <c r="D21" s="291"/>
       <c r="E21" s="112" t="s">
         <v>35</v>
       </c>
@@ -11492,10 +12157,10 @@
       <c r="B22" s="124" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="180" t="s">
+      <c r="C22" s="290" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="181"/>
+      <c r="D22" s="291"/>
       <c r="E22" s="112" t="s">
         <v>35</v>
       </c>
@@ -11516,10 +12181,10 @@
       <c r="B23" s="125" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="186" t="s">
+      <c r="C23" s="296" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="187"/>
+      <c r="D23" s="297"/>
       <c r="E23" s="116" t="s">
         <v>49</v>
       </c>
@@ -11541,10 +12206,10 @@
       <c r="B24" s="125" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="182" t="s">
+      <c r="C24" s="292" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="183"/>
+      <c r="D24" s="293"/>
       <c r="E24" s="117" t="s">
         <v>49</v>
       </c>
@@ -11565,10 +12230,10 @@
       <c r="B25" s="126" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="184" t="s">
+      <c r="C25" s="294" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="185"/>
+      <c r="D25" s="295"/>
       <c r="E25" s="118" t="s">
         <v>49</v>
       </c>
@@ -11609,10 +12274,10 @@
       <c r="A28" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="178" t="s">
+      <c r="B28" s="267" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="179"/>
+      <c r="C28" s="269"/>
       <c r="D28" s="81" t="s">
         <v>9</v>
       </c>
@@ -11629,15 +12294,15 @@
       <c r="A29" s="71">
         <v>1</v>
       </c>
-      <c r="B29" s="202" t="s">
+      <c r="B29" s="275" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="203"/>
-      <c r="D29" s="199" t="s">
+      <c r="C29" s="276"/>
+      <c r="D29" s="272" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="200"/>
-      <c r="F29" s="201"/>
+      <c r="E29" s="273"/>
+      <c r="F29" s="274"/>
       <c r="G29" s="72" t="s">
         <v>54</v>
       </c>
@@ -11673,15 +12338,15 @@
       <c r="B32" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="204" t="s">
+      <c r="C32" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="205"/>
-      <c r="E32" s="206"/>
-      <c r="F32" s="204" t="s">
+      <c r="D32" s="278"/>
+      <c r="E32" s="279"/>
+      <c r="F32" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="207"/>
+      <c r="G32" s="280"/>
       <c r="H32" s="88" t="s">
         <v>14</v>
       </c>
@@ -11693,15 +12358,15 @@
       <c r="B33" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="199" t="s">
+      <c r="C33" s="272" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="200"/>
-      <c r="E33" s="201"/>
-      <c r="F33" s="208" t="s">
+      <c r="D33" s="273"/>
+      <c r="E33" s="274"/>
+      <c r="F33" s="281" t="s">
         <v>78</v>
       </c>
-      <c r="G33" s="208"/>
+      <c r="G33" s="281"/>
       <c r="H33" s="89" t="s">
         <v>69</v>
       </c>
@@ -11734,15 +12399,15 @@
       <c r="B36" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="178" t="s">
+      <c r="C36" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="196"/>
-      <c r="E36" s="179"/>
-      <c r="F36" s="197" t="s">
+      <c r="D36" s="268"/>
+      <c r="E36" s="269"/>
+      <c r="F36" s="270" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="198"/>
+      <c r="G36" s="271"/>
       <c r="H36" s="38" t="s">
         <v>17</v>
       </c>
@@ -11754,36 +12419,27 @@
       <c r="B37" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="199" t="s">
+      <c r="C37" s="272" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="200"/>
-      <c r="E37" s="201"/>
-      <c r="F37" s="199" t="s">
+      <c r="D37" s="273"/>
+      <c r="E37" s="274"/>
+      <c r="F37" s="272" t="s">
         <v>82</v>
       </c>
-      <c r="G37" s="201"/>
+      <c r="G37" s="274"/>
       <c r="H37" s="75" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C15:D15"/>
@@ -11796,12 +12452,21 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:G33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11850,10 +12515,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="23"/>
-      <c r="C2" s="175" t="s">
+      <c r="C2" s="259" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="177"/>
+      <c r="D2" s="260"/>
       <c r="E2" s="24" t="s">
         <v>22</v>
       </c>
@@ -11872,10 +12537,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="175" t="s">
+      <c r="C3" s="259" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="177"/>
+      <c r="D3" s="260"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
@@ -11894,12 +12559,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="23"/>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="259" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="177"/>
+      <c r="D4" s="298"/>
+      <c r="E4" s="298"/>
+      <c r="F4" s="260"/>
       <c r="G4" s="24" t="s">
         <v>24</v>
       </c>
@@ -11922,42 +12587,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="30"/>
-      <c r="C6" s="175" t="s">
+      <c r="C6" s="259" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="177"/>
+      <c r="D6" s="298"/>
+      <c r="E6" s="298"/>
+      <c r="F6" s="298"/>
+      <c r="G6" s="298"/>
+      <c r="H6" s="260"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="175" t="s">
+      <c r="C7" s="259" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="177"/>
+      <c r="D7" s="298"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="298"/>
+      <c r="H7" s="260"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="30"/>
-      <c r="C8" s="175" t="s">
+      <c r="C8" s="259" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="177"/>
+      <c r="D8" s="298"/>
+      <c r="E8" s="298"/>
+      <c r="F8" s="298"/>
+      <c r="G8" s="298"/>
+      <c r="H8" s="260"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
@@ -11978,10 +12643,10 @@
       <c r="B10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="197" t="s">
+      <c r="C10" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="213"/>
+      <c r="D10" s="310"/>
       <c r="E10" s="37" t="s">
         <v>1</v>
       </c>
@@ -12002,10 +12667,10 @@
       <c r="B11" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="214" t="s">
+      <c r="C11" s="311" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="215"/>
+      <c r="D11" s="312"/>
       <c r="E11" s="55" t="s">
         <v>49</v>
       </c>
@@ -12026,10 +12691,10 @@
       <c r="B12" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="209" t="s">
+      <c r="C12" s="306" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="210"/>
+      <c r="D12" s="307"/>
       <c r="E12" s="58" t="s">
         <v>67</v>
       </c>
@@ -12048,8 +12713,8 @@
         <v>3</v>
       </c>
       <c r="B13" s="49"/>
-      <c r="C13" s="209"/>
-      <c r="D13" s="210"/>
+      <c r="C13" s="306"/>
+      <c r="D13" s="307"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="56"/>
@@ -12060,8 +12725,8 @@
         <v>4</v>
       </c>
       <c r="B14" s="76"/>
-      <c r="C14" s="211"/>
-      <c r="D14" s="212"/>
+      <c r="C14" s="308"/>
+      <c r="D14" s="309"/>
       <c r="E14" s="66"/>
       <c r="F14" s="66"/>
       <c r="G14" s="67"/>
@@ -12093,10 +12758,10 @@
       <c r="A17" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="178" t="s">
+      <c r="B17" s="267" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="179"/>
+      <c r="C17" s="269"/>
       <c r="D17" s="43" t="s">
         <v>9</v>
       </c>
@@ -12113,15 +12778,15 @@
       <c r="A18" s="71">
         <v>1</v>
       </c>
-      <c r="B18" s="202" t="s">
+      <c r="B18" s="275" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="203"/>
-      <c r="D18" s="199" t="s">
+      <c r="C18" s="276"/>
+      <c r="D18" s="272" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="200"/>
-      <c r="F18" s="201"/>
+      <c r="E18" s="273"/>
+      <c r="F18" s="274"/>
       <c r="G18" s="72" t="s">
         <v>54</v>
       </c>
@@ -12158,15 +12823,15 @@
       <c r="B21" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="178" t="s">
+      <c r="C21" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="196"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="178" t="s">
+      <c r="D21" s="268"/>
+      <c r="E21" s="269"/>
+      <c r="F21" s="267" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="216"/>
+      <c r="G21" s="305"/>
       <c r="H21" s="47" t="s">
         <v>14</v>
       </c>
@@ -12176,11 +12841,11 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="217"/>
-      <c r="D22" s="218"/>
-      <c r="E22" s="219"/>
-      <c r="F22" s="217"/>
-      <c r="G22" s="219"/>
+      <c r="C22" s="299"/>
+      <c r="D22" s="300"/>
+      <c r="E22" s="301"/>
+      <c r="F22" s="299"/>
+      <c r="G22" s="301"/>
       <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
@@ -12188,11 +12853,11 @@
         <v>2</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="220"/>
-      <c r="D23" s="221"/>
-      <c r="E23" s="222"/>
-      <c r="F23" s="220"/>
-      <c r="G23" s="222"/>
+      <c r="C23" s="302"/>
+      <c r="D23" s="303"/>
+      <c r="E23" s="304"/>
+      <c r="F23" s="302"/>
+      <c r="G23" s="304"/>
       <c r="H23" s="52"/>
     </row>
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
@@ -12224,15 +12889,15 @@
       <c r="B26" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="178" t="s">
+      <c r="C26" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="196"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="197" t="s">
+      <c r="D26" s="268"/>
+      <c r="E26" s="269"/>
+      <c r="F26" s="270" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="198"/>
+      <c r="G26" s="271"/>
       <c r="H26" s="38" t="s">
         <v>17</v>
       </c>
@@ -12244,34 +12909,21 @@
       <c r="B27" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="199" t="s">
+      <c r="C27" s="272" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="200"/>
-      <c r="E27" s="201"/>
-      <c r="F27" s="199" t="s">
+      <c r="D27" s="273"/>
+      <c r="E27" s="274"/>
+      <c r="F27" s="272" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="201"/>
+      <c r="G27" s="274"/>
       <c r="H27" s="75" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C2:D2"/>
@@ -12283,6 +12935,19 @@
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12331,10 +12996,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="60"/>
-      <c r="C2" s="175" t="s">
+      <c r="C2" s="259" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="177"/>
+      <c r="D2" s="260"/>
       <c r="E2" s="24" t="s">
         <v>22</v>
       </c>
@@ -12353,10 +13018,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="60"/>
-      <c r="C3" s="175" t="s">
+      <c r="C3" s="259" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="177"/>
+      <c r="D3" s="260"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
@@ -12375,12 +13040,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="60"/>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="259" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="177"/>
+      <c r="D4" s="298"/>
+      <c r="E4" s="298"/>
+      <c r="F4" s="260"/>
       <c r="G4" s="24" t="s">
         <v>24</v>
       </c>
@@ -12403,42 +13068,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="30"/>
-      <c r="C6" s="175" t="s">
+      <c r="C6" s="259" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="177"/>
+      <c r="D6" s="298"/>
+      <c r="E6" s="298"/>
+      <c r="F6" s="298"/>
+      <c r="G6" s="298"/>
+      <c r="H6" s="260"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="60" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="175" t="s">
+      <c r="C7" s="259" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="177"/>
+      <c r="D7" s="298"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="298"/>
+      <c r="H7" s="260"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="60" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="30"/>
-      <c r="C8" s="175" t="s">
+      <c r="C8" s="259" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="177"/>
+      <c r="D8" s="298"/>
+      <c r="E8" s="298"/>
+      <c r="F8" s="298"/>
+      <c r="G8" s="298"/>
+      <c r="H8" s="260"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
@@ -12459,10 +13124,10 @@
       <c r="B10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="197" t="s">
+      <c r="C10" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="213"/>
+      <c r="D10" s="310"/>
       <c r="E10" s="37" t="s">
         <v>1</v>
       </c>
@@ -12483,10 +13148,10 @@
       <c r="B11" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="214" t="s">
+      <c r="C11" s="311" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="215"/>
+      <c r="D11" s="312"/>
       <c r="E11" s="55" t="s">
         <v>49</v>
       </c>
@@ -12507,10 +13172,10 @@
       <c r="B12" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="214" t="s">
+      <c r="C12" s="311" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="215"/>
+      <c r="D12" s="312"/>
       <c r="E12" s="55" t="s">
         <v>49</v>
       </c>
@@ -12529,8 +13194,8 @@
         <v>3</v>
       </c>
       <c r="B13" s="49"/>
-      <c r="C13" s="209"/>
-      <c r="D13" s="210"/>
+      <c r="C13" s="306"/>
+      <c r="D13" s="307"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="56"/>
@@ -12541,8 +13206,8 @@
         <v>4</v>
       </c>
       <c r="B14" s="86"/>
-      <c r="C14" s="211"/>
-      <c r="D14" s="212"/>
+      <c r="C14" s="308"/>
+      <c r="D14" s="309"/>
       <c r="E14" s="66"/>
       <c r="F14" s="66"/>
       <c r="G14" s="67"/>
@@ -12574,10 +13239,10 @@
       <c r="A17" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="178" t="s">
+      <c r="B17" s="267" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="179"/>
+      <c r="C17" s="269"/>
       <c r="D17" s="81" t="s">
         <v>9</v>
       </c>
@@ -12594,15 +13259,15 @@
       <c r="A18" s="71">
         <v>1</v>
       </c>
-      <c r="B18" s="202" t="s">
+      <c r="B18" s="275" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="203"/>
-      <c r="D18" s="199" t="s">
+      <c r="C18" s="276"/>
+      <c r="D18" s="272" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="200"/>
-      <c r="F18" s="201"/>
+      <c r="E18" s="273"/>
+      <c r="F18" s="274"/>
       <c r="G18" s="72" t="s">
         <v>54</v>
       </c>
@@ -12614,15 +13279,15 @@
       <c r="A19" s="71">
         <v>2</v>
       </c>
-      <c r="B19" s="202" t="s">
+      <c r="B19" s="275" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="203"/>
-      <c r="D19" s="199" t="s">
+      <c r="C19" s="276"/>
+      <c r="D19" s="272" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="200"/>
-      <c r="F19" s="201"/>
+      <c r="E19" s="273"/>
+      <c r="F19" s="274"/>
       <c r="G19" s="72" t="s">
         <v>54</v>
       </c>
@@ -12659,15 +13324,15 @@
       <c r="B22" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="178" t="s">
+      <c r="C22" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="196"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="178" t="s">
+      <c r="D22" s="268"/>
+      <c r="E22" s="269"/>
+      <c r="F22" s="267" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="216"/>
+      <c r="G22" s="305"/>
       <c r="H22" s="47" t="s">
         <v>14</v>
       </c>
@@ -12679,15 +13344,15 @@
       <c r="B23" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="199" t="s">
+      <c r="C23" s="272" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="200"/>
-      <c r="E23" s="201"/>
-      <c r="F23" s="199" t="s">
+      <c r="D23" s="273"/>
+      <c r="E23" s="274"/>
+      <c r="F23" s="272" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="201"/>
+      <c r="G23" s="274"/>
       <c r="H23" s="75" t="s">
         <v>77</v>
       </c>
@@ -12699,15 +13364,15 @@
       <c r="B24" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="199" t="s">
+      <c r="C24" s="272" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="200"/>
-      <c r="E24" s="201"/>
-      <c r="F24" s="199" t="s">
+      <c r="D24" s="273"/>
+      <c r="E24" s="274"/>
+      <c r="F24" s="272" t="s">
         <v>82</v>
       </c>
-      <c r="G24" s="201"/>
+      <c r="G24" s="274"/>
       <c r="H24" s="75" t="s">
         <v>121</v>
       </c>
@@ -12741,15 +13406,15 @@
       <c r="B27" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="178" t="s">
+      <c r="C27" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="196"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="197" t="s">
+      <c r="D27" s="268"/>
+      <c r="E27" s="269"/>
+      <c r="F27" s="270" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="198"/>
+      <c r="G27" s="271"/>
       <c r="H27" s="38" t="s">
         <v>17</v>
       </c>
@@ -12761,15 +13426,15 @@
       <c r="B28" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="199" t="s">
+      <c r="C28" s="272" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="200"/>
-      <c r="E28" s="201"/>
-      <c r="F28" s="199" t="s">
+      <c r="D28" s="273"/>
+      <c r="E28" s="274"/>
+      <c r="F28" s="272" t="s">
         <v>78</v>
       </c>
-      <c r="G28" s="201"/>
+      <c r="G28" s="274"/>
       <c r="H28" s="75" t="s">
         <v>77</v>
       </c>
@@ -12781,21 +13446,33 @@
       <c r="B29" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="199" t="s">
+      <c r="C29" s="272" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="200"/>
-      <c r="E29" s="201"/>
-      <c r="F29" s="199" t="s">
+      <c r="D29" s="273"/>
+      <c r="E29" s="274"/>
+      <c r="F29" s="272" t="s">
         <v>82</v>
       </c>
-      <c r="G29" s="201"/>
+      <c r="G29" s="274"/>
       <c r="H29" s="75" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="B18:C18"/>
@@ -12812,18 +13489,6 @@
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12872,10 +13537,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="60"/>
-      <c r="C2" s="175" t="s">
+      <c r="C2" s="259" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="177"/>
+      <c r="D2" s="260"/>
       <c r="E2" s="24" t="s">
         <v>22</v>
       </c>
@@ -12894,10 +13559,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="60"/>
-      <c r="C3" s="175" t="s">
+      <c r="C3" s="259" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="177"/>
+      <c r="D3" s="260"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
@@ -12916,12 +13581,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="60"/>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="259" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="177"/>
+      <c r="D4" s="298"/>
+      <c r="E4" s="298"/>
+      <c r="F4" s="260"/>
       <c r="G4" s="24" t="s">
         <v>24</v>
       </c>
@@ -12944,42 +13609,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="30"/>
-      <c r="C6" s="175" t="s">
+      <c r="C6" s="259" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="177"/>
+      <c r="D6" s="298"/>
+      <c r="E6" s="298"/>
+      <c r="F6" s="298"/>
+      <c r="G6" s="298"/>
+      <c r="H6" s="260"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="60" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="175" t="s">
+      <c r="C7" s="259" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="177"/>
+      <c r="D7" s="298"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="298"/>
+      <c r="H7" s="260"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="60" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="30"/>
-      <c r="C8" s="175" t="s">
+      <c r="C8" s="259" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="177"/>
+      <c r="D8" s="298"/>
+      <c r="E8" s="298"/>
+      <c r="F8" s="298"/>
+      <c r="G8" s="298"/>
+      <c r="H8" s="260"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
@@ -13000,10 +13665,10 @@
       <c r="B10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="197" t="s">
+      <c r="C10" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="213"/>
+      <c r="D10" s="310"/>
       <c r="E10" s="37" t="s">
         <v>1</v>
       </c>
@@ -13024,10 +13689,10 @@
       <c r="B11" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="214" t="s">
+      <c r="C11" s="311" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="215"/>
+      <c r="D11" s="312"/>
       <c r="E11" s="55" t="s">
         <v>49</v>
       </c>
@@ -13048,10 +13713,10 @@
       <c r="B12" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="209" t="s">
+      <c r="C12" s="306" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="210"/>
+      <c r="D12" s="307"/>
       <c r="E12" s="58" t="s">
         <v>49</v>
       </c>
@@ -13072,10 +13737,10 @@
       <c r="B13" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="209" t="s">
+      <c r="C13" s="306" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="210"/>
+      <c r="D13" s="307"/>
       <c r="E13" s="50" t="s">
         <v>49</v>
       </c>
@@ -13096,10 +13761,10 @@
       <c r="B14" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="211" t="s">
+      <c r="C14" s="308" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="212"/>
+      <c r="D14" s="309"/>
       <c r="E14" s="66" t="s">
         <v>49</v>
       </c>
@@ -13141,10 +13806,10 @@
       <c r="A17" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="178" t="s">
+      <c r="B17" s="267" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="179"/>
+      <c r="C17" s="269"/>
       <c r="D17" s="81" t="s">
         <v>9</v>
       </c>
@@ -13161,15 +13826,15 @@
       <c r="A18" s="71">
         <v>1</v>
       </c>
-      <c r="B18" s="202" t="s">
+      <c r="B18" s="275" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="203"/>
-      <c r="D18" s="199" t="s">
+      <c r="C18" s="276"/>
+      <c r="D18" s="272" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="200"/>
-      <c r="F18" s="201"/>
+      <c r="E18" s="273"/>
+      <c r="F18" s="274"/>
       <c r="G18" s="72" t="s">
         <v>54</v>
       </c>
@@ -13206,15 +13871,15 @@
       <c r="B21" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="204" t="s">
+      <c r="C21" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="205"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="204" t="s">
+      <c r="D21" s="278"/>
+      <c r="E21" s="279"/>
+      <c r="F21" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="207"/>
+      <c r="G21" s="280"/>
       <c r="H21" s="88" t="s">
         <v>14</v>
       </c>
@@ -13226,15 +13891,15 @@
       <c r="B22" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="199" t="s">
+      <c r="C22" s="272" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="200"/>
-      <c r="E22" s="201"/>
-      <c r="F22" s="208" t="s">
+      <c r="D22" s="273"/>
+      <c r="E22" s="274"/>
+      <c r="F22" s="281" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="208"/>
+      <c r="G22" s="281"/>
       <c r="H22" s="89" t="s">
         <v>83</v>
       </c>
@@ -13246,15 +13911,15 @@
       <c r="B23" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="199" t="s">
+      <c r="C23" s="272" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="200"/>
-      <c r="E23" s="201"/>
-      <c r="F23" s="208" t="s">
+      <c r="D23" s="273"/>
+      <c r="E23" s="274"/>
+      <c r="F23" s="281" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="208"/>
+      <c r="G23" s="281"/>
       <c r="H23" s="89" t="s">
         <v>83</v>
       </c>
@@ -13288,15 +13953,15 @@
       <c r="B26" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="178" t="s">
+      <c r="C26" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="196"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="197" t="s">
+      <c r="D26" s="268"/>
+      <c r="E26" s="269"/>
+      <c r="F26" s="270" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="198"/>
+      <c r="G26" s="271"/>
       <c r="H26" s="38" t="s">
         <v>17</v>
       </c>
@@ -13308,27 +13973,27 @@
       <c r="B27" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="199" t="s">
+      <c r="C27" s="272" t="s">
         <v>131</v>
       </c>
-      <c r="D27" s="200"/>
-      <c r="E27" s="201"/>
-      <c r="F27" s="199" t="s">
+      <c r="D27" s="273"/>
+      <c r="E27" s="274"/>
+      <c r="F27" s="272" t="s">
         <v>132</v>
       </c>
-      <c r="G27" s="201"/>
+      <c r="G27" s="274"/>
       <c r="H27" s="75" t="s">
         <v>133</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="C10:D10"/>
@@ -13341,12 +14006,12 @@
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13395,10 +14060,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="60"/>
-      <c r="C2" s="175" t="s">
+      <c r="C2" s="259" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="177"/>
+      <c r="D2" s="260"/>
       <c r="E2" s="24" t="s">
         <v>22</v>
       </c>
@@ -13417,10 +14082,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="60"/>
-      <c r="C3" s="175" t="s">
+      <c r="C3" s="259" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="177"/>
+      <c r="D3" s="260"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
@@ -13439,12 +14104,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="60"/>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="259" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="177"/>
+      <c r="D4" s="298"/>
+      <c r="E4" s="298"/>
+      <c r="F4" s="260"/>
       <c r="G4" s="24" t="s">
         <v>24</v>
       </c>
@@ -13467,42 +14132,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="30"/>
-      <c r="C6" s="175" t="s">
+      <c r="C6" s="259" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="177"/>
+      <c r="D6" s="298"/>
+      <c r="E6" s="298"/>
+      <c r="F6" s="298"/>
+      <c r="G6" s="298"/>
+      <c r="H6" s="260"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="60" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="175" t="s">
+      <c r="C7" s="259" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="177"/>
+      <c r="D7" s="298"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="298"/>
+      <c r="H7" s="260"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="60" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="30"/>
-      <c r="C8" s="175" t="s">
+      <c r="C8" s="259" t="s">
         <v>213</v>
       </c>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="177"/>
+      <c r="D8" s="298"/>
+      <c r="E8" s="298"/>
+      <c r="F8" s="298"/>
+      <c r="G8" s="298"/>
+      <c r="H8" s="260"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
@@ -13523,10 +14188,10 @@
       <c r="B10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="197" t="s">
+      <c r="C10" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="213"/>
+      <c r="D10" s="310"/>
       <c r="E10" s="37" t="s">
         <v>1</v>
       </c>
@@ -13547,10 +14212,10 @@
       <c r="B11" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="C11" s="214" t="s">
+      <c r="C11" s="311" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="215"/>
+      <c r="D11" s="312"/>
       <c r="E11" s="55" t="s">
         <v>49</v>
       </c>
@@ -13571,10 +14236,10 @@
       <c r="B12" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="C12" s="233" t="s">
+      <c r="C12" s="313" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="234"/>
+      <c r="D12" s="314"/>
       <c r="E12" s="50" t="s">
         <v>49</v>
       </c>
@@ -13595,10 +14260,10 @@
       <c r="B13" s="169" t="s">
         <v>210</v>
       </c>
-      <c r="C13" s="223" t="s">
+      <c r="C13" s="321" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="223"/>
+      <c r="D13" s="321"/>
       <c r="E13" s="168" t="s">
         <v>49</v>
       </c>
@@ -13638,10 +14303,10 @@
       <c r="A16" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="178" t="s">
+      <c r="B16" s="267" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="179"/>
+      <c r="C16" s="269"/>
       <c r="D16" s="158" t="s">
         <v>9</v>
       </c>
@@ -13658,15 +14323,15 @@
       <c r="A17" s="71">
         <v>1</v>
       </c>
-      <c r="B17" s="202" t="s">
+      <c r="B17" s="275" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="203"/>
-      <c r="D17" s="227" t="s">
+      <c r="C17" s="276"/>
+      <c r="D17" s="315" t="s">
         <v>209</v>
       </c>
-      <c r="E17" s="228"/>
-      <c r="F17" s="229"/>
+      <c r="E17" s="316"/>
+      <c r="F17" s="317"/>
       <c r="G17" s="72" t="s">
         <v>54</v>
       </c>
@@ -13703,15 +14368,15 @@
       <c r="B20" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="178" t="s">
+      <c r="C20" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="196"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="178" t="s">
+      <c r="D20" s="268"/>
+      <c r="E20" s="269"/>
+      <c r="F20" s="267" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="216"/>
+      <c r="G20" s="305"/>
       <c r="H20" s="47" t="s">
         <v>14</v>
       </c>
@@ -13723,15 +14388,15 @@
       <c r="B21" s="162" t="s">
         <v>193</v>
       </c>
-      <c r="C21" s="230" t="s">
+      <c r="C21" s="318" t="s">
         <v>208</v>
       </c>
-      <c r="D21" s="231"/>
-      <c r="E21" s="232"/>
-      <c r="F21" s="230" t="s">
+      <c r="D21" s="319"/>
+      <c r="E21" s="320"/>
+      <c r="F21" s="318" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="232"/>
+      <c r="G21" s="320"/>
       <c r="H21" s="161" t="s">
         <v>205</v>
       </c>
@@ -13743,15 +14408,15 @@
       <c r="B22" s="162" t="s">
         <v>193</v>
       </c>
-      <c r="C22" s="224" t="s">
+      <c r="C22" s="322" t="s">
         <v>207</v>
       </c>
-      <c r="D22" s="225"/>
-      <c r="E22" s="226"/>
-      <c r="F22" s="224" t="s">
+      <c r="D22" s="323"/>
+      <c r="E22" s="324"/>
+      <c r="F22" s="322" t="s">
         <v>206</v>
       </c>
-      <c r="G22" s="226"/>
+      <c r="G22" s="324"/>
       <c r="H22" s="165" t="s">
         <v>205</v>
       </c>
@@ -13785,15 +14450,15 @@
       <c r="B25" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="178" t="s">
+      <c r="C25" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="196"/>
-      <c r="E25" s="179"/>
-      <c r="F25" s="197" t="s">
+      <c r="D25" s="268"/>
+      <c r="E25" s="269"/>
+      <c r="F25" s="270" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="198"/>
+      <c r="G25" s="271"/>
       <c r="H25" s="38" t="s">
         <v>17</v>
       </c>
@@ -13805,21 +14470,35 @@
       <c r="B26" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="227" t="s">
+      <c r="C26" s="315" t="s">
         <v>204</v>
       </c>
-      <c r="D26" s="228"/>
-      <c r="E26" s="229"/>
-      <c r="F26" s="227" t="s">
+      <c r="D26" s="316"/>
+      <c r="E26" s="317"/>
+      <c r="F26" s="315" t="s">
         <v>203</v>
       </c>
-      <c r="G26" s="229"/>
+      <c r="G26" s="317"/>
       <c r="H26" s="137" t="s">
         <v>202</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
@@ -13829,20 +14508,6 @@
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13858,7 +14523,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -13891,10 +14556,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="60"/>
-      <c r="C2" s="175" t="s">
+      <c r="C2" s="259" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="177"/>
+      <c r="D2" s="260"/>
       <c r="E2" s="24" t="s">
         <v>22</v>
       </c>
@@ -13913,10 +14578,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="60"/>
-      <c r="C3" s="175" t="s">
+      <c r="C3" s="259" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="177"/>
+      <c r="D3" s="260"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
@@ -13935,12 +14600,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="60"/>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="259" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="177"/>
+      <c r="D4" s="298"/>
+      <c r="E4" s="298"/>
+      <c r="F4" s="260"/>
       <c r="G4" s="24" t="s">
         <v>24</v>
       </c>
@@ -13963,42 +14628,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="30"/>
-      <c r="C6" s="175" t="s">
+      <c r="C6" s="259" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="177"/>
+      <c r="D6" s="298"/>
+      <c r="E6" s="298"/>
+      <c r="F6" s="298"/>
+      <c r="G6" s="298"/>
+      <c r="H6" s="260"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="60" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="175" t="s">
+      <c r="C7" s="259" t="s">
         <v>221</v>
       </c>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="177"/>
+      <c r="D7" s="298"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="298"/>
+      <c r="H7" s="260"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="60" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="30"/>
-      <c r="C8" s="175" t="s">
+      <c r="C8" s="259" t="s">
         <v>224</v>
       </c>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="177"/>
+      <c r="D8" s="298"/>
+      <c r="E8" s="298"/>
+      <c r="F8" s="298"/>
+      <c r="G8" s="298"/>
+      <c r="H8" s="260"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
@@ -14019,10 +14684,10 @@
       <c r="B10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="197" t="s">
+      <c r="C10" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="213"/>
+      <c r="D10" s="310"/>
       <c r="E10" s="37" t="s">
         <v>1</v>
       </c>
@@ -14043,10 +14708,10 @@
       <c r="B11" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="C11" s="214" t="s">
+      <c r="C11" s="311" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="215"/>
+      <c r="D11" s="312"/>
       <c r="E11" s="55" t="s">
         <v>49</v>
       </c>
@@ -14067,10 +14732,10 @@
       <c r="B12" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="C12" s="209" t="s">
+      <c r="C12" s="306" t="s">
         <v>222</v>
       </c>
-      <c r="D12" s="210"/>
+      <c r="D12" s="307"/>
       <c r="E12" s="55" t="s">
         <v>49</v>
       </c>
@@ -14091,10 +14756,10 @@
       <c r="B13" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="209" t="s">
+      <c r="C13" s="306" t="s">
         <v>221</v>
       </c>
-      <c r="D13" s="210"/>
+      <c r="D13" s="307"/>
       <c r="E13" s="55" t="s">
         <v>220</v>
       </c>
@@ -14115,10 +14780,10 @@
       <c r="B14" s="173" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="209" t="s">
+      <c r="C14" s="306" t="s">
         <v>218</v>
       </c>
-      <c r="D14" s="210"/>
+      <c r="D14" s="307"/>
       <c r="E14" s="79" t="s">
         <v>217</v>
       </c>
@@ -14137,10 +14802,10 @@
       <c r="B15" s="86" t="s">
         <v>211</v>
       </c>
-      <c r="C15" s="211" t="s">
+      <c r="C15" s="308" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="212"/>
+      <c r="D15" s="309"/>
       <c r="E15" s="66" t="s">
         <v>49</v>
       </c>
@@ -14180,10 +14845,10 @@
       <c r="A18" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="178" t="s">
+      <c r="B18" s="267" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="179"/>
+      <c r="C18" s="269"/>
       <c r="D18" s="158" t="s">
         <v>9</v>
       </c>
@@ -14200,15 +14865,15 @@
       <c r="A19" s="71">
         <v>1</v>
       </c>
-      <c r="B19" s="202" t="s">
+      <c r="B19" s="275" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="203"/>
-      <c r="D19" s="227" t="s">
+      <c r="C19" s="276"/>
+      <c r="D19" s="315" t="s">
         <v>209</v>
       </c>
-      <c r="E19" s="228"/>
-      <c r="F19" s="229"/>
+      <c r="E19" s="316"/>
+      <c r="F19" s="317"/>
       <c r="G19" s="72" t="s">
         <v>54</v>
       </c>
@@ -14245,15 +14910,15 @@
       <c r="B22" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="178" t="s">
+      <c r="C22" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="196"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="178" t="s">
+      <c r="D22" s="268"/>
+      <c r="E22" s="269"/>
+      <c r="F22" s="267" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="216"/>
+      <c r="G22" s="305"/>
       <c r="H22" s="47" t="s">
         <v>14</v>
       </c>
@@ -14265,15 +14930,15 @@
       <c r="B23" s="162" t="s">
         <v>193</v>
       </c>
-      <c r="C23" s="224" t="s">
+      <c r="C23" s="322" t="s">
         <v>216</v>
       </c>
-      <c r="D23" s="225"/>
-      <c r="E23" s="226"/>
-      <c r="F23" s="224" t="s">
+      <c r="D23" s="323"/>
+      <c r="E23" s="324"/>
+      <c r="F23" s="322" t="s">
         <v>206</v>
       </c>
-      <c r="G23" s="226"/>
+      <c r="G23" s="324"/>
       <c r="H23" s="165" t="s">
         <v>215</v>
       </c>
@@ -14307,15 +14972,15 @@
       <c r="B26" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="178" t="s">
+      <c r="C26" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="196"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="197" t="s">
+      <c r="D26" s="268"/>
+      <c r="E26" s="269"/>
+      <c r="F26" s="270" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="198"/>
+      <c r="G26" s="271"/>
       <c r="H26" s="38" t="s">
         <v>17</v>
       </c>
@@ -14327,27 +14992,26 @@
       <c r="B27" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="227" t="s">
+      <c r="C27" s="315" t="s">
         <v>204</v>
       </c>
-      <c r="D27" s="228"/>
-      <c r="E27" s="229"/>
-      <c r="F27" s="227" t="s">
+      <c r="D27" s="316"/>
+      <c r="E27" s="317"/>
+      <c r="F27" s="315" t="s">
         <v>203</v>
       </c>
-      <c r="G27" s="229"/>
+      <c r="G27" s="317"/>
       <c r="H27" s="137" t="s">
         <v>214</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C11:D11"/>
@@ -14356,15 +15020,16 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="F26:G26"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14413,10 +15078,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="60"/>
-      <c r="C2" s="175" t="s">
+      <c r="C2" s="259" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="177"/>
+      <c r="D2" s="260"/>
       <c r="E2" s="24" t="s">
         <v>22</v>
       </c>
@@ -14435,10 +15100,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="60"/>
-      <c r="C3" s="175" t="s">
+      <c r="C3" s="259" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="177"/>
+      <c r="D3" s="260"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
@@ -14455,12 +15120,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="60"/>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="259" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="177"/>
+      <c r="D4" s="298"/>
+      <c r="E4" s="298"/>
+      <c r="F4" s="260"/>
       <c r="G4" s="24" t="s">
         <v>24</v>
       </c>
@@ -14483,42 +15148,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="30"/>
-      <c r="C6" s="175" t="s">
+      <c r="C6" s="259" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="177"/>
+      <c r="D6" s="298"/>
+      <c r="E6" s="298"/>
+      <c r="F6" s="298"/>
+      <c r="G6" s="298"/>
+      <c r="H6" s="260"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="60" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="175" t="s">
+      <c r="C7" s="259" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="177"/>
+      <c r="D7" s="298"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="298"/>
+      <c r="H7" s="260"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="60" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="30"/>
-      <c r="C8" s="175" t="s">
+      <c r="C8" s="259" t="s">
         <v>170</v>
       </c>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="177"/>
+      <c r="D8" s="298"/>
+      <c r="E8" s="298"/>
+      <c r="F8" s="298"/>
+      <c r="G8" s="298"/>
+      <c r="H8" s="260"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
@@ -14539,10 +15204,10 @@
       <c r="B10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="197" t="s">
+      <c r="C10" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="213"/>
+      <c r="D10" s="310"/>
       <c r="E10" s="37" t="s">
         <v>1</v>
       </c>
@@ -14563,10 +15228,10 @@
       <c r="B11" s="147" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="190" t="s">
+      <c r="C11" s="284" t="s">
         <v>168</v>
       </c>
-      <c r="D11" s="191"/>
+      <c r="D11" s="285"/>
       <c r="E11" s="111" t="s">
         <v>49</v>
       </c>
@@ -14587,10 +15252,10 @@
       <c r="B12" s="146" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="192" t="s">
+      <c r="C12" s="286" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="193"/>
+      <c r="D12" s="287"/>
       <c r="E12" s="111" t="s">
         <v>35</v>
       </c>
@@ -14611,10 +15276,10 @@
       <c r="B13" s="146" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="192" t="s">
+      <c r="C13" s="286" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="193"/>
+      <c r="D13" s="287"/>
       <c r="E13" s="111" t="s">
         <v>35</v>
       </c>
@@ -14635,10 +15300,10 @@
       <c r="B14" s="145" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="192" t="s">
+      <c r="C14" s="286" t="s">
         <v>186</v>
       </c>
-      <c r="D14" s="193"/>
+      <c r="D14" s="287"/>
       <c r="E14" s="111" t="s">
         <v>163</v>
       </c>
@@ -14659,10 +15324,10 @@
       <c r="B15" s="144" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="240" t="s">
+      <c r="C15" s="325" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="241"/>
+      <c r="D15" s="326"/>
       <c r="E15" s="143" t="s">
         <v>160</v>
       </c>
@@ -14702,10 +15367,10 @@
       <c r="A18" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="178" t="s">
+      <c r="B18" s="267" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="179"/>
+      <c r="C18" s="269"/>
       <c r="D18" s="134" t="s">
         <v>9</v>
       </c>
@@ -14722,11 +15387,11 @@
       <c r="A19" s="71">
         <v>1</v>
       </c>
-      <c r="B19" s="202"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="227"/>
-      <c r="E19" s="228"/>
-      <c r="F19" s="229"/>
+      <c r="B19" s="275"/>
+      <c r="C19" s="276"/>
+      <c r="D19" s="315"/>
+      <c r="E19" s="316"/>
+      <c r="F19" s="317"/>
       <c r="G19" s="72"/>
       <c r="H19" s="73"/>
     </row>
@@ -14759,15 +15424,15 @@
       <c r="B22" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="178" t="s">
+      <c r="C22" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="196"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="178" t="s">
+      <c r="D22" s="268"/>
+      <c r="E22" s="269"/>
+      <c r="F22" s="267" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="216"/>
+      <c r="G22" s="305"/>
       <c r="H22" s="47" t="s">
         <v>14</v>
       </c>
@@ -14779,15 +15444,15 @@
       <c r="B23" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="235" t="s">
+      <c r="C23" s="327" t="s">
         <v>159</v>
       </c>
-      <c r="D23" s="236"/>
-      <c r="E23" s="237"/>
-      <c r="F23" s="238" t="s">
+      <c r="D23" s="328"/>
+      <c r="E23" s="329"/>
+      <c r="F23" s="330" t="s">
         <v>156</v>
       </c>
-      <c r="G23" s="239"/>
+      <c r="G23" s="331"/>
       <c r="H23" s="140" t="s">
         <v>159</v>
       </c>
@@ -14821,15 +15486,15 @@
       <c r="B26" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="178" t="s">
+      <c r="C26" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="196"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="197" t="s">
+      <c r="D26" s="268"/>
+      <c r="E26" s="269"/>
+      <c r="F26" s="270" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="198"/>
+      <c r="G26" s="271"/>
       <c r="H26" s="38" t="s">
         <v>17</v>
       </c>
@@ -14841,21 +15506,35 @@
       <c r="B27" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="227" t="s">
+      <c r="C27" s="315" t="s">
         <v>157</v>
       </c>
-      <c r="D27" s="228"/>
-      <c r="E27" s="229"/>
-      <c r="F27" s="227" t="s">
+      <c r="D27" s="316"/>
+      <c r="E27" s="317"/>
+      <c r="F27" s="315" t="s">
         <v>156</v>
       </c>
-      <c r="G27" s="229"/>
+      <c r="G27" s="317"/>
       <c r="H27" s="137" t="s">
         <v>155</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="C26:E26"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:F4"/>
@@ -14865,20 +15544,6 @@
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F26:G26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
